--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JE102"/>
+  <dimension ref="A1:JF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,6 +1219,9 @@
       <c r="JE1" t="n">
         <v>10740</v>
       </c>
+      <c r="JF1" t="n">
+        <v>10759</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2018,6 +2021,9 @@
       <c r="JE2" t="n">
         <v>2022</v>
       </c>
+      <c r="JF2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2817,6 +2823,9 @@
       <c r="JE3" t="n">
         <v>23</v>
       </c>
+      <c r="JF3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3616,6 +3625,9 @@
       <c r="JE4" t="n">
         <v>0</v>
       </c>
+      <c r="JF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4415,6 +4427,9 @@
       <c r="JE5" t="n">
         <v>1</v>
       </c>
+      <c r="JF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5214,6 +5229,9 @@
       <c r="JE6" t="n">
         <v>74</v>
       </c>
+      <c r="JF6" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6013,6 +6031,9 @@
       <c r="JE7" t="n">
         <v>88</v>
       </c>
+      <c r="JF7" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6812,6 +6833,9 @@
       <c r="JE8" t="n">
         <v>-14</v>
       </c>
+      <c r="JF8" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7611,6 +7635,9 @@
       <c r="JE9" t="n">
         <v>0</v>
       </c>
+      <c r="JF9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8410,6 +8437,9 @@
       <c r="JE10" t="n">
         <v>16</v>
       </c>
+      <c r="JF10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9209,6 +9239,9 @@
       <c r="JE11" t="n">
         <v>244</v>
       </c>
+      <c r="JF11" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10008,6 +10041,9 @@
       <c r="JE12" t="n">
         <v>132</v>
       </c>
+      <c r="JF12" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10807,6 +10843,9 @@
       <c r="JE13" t="n">
         <v>376</v>
       </c>
+      <c r="JF13" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11606,6 +11645,9 @@
       <c r="JE14" t="n">
         <v>1.85</v>
       </c>
+      <c r="JF14" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12405,6 +12447,9 @@
       <c r="JE15" t="n">
         <v>120</v>
       </c>
+      <c r="JF15" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13204,6 +13249,9 @@
       <c r="JE16" t="n">
         <v>59</v>
       </c>
+      <c r="JF16" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14003,6 +14051,9 @@
       <c r="JE17" t="n">
         <v>38</v>
       </c>
+      <c r="JF17" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14802,6 +14853,9 @@
       <c r="JE18" t="n">
         <v>22</v>
       </c>
+      <c r="JF18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15601,6 +15655,9 @@
       <c r="JE19" t="n">
         <v>17</v>
       </c>
+      <c r="JF19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16400,6 +16457,9 @@
       <c r="JE20" t="n">
         <v>11</v>
       </c>
+      <c r="JF20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17199,6 +17259,9 @@
       <c r="JE21" t="n">
         <v>6</v>
       </c>
+      <c r="JF21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17998,6 +18061,9 @@
       <c r="JE22" t="n">
         <v>6</v>
       </c>
+      <c r="JF22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18797,6 +18863,9 @@
       <c r="JE23" t="n">
         <v>2</v>
       </c>
+      <c r="JF23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19596,6 +19665,9 @@
       <c r="JE24" t="n">
         <v>19</v>
       </c>
+      <c r="JF24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20395,6 +20467,9 @@
       <c r="JE25" t="n">
         <v>57.9</v>
       </c>
+      <c r="JF25" t="n">
+        <v>58.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21194,6 +21269,9 @@
       <c r="JE26" t="n">
         <v>34.18</v>
       </c>
+      <c r="JF26" t="n">
+        <v>39.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21993,6 +22071,9 @@
       <c r="JE27" t="n">
         <v>19.79</v>
       </c>
+      <c r="JF27" t="n">
+        <v>23.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22792,6 +22873,9 @@
       <c r="JE28" t="n">
         <v>35</v>
       </c>
+      <c r="JF28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23591,6 +23675,9 @@
       <c r="JE29" t="n">
         <v>62</v>
       </c>
+      <c r="JF29" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24390,6 +24477,9 @@
       <c r="JE30" t="n">
         <v>38</v>
       </c>
+      <c r="JF30" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25189,6 +25279,9 @@
       <c r="JE31" t="n">
         <v>51</v>
       </c>
+      <c r="JF31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25988,6 +26081,9 @@
       <c r="JE32" t="n">
         <v>2.68</v>
       </c>
+      <c r="JF32" t="n">
+        <v>3.06</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26787,6 +26883,9 @@
       <c r="JE33" t="n">
         <v>4.64</v>
       </c>
+      <c r="JF33" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27586,6 +27685,9 @@
       <c r="JE34" t="n">
         <v>33.3</v>
       </c>
+      <c r="JF34" t="n">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28385,6 +28487,9 @@
       <c r="JE35" t="n">
         <v>21.6</v>
       </c>
+      <c r="JF35" t="n">
+        <v>19.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29184,6 +29289,9 @@
       <c r="JE36" t="n">
         <v>188.2</v>
       </c>
+      <c r="JF36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29983,6 +30091,9 @@
       <c r="JE37" t="n">
         <v>86.5</v>
       </c>
+      <c r="JF37" t="n">
+        <v>85.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30782,6 +30893,9 @@
       <c r="JE38" t="n">
         <v>25.74</v>
       </c>
+      <c r="JF38" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31581,6 +31695,9 @@
       <c r="JE39" t="n">
         <v>96.09999999999999</v>
       </c>
+      <c r="JF39" t="n">
+        <v>80.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32380,6 +32497,9 @@
       <c r="JE40" t="n">
         <v>4</v>
       </c>
+      <c r="JF40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -33179,6 +33299,9 @@
       <c r="JE41" t="n">
         <v>9</v>
       </c>
+      <c r="JF41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33978,6 +34101,9 @@
       <c r="JE42" t="n">
         <v>6</v>
       </c>
+      <c r="JF42" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34777,6 +34903,9 @@
       <c r="JE43" t="n">
         <v>4</v>
       </c>
+      <c r="JF43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35576,6 +35705,9 @@
       <c r="JE44" t="n">
         <v>139</v>
       </c>
+      <c r="JF44" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -36375,6 +36507,9 @@
       <c r="JE45" t="n">
         <v>235</v>
       </c>
+      <c r="JF45" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -37174,6 +37309,9 @@
       <c r="JE46" t="n">
         <v>264</v>
       </c>
+      <c r="JF46" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37973,6 +38111,9 @@
       <c r="JE47" t="n">
         <v>70.2</v>
       </c>
+      <c r="JF47" t="n">
+        <v>70.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38772,6 +38913,9 @@
       <c r="JE48" t="n">
         <v>62</v>
       </c>
+      <c r="JF48" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -39571,6 +39715,9 @@
       <c r="JE49" t="n">
         <v>11</v>
       </c>
+      <c r="JF49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -40370,6 +40517,9 @@
       <c r="JE50" t="n">
         <v>10</v>
       </c>
+      <c r="JF50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -41169,6 +41319,9 @@
       <c r="JE51" t="n">
         <v>35</v>
       </c>
+      <c r="JF51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41968,6 +42121,9 @@
       <c r="JE52" t="n">
         <v>38</v>
       </c>
+      <c r="JF52" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -42767,6 +42923,9 @@
       <c r="JE53" t="n">
         <v>52</v>
       </c>
+      <c r="JF53" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -43566,6 +43725,9 @@
       <c r="JE54" t="n">
         <v>4</v>
       </c>
+      <c r="JF54" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -44365,6 +44527,9 @@
       <c r="JE55" t="n">
         <v>6</v>
       </c>
+      <c r="JF55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -45164,6 +45329,9 @@
       <c r="JE56" t="n">
         <v>54.5</v>
       </c>
+      <c r="JF56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -45963,6 +46131,9 @@
       <c r="JE57" t="n">
         <v>219</v>
       </c>
+      <c r="JF57" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -46762,6 +46933,9 @@
       <c r="JE58" t="n">
         <v>128</v>
       </c>
+      <c r="JF58" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -47561,6 +47735,9 @@
       <c r="JE59" t="n">
         <v>347</v>
       </c>
+      <c r="JF59" t="n">
+        <v>437</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -48360,6 +48537,9 @@
       <c r="JE60" t="n">
         <v>1.71</v>
       </c>
+      <c r="JF60" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -49159,6 +49339,9 @@
       <c r="JE61" t="n">
         <v>84</v>
       </c>
+      <c r="JF61" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -49958,6 +50141,9 @@
       <c r="JE62" t="n">
         <v>56</v>
       </c>
+      <c r="JF62" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -50757,6 +50943,9 @@
       <c r="JE63" t="n">
         <v>28</v>
       </c>
+      <c r="JF63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -51556,6 +51745,9 @@
       <c r="JE64" t="n">
         <v>17</v>
       </c>
+      <c r="JF64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -52355,6 +52547,9 @@
       <c r="JE65" t="n">
         <v>22</v>
       </c>
+      <c r="JF65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -53154,6 +53349,9 @@
       <c r="JE66" t="n">
         <v>13</v>
       </c>
+      <c r="JF66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -53953,6 +54151,9 @@
       <c r="JE67" t="n">
         <v>10</v>
       </c>
+      <c r="JF67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -54752,6 +54953,9 @@
       <c r="JE68" t="n">
         <v>10</v>
       </c>
+      <c r="JF68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -55551,6 +55755,9 @@
       <c r="JE69" t="n">
         <v>0</v>
       </c>
+      <c r="JF69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -56350,6 +56557,9 @@
       <c r="JE70" t="n">
         <v>23</v>
       </c>
+      <c r="JF70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -57149,6 +57359,9 @@
       <c r="JE71" t="n">
         <v>56.5</v>
       </c>
+      <c r="JF71" t="n">
+        <v>41.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -57948,6 +58161,9 @@
       <c r="JE72" t="n">
         <v>26.69</v>
       </c>
+      <c r="JF72" t="n">
+        <v>62.43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -58747,6 +58963,9 @@
       <c r="JE73" t="n">
         <v>15.09</v>
       </c>
+      <c r="JF73" t="n">
+        <v>25.71</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -59546,6 +59765,9 @@
       <c r="JE74" t="n">
         <v>31</v>
       </c>
+      <c r="JF74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -60345,6 +60567,9 @@
       <c r="JE75" t="n">
         <v>64</v>
       </c>
+      <c r="JF75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -61144,6 +61369,9 @@
       <c r="JE76" t="n">
         <v>40</v>
       </c>
+      <c r="JF76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -61943,6 +62171,9 @@
       <c r="JE77" t="n">
         <v>50</v>
       </c>
+      <c r="JF77" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -62742,6 +62973,9 @@
       <c r="JE78" t="n">
         <v>2.17</v>
       </c>
+      <c r="JF78" t="n">
+        <v>3.82</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -63541,6 +63775,9 @@
       <c r="JE79" t="n">
         <v>3.85</v>
       </c>
+      <c r="JF79" t="n">
+        <v>9.289999999999999</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -64340,6 +64577,9 @@
       <c r="JE80" t="n">
         <v>46</v>
       </c>
+      <c r="JF80" t="n">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -65139,6 +65379,9 @@
       <c r="JE81" t="n">
         <v>26</v>
       </c>
+      <c r="JF81" t="n">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -65938,6 +66181,9 @@
       <c r="JE82" t="n">
         <v>187.5</v>
       </c>
+      <c r="JF82" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -66737,6 +66983,9 @@
       <c r="JE83" t="n">
         <v>86</v>
       </c>
+      <c r="JF83" t="n">
+        <v>88.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -67536,6 +67785,9 @@
       <c r="JE84" t="n">
         <v>25.66</v>
       </c>
+      <c r="JF84" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -68335,6 +68587,9 @@
       <c r="JE85" t="n">
         <v>113.5</v>
       </c>
+      <c r="JF85" t="n">
+        <v>80.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -69134,6 +69389,9 @@
       <c r="JE86" t="n">
         <v>5</v>
       </c>
+      <c r="JF86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -69933,6 +70191,9 @@
       <c r="JE87" t="n">
         <v>7</v>
       </c>
+      <c r="JF87" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -70732,6 +70993,9 @@
       <c r="JE88" t="n">
         <v>5</v>
       </c>
+      <c r="JF88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -71531,6 +71795,9 @@
       <c r="JE89" t="n">
         <v>6</v>
       </c>
+      <c r="JF89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -72330,6 +72597,9 @@
       <c r="JE90" t="n">
         <v>153</v>
       </c>
+      <c r="JF90" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -73129,6 +73399,9 @@
       <c r="JE91" t="n">
         <v>197</v>
       </c>
+      <c r="JF91" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -73928,6 +74201,9 @@
       <c r="JE92" t="n">
         <v>250</v>
       </c>
+      <c r="JF92" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -74727,6 +75003,9 @@
       <c r="JE93" t="n">
         <v>72</v>
       </c>
+      <c r="JF93" t="n">
+        <v>76.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -75526,6 +75805,9 @@
       <c r="JE94" t="n">
         <v>64</v>
       </c>
+      <c r="JF94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -76325,6 +76607,9 @@
       <c r="JE95" t="n">
         <v>11</v>
       </c>
+      <c r="JF95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -77124,6 +77409,9 @@
       <c r="JE96" t="n">
         <v>9</v>
       </c>
+      <c r="JF96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -77923,6 +78211,9 @@
       <c r="JE97" t="n">
         <v>31</v>
       </c>
+      <c r="JF97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -78722,6 +79013,9 @@
       <c r="JE98" t="n">
         <v>40</v>
       </c>
+      <c r="JF98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -79521,6 +79815,9 @@
       <c r="JE99" t="n">
         <v>48</v>
       </c>
+      <c r="JF99" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -80320,6 +80617,9 @@
       <c r="JE100" t="n">
         <v>3</v>
       </c>
+      <c r="JF100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -81119,6 +81419,9 @@
       <c r="JE101" t="n">
         <v>10</v>
       </c>
+      <c r="JF101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -81918,6 +82221,9 @@
       <c r="JE102" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="JF102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JF102"/>
+  <dimension ref="A1:JG102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1222,6 +1222,9 @@
       <c r="JF1" t="n">
         <v>10759</v>
       </c>
+      <c r="JG1" t="n">
+        <v>10764</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2024,6 +2027,9 @@
       <c r="JF2" t="n">
         <v>2023</v>
       </c>
+      <c r="JG2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2826,6 +2832,9 @@
       <c r="JF3" t="n">
         <v>1</v>
       </c>
+      <c r="JG3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3628,6 +3637,9 @@
       <c r="JF4" t="n">
         <v>0</v>
       </c>
+      <c r="JG4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4430,6 +4442,9 @@
       <c r="JF5" t="n">
         <v>0</v>
       </c>
+      <c r="JG5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5232,6 +5247,9 @@
       <c r="JF6" t="n">
         <v>67</v>
       </c>
+      <c r="JG6" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6034,6 +6052,9 @@
       <c r="JF7" t="n">
         <v>52</v>
       </c>
+      <c r="JG7" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6836,6 +6857,9 @@
       <c r="JF8" t="n">
         <v>15</v>
       </c>
+      <c r="JG8" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7638,6 +7662,9 @@
       <c r="JF9" t="n">
         <v>1</v>
       </c>
+      <c r="JG9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8440,6 +8467,9 @@
       <c r="JF10" t="n">
         <v>6</v>
       </c>
+      <c r="JG10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9242,6 +9272,9 @@
       <c r="JF11" t="n">
         <v>228</v>
       </c>
+      <c r="JG11" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10044,6 +10077,9 @@
       <c r="JF12" t="n">
         <v>164</v>
       </c>
+      <c r="JG12" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10846,6 +10882,9 @@
       <c r="JF13" t="n">
         <v>392</v>
       </c>
+      <c r="JG13" t="n">
+        <v>411</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11648,6 +11687,9 @@
       <c r="JF14" t="n">
         <v>1.39</v>
       </c>
+      <c r="JG14" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12450,6 +12492,9 @@
       <c r="JF15" t="n">
         <v>87</v>
       </c>
+      <c r="JG15" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13252,6 +13297,9 @@
       <c r="JF16" t="n">
         <v>45</v>
       </c>
+      <c r="JG16" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14054,6 +14102,9 @@
       <c r="JF17" t="n">
         <v>19</v>
       </c>
+      <c r="JG17" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14856,6 +14907,9 @@
       <c r="JF18" t="n">
         <v>23</v>
       </c>
+      <c r="JG18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15658,6 +15712,9 @@
       <c r="JF19" t="n">
         <v>22</v>
       </c>
+      <c r="JG19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16460,6 +16517,9 @@
       <c r="JF20" t="n">
         <v>10</v>
       </c>
+      <c r="JG20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17262,6 +17322,9 @@
       <c r="JF21" t="n">
         <v>5</v>
       </c>
+      <c r="JG21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18064,6 +18127,9 @@
       <c r="JF22" t="n">
         <v>5</v>
       </c>
+      <c r="JG22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18866,6 +18932,9 @@
       <c r="JF23" t="n">
         <v>2</v>
       </c>
+      <c r="JG23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19668,6 +19737,9 @@
       <c r="JF24" t="n">
         <v>17</v>
       </c>
+      <c r="JG24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20470,6 +20542,9 @@
       <c r="JF25" t="n">
         <v>58.8</v>
       </c>
+      <c r="JG25" t="n">
+        <v>63.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21272,6 +21347,9 @@
       <c r="JF26" t="n">
         <v>39.2</v>
       </c>
+      <c r="JG26" t="n">
+        <v>29.36</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22074,6 +22152,9 @@
       <c r="JF27" t="n">
         <v>23.06</v>
       </c>
+      <c r="JG27" t="n">
+        <v>18.68</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22876,6 +22957,9 @@
       <c r="JF28" t="n">
         <v>35</v>
       </c>
+      <c r="JG28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23678,6 +23762,9 @@
       <c r="JF29" t="n">
         <v>78</v>
       </c>
+      <c r="JG29" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24480,6 +24567,9 @@
       <c r="JF30" t="n">
         <v>57</v>
       </c>
+      <c r="JG30" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25282,6 +25372,9 @@
       <c r="JF31" t="n">
         <v>52</v>
       </c>
+      <c r="JG31" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26084,6 +26177,9 @@
       <c r="JF32" t="n">
         <v>3.06</v>
       </c>
+      <c r="JG32" t="n">
+        <v>2.59</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26886,6 +26982,9 @@
       <c r="JF33" t="n">
         <v>5.2</v>
       </c>
+      <c r="JG33" t="n">
+        <v>4.07</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27688,6 +27787,9 @@
       <c r="JF34" t="n">
         <v>28.8</v>
       </c>
+      <c r="JG34" t="n">
+        <v>35.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28490,6 +28592,9 @@
       <c r="JF35" t="n">
         <v>19.2</v>
       </c>
+      <c r="JG35" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29292,6 +29397,9 @@
       <c r="JF36" t="n">
         <v>187.9</v>
       </c>
+      <c r="JG36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30094,6 +30202,9 @@
       <c r="JF37" t="n">
         <v>85.3</v>
       </c>
+      <c r="JG37" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30896,6 +31007,9 @@
       <c r="JF38" t="n">
         <v>25</v>
       </c>
+      <c r="JG38" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31698,6 +31812,9 @@
       <c r="JF39" t="n">
         <v>80.8</v>
       </c>
+      <c r="JG39" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32500,6 +32617,9 @@
       <c r="JF40" t="n">
         <v>7</v>
       </c>
+      <c r="JG40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -33302,6 +33422,9 @@
       <c r="JF41" t="n">
         <v>7</v>
       </c>
+      <c r="JG41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -34104,6 +34227,9 @@
       <c r="JF42" t="n">
         <v>8</v>
       </c>
+      <c r="JG42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34906,6 +35032,9 @@
       <c r="JF43" t="n">
         <v>1</v>
       </c>
+      <c r="JG43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35708,6 +35837,9 @@
       <c r="JF44" t="n">
         <v>150</v>
       </c>
+      <c r="JG44" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -36510,6 +36642,9 @@
       <c r="JF45" t="n">
         <v>233</v>
       </c>
+      <c r="JG45" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -37312,6 +37447,9 @@
       <c r="JF46" t="n">
         <v>277</v>
       </c>
+      <c r="JG46" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -38114,6 +38252,9 @@
       <c r="JF47" t="n">
         <v>70.7</v>
       </c>
+      <c r="JG47" t="n">
+        <v>76.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38916,6 +39057,9 @@
       <c r="JF48" t="n">
         <v>78</v>
       </c>
+      <c r="JG48" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -39718,6 +39862,9 @@
       <c r="JF49" t="n">
         <v>7</v>
       </c>
+      <c r="JG49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -40520,6 +40667,9 @@
       <c r="JF50" t="n">
         <v>8</v>
       </c>
+      <c r="JG50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -41322,6 +41472,9 @@
       <c r="JF51" t="n">
         <v>35</v>
       </c>
+      <c r="JG51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -42124,6 +42277,9 @@
       <c r="JF52" t="n">
         <v>57</v>
       </c>
+      <c r="JG52" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -42926,6 +43082,9 @@
       <c r="JF53" t="n">
         <v>35</v>
       </c>
+      <c r="JG53" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -43728,6 +43887,9 @@
       <c r="JF54" t="n">
         <v>17</v>
       </c>
+      <c r="JG54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -44530,6 +44692,9 @@
       <c r="JF55" t="n">
         <v>5</v>
       </c>
+      <c r="JG55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -45332,6 +45497,9 @@
       <c r="JF56" t="n">
         <v>50</v>
       </c>
+      <c r="JG56" t="n">
+        <v>78.59999999999999</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -46134,6 +46302,9 @@
       <c r="JF57" t="n">
         <v>258</v>
       </c>
+      <c r="JG57" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -46936,6 +47107,9 @@
       <c r="JF58" t="n">
         <v>179</v>
       </c>
+      <c r="JG58" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -47738,6 +47912,9 @@
       <c r="JF59" t="n">
         <v>437</v>
       </c>
+      <c r="JG59" t="n">
+        <v>363</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -48540,6 +48717,9 @@
       <c r="JF60" t="n">
         <v>1.44</v>
       </c>
+      <c r="JG60" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -49342,6 +49522,9 @@
       <c r="JF61" t="n">
         <v>136</v>
       </c>
+      <c r="JG61" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -50144,6 +50327,9 @@
       <c r="JF62" t="n">
         <v>53</v>
       </c>
+      <c r="JG62" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -50946,6 +51132,9 @@
       <c r="JF63" t="n">
         <v>45</v>
       </c>
+      <c r="JG63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -51748,6 +51937,9 @@
       <c r="JF64" t="n">
         <v>22</v>
       </c>
+      <c r="JG64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -52550,6 +52742,9 @@
       <c r="JF65" t="n">
         <v>23</v>
       </c>
+      <c r="JG65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -53352,6 +53547,9 @@
       <c r="JF66" t="n">
         <v>7</v>
       </c>
+      <c r="JG66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -54154,6 +54352,9 @@
       <c r="JF67" t="n">
         <v>5</v>
       </c>
+      <c r="JG67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -54956,6 +55157,9 @@
       <c r="JF68" t="n">
         <v>8</v>
       </c>
+      <c r="JG68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -55758,6 +55962,9 @@
       <c r="JF69" t="n">
         <v>2</v>
       </c>
+      <c r="JG69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -56560,6 +56767,9 @@
       <c r="JF70" t="n">
         <v>17</v>
       </c>
+      <c r="JG70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -57362,6 +57572,9 @@
       <c r="JF71" t="n">
         <v>41.2</v>
       </c>
+      <c r="JG71" t="n">
+        <v>31.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -58164,6 +58377,9 @@
       <c r="JF72" t="n">
         <v>62.43</v>
       </c>
+      <c r="JG72" t="n">
+        <v>72.59999999999999</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -58966,6 +59182,9 @@
       <c r="JF73" t="n">
         <v>25.71</v>
       </c>
+      <c r="JG73" t="n">
+        <v>22.69</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -59768,6 +59987,9 @@
       <c r="JF74" t="n">
         <v>29</v>
       </c>
+      <c r="JG74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -60570,6 +60792,9 @@
       <c r="JF75" t="n">
         <v>59</v>
       </c>
+      <c r="JG75" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -61372,6 +61597,9 @@
       <c r="JF76" t="n">
         <v>43</v>
       </c>
+      <c r="JG76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -62174,6 +62402,9 @@
       <c r="JF77" t="n">
         <v>65</v>
       </c>
+      <c r="JG77" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -62976,6 +63207,9 @@
       <c r="JF78" t="n">
         <v>3.82</v>
       </c>
+      <c r="JG78" t="n">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -63778,6 +64012,9 @@
       <c r="JF79" t="n">
         <v>9.289999999999999</v>
       </c>
+      <c r="JG79" t="n">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -64580,6 +64817,9 @@
       <c r="JF80" t="n">
         <v>23.1</v>
       </c>
+      <c r="JG80" t="n">
+        <v>37.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -65382,6 +65622,9 @@
       <c r="JF81" t="n">
         <v>10.8</v>
       </c>
+      <c r="JG81" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -66184,6 +66427,9 @@
       <c r="JF82" t="n">
         <v>188.7</v>
       </c>
+      <c r="JG82" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -66986,6 +67232,9 @@
       <c r="JF83" t="n">
         <v>88.8</v>
       </c>
+      <c r="JG83" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -67788,6 +68037,9 @@
       <c r="JF84" t="n">
         <v>25.16</v>
       </c>
+      <c r="JG84" t="n">
+        <v>26.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -68590,6 +68842,9 @@
       <c r="JF85" t="n">
         <v>80.7</v>
       </c>
+      <c r="JG85" t="n">
+        <v>99.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -69392,6 +69647,9 @@
       <c r="JF86" t="n">
         <v>6</v>
       </c>
+      <c r="JG86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -70194,6 +70452,9 @@
       <c r="JF87" t="n">
         <v>10</v>
       </c>
+      <c r="JG87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -70996,6 +71257,9 @@
       <c r="JF88" t="n">
         <v>5</v>
       </c>
+      <c r="JG88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -71798,6 +72062,9 @@
       <c r="JF89" t="n">
         <v>2</v>
       </c>
+      <c r="JG89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -72600,6 +72867,9 @@
       <c r="JF90" t="n">
         <v>145</v>
       </c>
+      <c r="JG90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -73402,6 +73672,9 @@
       <c r="JF91" t="n">
         <v>284</v>
       </c>
+      <c r="JG91" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -74204,6 +74477,9 @@
       <c r="JF92" t="n">
         <v>334</v>
       </c>
+      <c r="JG92" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -75006,6 +75282,9 @@
       <c r="JF93" t="n">
         <v>76.40000000000001</v>
       </c>
+      <c r="JG93" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -75808,6 +76087,9 @@
       <c r="JF94" t="n">
         <v>59</v>
       </c>
+      <c r="JG94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -76610,6 +76892,9 @@
       <c r="JF95" t="n">
         <v>14</v>
       </c>
+      <c r="JG95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -77412,6 +77697,9 @@
       <c r="JF96" t="n">
         <v>8</v>
       </c>
+      <c r="JG96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -78214,6 +78502,9 @@
       <c r="JF97" t="n">
         <v>29</v>
       </c>
+      <c r="JG97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -79016,6 +79307,9 @@
       <c r="JF98" t="n">
         <v>43</v>
       </c>
+      <c r="JG98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -79818,6 +80112,9 @@
       <c r="JF99" t="n">
         <v>34</v>
       </c>
+      <c r="JG99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -80620,6 +80917,9 @@
       <c r="JF100" t="n">
         <v>5</v>
       </c>
+      <c r="JG100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -81422,6 +81722,9 @@
       <c r="JF101" t="n">
         <v>5</v>
       </c>
+      <c r="JG101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -82224,6 +82527,9 @@
       <c r="JF102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="JG102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JH102"/>
+  <dimension ref="A1:JI102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1228,6 +1228,9 @@
       <c r="JH1" t="n">
         <v>10773</v>
       </c>
+      <c r="JI1" t="n">
+        <v>10782</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2036,6 +2039,9 @@
       <c r="JH2" t="n">
         <v>2023</v>
       </c>
+      <c r="JI2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2844,6 +2850,9 @@
       <c r="JH3" t="n">
         <v>3</v>
       </c>
+      <c r="JI3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3652,6 +3661,9 @@
       <c r="JH4" t="n">
         <v>0</v>
       </c>
+      <c r="JI4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4460,6 +4472,9 @@
       <c r="JH5" t="n">
         <v>0</v>
       </c>
+      <c r="JI5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5268,6 +5283,9 @@
       <c r="JH6" t="n">
         <v>92</v>
       </c>
+      <c r="JI6" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6076,6 +6094,9 @@
       <c r="JH7" t="n">
         <v>74</v>
       </c>
+      <c r="JI7" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6884,6 +6905,9 @@
       <c r="JH8" t="n">
         <v>18</v>
       </c>
+      <c r="JI8" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7692,6 +7716,9 @@
       <c r="JH9" t="n">
         <v>1</v>
       </c>
+      <c r="JI9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8500,6 +8527,9 @@
       <c r="JH10" t="n">
         <v>5</v>
       </c>
+      <c r="JI10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9308,6 +9338,9 @@
       <c r="JH11" t="n">
         <v>242</v>
       </c>
+      <c r="JI11" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10116,6 +10149,9 @@
       <c r="JH12" t="n">
         <v>162</v>
       </c>
+      <c r="JI12" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10924,6 +10960,9 @@
       <c r="JH13" t="n">
         <v>404</v>
       </c>
+      <c r="JI13" t="n">
+        <v>467</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11732,6 +11771,9 @@
       <c r="JH14" t="n">
         <v>1.49</v>
       </c>
+      <c r="JI14" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12540,6 +12582,9 @@
       <c r="JH15" t="n">
         <v>119</v>
       </c>
+      <c r="JI15" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13348,6 +13393,9 @@
       <c r="JH16" t="n">
         <v>49</v>
       </c>
+      <c r="JI16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14156,6 +14204,9 @@
       <c r="JH17" t="n">
         <v>32</v>
       </c>
+      <c r="JI17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14964,6 +15015,9 @@
       <c r="JH18" t="n">
         <v>20</v>
       </c>
+      <c r="JI18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15772,6 +15826,9 @@
       <c r="JH19" t="n">
         <v>18</v>
       </c>
+      <c r="JI19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16580,6 +16637,9 @@
       <c r="JH20" t="n">
         <v>14</v>
       </c>
+      <c r="JI20" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17388,6 +17448,9 @@
       <c r="JH21" t="n">
         <v>11</v>
       </c>
+      <c r="JI21" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18196,6 +18259,9 @@
       <c r="JH22" t="n">
         <v>7</v>
       </c>
+      <c r="JI22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19004,6 +19070,9 @@
       <c r="JH23" t="n">
         <v>1</v>
       </c>
+      <c r="JI23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19812,6 +19881,9 @@
       <c r="JH24" t="n">
         <v>22</v>
       </c>
+      <c r="JI24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20620,6 +20692,9 @@
       <c r="JH25" t="n">
         <v>63.6</v>
       </c>
+      <c r="JI25" t="n">
+        <v>60.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21428,6 +21503,9 @@
       <c r="JH26" t="n">
         <v>28.86</v>
       </c>
+      <c r="JI26" t="n">
+        <v>27.47</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22236,6 +22314,9 @@
       <c r="JH27" t="n">
         <v>18.36</v>
       </c>
+      <c r="JI27" t="n">
+        <v>16.68</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -23044,6 +23125,9 @@
       <c r="JH28" t="n">
         <v>29</v>
       </c>
+      <c r="JI28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23852,6 +23936,9 @@
       <c r="JH29" t="n">
         <v>63</v>
       </c>
+      <c r="JI29" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24660,6 +24747,9 @@
       <c r="JH30" t="n">
         <v>37</v>
       </c>
+      <c r="JI30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25468,6 +25558,9 @@
       <c r="JH31" t="n">
         <v>52</v>
       </c>
+      <c r="JI31" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26276,6 +26369,9 @@
       <c r="JH32" t="n">
         <v>2.36</v>
       </c>
+      <c r="JI32" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27084,6 +27180,9 @@
       <c r="JH33" t="n">
         <v>3.71</v>
       </c>
+      <c r="JI33" t="n">
+        <v>3.76</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27892,6 +27991,9 @@
       <c r="JH34" t="n">
         <v>40.4</v>
       </c>
+      <c r="JI34" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28700,6 +28802,9 @@
       <c r="JH35" t="n">
         <v>26.9</v>
       </c>
+      <c r="JI35" t="n">
+        <v>26.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29508,6 +29613,9 @@
       <c r="JH36" t="n">
         <v>187.7</v>
       </c>
+      <c r="JI36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30316,6 +30424,9 @@
       <c r="JH37" t="n">
         <v>85.3</v>
       </c>
+      <c r="JI37" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -31124,6 +31235,9 @@
       <c r="JH38" t="n">
         <v>25</v>
       </c>
+      <c r="JI38" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31932,6 +32046,9 @@
       <c r="JH39" t="n">
         <v>84.7</v>
       </c>
+      <c r="JI39" t="n">
+        <v>80.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32740,6 +32857,9 @@
       <c r="JH40" t="n">
         <v>7</v>
       </c>
+      <c r="JI40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -33548,6 +33668,9 @@
       <c r="JH41" t="n">
         <v>7</v>
       </c>
+      <c r="JI41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -34356,6 +34479,9 @@
       <c r="JH42" t="n">
         <v>7</v>
       </c>
+      <c r="JI42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -35164,6 +35290,9 @@
       <c r="JH43" t="n">
         <v>2</v>
       </c>
+      <c r="JI43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35972,6 +36101,9 @@
       <c r="JH44" t="n">
         <v>139</v>
       </c>
+      <c r="JI44" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -36780,6 +36912,9 @@
       <c r="JH45" t="n">
         <v>253</v>
       </c>
+      <c r="JI45" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -37588,6 +37723,9 @@
       <c r="JH46" t="n">
         <v>292</v>
       </c>
+      <c r="JI46" t="n">
+        <v>345</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -38396,6 +38534,9 @@
       <c r="JH47" t="n">
         <v>72.3</v>
       </c>
+      <c r="JI47" t="n">
+        <v>73.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -39204,6 +39345,9 @@
       <c r="JH48" t="n">
         <v>63</v>
       </c>
+      <c r="JI48" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -40012,6 +40156,9 @@
       <c r="JH49" t="n">
         <v>15</v>
       </c>
+      <c r="JI49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -40820,6 +40967,9 @@
       <c r="JH50" t="n">
         <v>10</v>
       </c>
+      <c r="JI50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -41628,6 +41778,9 @@
       <c r="JH51" t="n">
         <v>29</v>
       </c>
+      <c r="JI51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -42436,6 +42589,9 @@
       <c r="JH52" t="n">
         <v>37</v>
       </c>
+      <c r="JI52" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -43244,6 +43400,9 @@
       <c r="JH53" t="n">
         <v>49</v>
       </c>
+      <c r="JI53" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -44052,6 +44211,9 @@
       <c r="JH54" t="n">
         <v>5</v>
       </c>
+      <c r="JI54" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -44860,6 +45022,9 @@
       <c r="JH55" t="n">
         <v>11</v>
       </c>
+      <c r="JI55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -45668,6 +45833,9 @@
       <c r="JH56" t="n">
         <v>78.59999999999999</v>
       </c>
+      <c r="JI56" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -46476,6 +46644,9 @@
       <c r="JH57" t="n">
         <v>250</v>
       </c>
+      <c r="JI57" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -47284,6 +47455,9 @@
       <c r="JH58" t="n">
         <v>170</v>
       </c>
+      <c r="JI58" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -48092,6 +48266,9 @@
       <c r="JH59" t="n">
         <v>420</v>
       </c>
+      <c r="JI59" t="n">
+        <v>347</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -48900,6 +49077,9 @@
       <c r="JH60" t="n">
         <v>1.47</v>
       </c>
+      <c r="JI60" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -49708,6 +49888,9 @@
       <c r="JH61" t="n">
         <v>127</v>
       </c>
+      <c r="JI61" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -50516,6 +50699,9 @@
       <c r="JH62" t="n">
         <v>57</v>
       </c>
+      <c r="JI62" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -51324,6 +51510,9 @@
       <c r="JH63" t="n">
         <v>32</v>
       </c>
+      <c r="JI63" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -52132,6 +52321,9 @@
       <c r="JH64" t="n">
         <v>18</v>
       </c>
+      <c r="JI64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -52940,6 +53132,9 @@
       <c r="JH65" t="n">
         <v>20</v>
       </c>
+      <c r="JI65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -53748,6 +53943,9 @@
       <c r="JH66" t="n">
         <v>11</v>
       </c>
+      <c r="JI66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -54556,6 +54754,9 @@
       <c r="JH67" t="n">
         <v>8</v>
       </c>
+      <c r="JI67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -55364,6 +55565,9 @@
       <c r="JH68" t="n">
         <v>5</v>
       </c>
+      <c r="JI68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -56172,6 +56376,9 @@
       <c r="JH69" t="n">
         <v>3</v>
       </c>
+      <c r="JI69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -56980,6 +57187,9 @@
       <c r="JH70" t="n">
         <v>19</v>
       </c>
+      <c r="JI70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -57788,6 +57998,9 @@
       <c r="JH71" t="n">
         <v>57.9</v>
       </c>
+      <c r="JI71" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -58596,6 +58809,9 @@
       <c r="JH72" t="n">
         <v>38.18</v>
       </c>
+      <c r="JI72" t="n">
+        <v>43.38</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -59404,6 +59620,9 @@
       <c r="JH73" t="n">
         <v>22.11</v>
       </c>
+      <c r="JI73" t="n">
+        <v>17.35</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -60212,6 +60431,9 @@
       <c r="JH74" t="n">
         <v>43</v>
       </c>
+      <c r="JI74" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -61020,6 +61242,9 @@
       <c r="JH75" t="n">
         <v>59</v>
       </c>
+      <c r="JI75" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -61828,6 +62053,9 @@
       <c r="JH76" t="n">
         <v>38</v>
       </c>
+      <c r="JI76" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -62636,6 +62864,9 @@
       <c r="JH77" t="n">
         <v>48</v>
       </c>
+      <c r="JI77" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -63444,6 +63675,9 @@
       <c r="JH78" t="n">
         <v>2.53</v>
       </c>
+      <c r="JI78" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -64252,6 +64486,9 @@
       <c r="JH79" t="n">
         <v>4.36</v>
       </c>
+      <c r="JI79" t="n">
+        <v>6.38</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -65060,6 +65297,9 @@
       <c r="JH80" t="n">
         <v>33.3</v>
       </c>
+      <c r="JI80" t="n">
+        <v>35.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -65868,6 +66108,9 @@
       <c r="JH81" t="n">
         <v>22.9</v>
       </c>
+      <c r="JI81" t="n">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -66676,6 +66919,9 @@
       <c r="JH82" t="n">
         <v>187.6</v>
       </c>
+      <c r="JI82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -67484,6 +67730,9 @@
       <c r="JH83" t="n">
         <v>86</v>
       </c>
+      <c r="JI83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -68292,6 +68541,9 @@
       <c r="JH84" t="n">
         <v>24.91</v>
       </c>
+      <c r="JI84" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -69100,6 +69352,9 @@
       <c r="JH85" t="n">
         <v>84</v>
       </c>
+      <c r="JI85" t="n">
+        <v>75.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -69908,6 +70163,9 @@
       <c r="JH86" t="n">
         <v>9</v>
       </c>
+      <c r="JI86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -70716,6 +70974,9 @@
       <c r="JH87" t="n">
         <v>6</v>
       </c>
+      <c r="JI87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -71524,6 +71785,9 @@
       <c r="JH88" t="n">
         <v>4</v>
       </c>
+      <c r="JI88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -72332,6 +72596,9 @@
       <c r="JH89" t="n">
         <v>4</v>
       </c>
+      <c r="JI89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -73140,6 +73407,9 @@
       <c r="JH90" t="n">
         <v>136</v>
       </c>
+      <c r="JI90" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -73948,6 +74218,9 @@
       <c r="JH91" t="n">
         <v>276</v>
       </c>
+      <c r="JI91" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -74756,6 +75029,9 @@
       <c r="JH92" t="n">
         <v>315</v>
       </c>
+      <c r="JI92" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -75564,6 +75840,9 @@
       <c r="JH93" t="n">
         <v>75</v>
       </c>
+      <c r="JI93" t="n">
+        <v>66.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -76372,6 +76651,9 @@
       <c r="JH94" t="n">
         <v>59</v>
       </c>
+      <c r="JI94" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -77180,6 +77462,9 @@
       <c r="JH95" t="n">
         <v>11</v>
       </c>
+      <c r="JI95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -77988,6 +78273,9 @@
       <c r="JH96" t="n">
         <v>5</v>
       </c>
+      <c r="JI96" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -78796,6 +79084,9 @@
       <c r="JH97" t="n">
         <v>43</v>
       </c>
+      <c r="JI97" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -79604,6 +79895,9 @@
       <c r="JH98" t="n">
         <v>38</v>
       </c>
+      <c r="JI98" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -80412,6 +80706,9 @@
       <c r="JH99" t="n">
         <v>40</v>
       </c>
+      <c r="JI99" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -81220,6 +81517,9 @@
       <c r="JH100" t="n">
         <v>8</v>
       </c>
+      <c r="JI100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -82028,6 +82328,9 @@
       <c r="JH101" t="n">
         <v>8</v>
       </c>
+      <c r="JI101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -82836,6 +83139,9 @@
       <c r="JH102" t="n">
         <v>72.7</v>
       </c>
+      <c r="JI102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JI102"/>
+  <dimension ref="A1:JJ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1231,6 +1231,9 @@
       <c r="JI1" t="n">
         <v>10782</v>
       </c>
+      <c r="JJ1" t="n">
+        <v>10961</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2042,6 +2045,9 @@
       <c r="JI2" t="n">
         <v>2023</v>
       </c>
+      <c r="JJ2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2853,6 +2859,9 @@
       <c r="JI3" t="n">
         <v>4</v>
       </c>
+      <c r="JJ3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3664,6 +3673,9 @@
       <c r="JI4" t="n">
         <v>0</v>
       </c>
+      <c r="JJ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4475,6 +4487,9 @@
       <c r="JI5" t="n">
         <v>0</v>
       </c>
+      <c r="JJ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5286,6 +5301,9 @@
       <c r="JI6" t="n">
         <v>113</v>
       </c>
+      <c r="JJ6" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6097,6 +6115,9 @@
       <c r="JI7" t="n">
         <v>60</v>
       </c>
+      <c r="JJ7" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6908,6 +6929,9 @@
       <c r="JI8" t="n">
         <v>53</v>
       </c>
+      <c r="JJ8" t="n">
+        <v>-6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7719,6 +7743,9 @@
       <c r="JI9" t="n">
         <v>1</v>
       </c>
+      <c r="JJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8530,6 +8557,9 @@
       <c r="JI10" t="n">
         <v>8</v>
       </c>
+      <c r="JJ10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9341,6 +9371,9 @@
       <c r="JI11" t="n">
         <v>266</v>
       </c>
+      <c r="JJ11" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10152,6 +10185,9 @@
       <c r="JI12" t="n">
         <v>201</v>
       </c>
+      <c r="JJ12" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10963,6 +10999,9 @@
       <c r="JI13" t="n">
         <v>467</v>
       </c>
+      <c r="JJ13" t="n">
+        <v>408</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11774,6 +11813,9 @@
       <c r="JI14" t="n">
         <v>1.32</v>
       </c>
+      <c r="JJ14" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12585,6 +12627,9 @@
       <c r="JI15" t="n">
         <v>117</v>
       </c>
+      <c r="JJ15" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13396,6 +13441,9 @@
       <c r="JI16" t="n">
         <v>60</v>
       </c>
+      <c r="JJ16" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14207,6 +14255,9 @@
       <c r="JI17" t="n">
         <v>37</v>
       </c>
+      <c r="JJ17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15018,6 +15069,9 @@
       <c r="JI18" t="n">
         <v>18</v>
       </c>
+      <c r="JJ18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15829,6 +15883,9 @@
       <c r="JI19" t="n">
         <v>19</v>
       </c>
+      <c r="JJ19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16640,6 +16697,9 @@
       <c r="JI20" t="n">
         <v>17</v>
       </c>
+      <c r="JJ20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17451,6 +17511,9 @@
       <c r="JI21" t="n">
         <v>13</v>
       </c>
+      <c r="JJ21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18262,6 +18325,9 @@
       <c r="JI22" t="n">
         <v>7</v>
       </c>
+      <c r="JJ22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19073,6 +19139,9 @@
       <c r="JI23" t="n">
         <v>4</v>
       </c>
+      <c r="JJ23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19884,6 +19953,9 @@
       <c r="JI24" t="n">
         <v>28</v>
       </c>
+      <c r="JJ24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20695,6 +20767,9 @@
       <c r="JI25" t="n">
         <v>60.7</v>
       </c>
+      <c r="JJ25" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21506,6 +21581,9 @@
       <c r="JI26" t="n">
         <v>27.47</v>
       </c>
+      <c r="JJ26" t="n">
+        <v>45.33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22317,6 +22395,9 @@
       <c r="JI27" t="n">
         <v>16.68</v>
       </c>
+      <c r="JJ27" t="n">
+        <v>21.47</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -23128,6 +23209,9 @@
       <c r="JI28" t="n">
         <v>35</v>
       </c>
+      <c r="JJ28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23939,6 +24023,9 @@
       <c r="JI29" t="n">
         <v>64</v>
       </c>
+      <c r="JJ29" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24750,6 +24837,9 @@
       <c r="JI30" t="n">
         <v>43</v>
       </c>
+      <c r="JJ30" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25561,6 +25651,9 @@
       <c r="JI31" t="n">
         <v>64</v>
       </c>
+      <c r="JJ31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26372,6 +26465,9 @@
       <c r="JI32" t="n">
         <v>2.29</v>
       </c>
+      <c r="JJ32" t="n">
+        <v>2.63</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27183,6 +27279,9 @@
       <c r="JI33" t="n">
         <v>3.76</v>
       </c>
+      <c r="JJ33" t="n">
+        <v>5.56</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27994,6 +28093,9 @@
       <c r="JI34" t="n">
         <v>37.5</v>
       </c>
+      <c r="JJ34" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28805,6 +28907,9 @@
       <c r="JI35" t="n">
         <v>26.6</v>
       </c>
+      <c r="JJ35" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29616,6 +29721,9 @@
       <c r="JI36" t="n">
         <v>187.8</v>
       </c>
+      <c r="JJ36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30427,6 +30535,9 @@
       <c r="JI37" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="JJ37" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -31238,6 +31349,9 @@
       <c r="JI38" t="n">
         <v>24.74</v>
       </c>
+      <c r="JJ38" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -32049,6 +32163,9 @@
       <c r="JI39" t="n">
         <v>80.59999999999999</v>
       </c>
+      <c r="JJ39" t="n">
+        <v>81.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32860,6 +32977,9 @@
       <c r="JI40" t="n">
         <v>8</v>
       </c>
+      <c r="JJ40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -33671,6 +33791,9 @@
       <c r="JI41" t="n">
         <v>7</v>
       </c>
+      <c r="JJ41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -34482,6 +34605,9 @@
       <c r="JI42" t="n">
         <v>6</v>
       </c>
+      <c r="JJ42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -35293,6 +35419,9 @@
       <c r="JI43" t="n">
         <v>2</v>
       </c>
+      <c r="JJ43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -36104,6 +36233,9 @@
       <c r="JI44" t="n">
         <v>166</v>
       </c>
+      <c r="JJ44" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -36915,6 +37047,9 @@
       <c r="JI45" t="n">
         <v>291</v>
       </c>
+      <c r="JJ45" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -37726,6 +37861,9 @@
       <c r="JI46" t="n">
         <v>345</v>
       </c>
+      <c r="JJ46" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -38537,6 +38675,9 @@
       <c r="JI47" t="n">
         <v>73.90000000000001</v>
       </c>
+      <c r="JJ47" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -39348,6 +39489,9 @@
       <c r="JI48" t="n">
         <v>64</v>
       </c>
+      <c r="JJ48" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -40159,6 +40303,9 @@
       <c r="JI49" t="n">
         <v>16</v>
       </c>
+      <c r="JJ49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -40970,6 +41117,9 @@
       <c r="JI50" t="n">
         <v>15</v>
       </c>
+      <c r="JJ50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -41781,6 +41931,9 @@
       <c r="JI51" t="n">
         <v>35</v>
       </c>
+      <c r="JJ51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -42592,6 +42745,9 @@
       <c r="JI52" t="n">
         <v>43</v>
       </c>
+      <c r="JJ52" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -43403,6 +43559,9 @@
       <c r="JI53" t="n">
         <v>55</v>
       </c>
+      <c r="JJ53" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -44214,6 +44373,9 @@
       <c r="JI54" t="n">
         <v>15</v>
       </c>
+      <c r="JJ54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -45025,6 +45187,9 @@
       <c r="JI55" t="n">
         <v>13</v>
       </c>
+      <c r="JJ55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -45836,6 +46001,9 @@
       <c r="JI56" t="n">
         <v>76.5</v>
       </c>
+      <c r="JJ56" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -46647,6 +46815,9 @@
       <c r="JI57" t="n">
         <v>222</v>
       </c>
+      <c r="JJ57" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -47458,6 +47629,9 @@
       <c r="JI58" t="n">
         <v>125</v>
       </c>
+      <c r="JJ58" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -48269,6 +48443,9 @@
       <c r="JI59" t="n">
         <v>347</v>
       </c>
+      <c r="JJ59" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -49080,6 +49257,9 @@
       <c r="JI60" t="n">
         <v>1.78</v>
       </c>
+      <c r="JJ60" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -49891,6 +50071,9 @@
       <c r="JI61" t="n">
         <v>71</v>
       </c>
+      <c r="JJ61" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -50702,6 +50885,9 @@
       <c r="JI62" t="n">
         <v>75</v>
       </c>
+      <c r="JJ62" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -51513,6 +51699,9 @@
       <c r="JI63" t="n">
         <v>46</v>
       </c>
+      <c r="JJ63" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -52324,6 +52513,9 @@
       <c r="JI64" t="n">
         <v>19</v>
       </c>
+      <c r="JJ64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -53135,6 +53327,9 @@
       <c r="JI65" t="n">
         <v>18</v>
       </c>
+      <c r="JJ65" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -53946,6 +54141,9 @@
       <c r="JI66" t="n">
         <v>8</v>
       </c>
+      <c r="JJ66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -54757,6 +54955,9 @@
       <c r="JI67" t="n">
         <v>4</v>
       </c>
+      <c r="JJ67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -55568,6 +55769,9 @@
       <c r="JI68" t="n">
         <v>10</v>
       </c>
+      <c r="JJ68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -56379,6 +56583,9 @@
       <c r="JI69" t="n">
         <v>2</v>
       </c>
+      <c r="JJ69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -57190,6 +57397,9 @@
       <c r="JI70" t="n">
         <v>20</v>
       </c>
+      <c r="JJ70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -58001,6 +58211,9 @@
       <c r="JI71" t="n">
         <v>40</v>
       </c>
+      <c r="JJ71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -58812,6 +59025,9 @@
       <c r="JI72" t="n">
         <v>43.38</v>
       </c>
+      <c r="JJ72" t="n">
+        <v>39.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -59623,6 +59839,9 @@
       <c r="JI73" t="n">
         <v>17.35</v>
       </c>
+      <c r="JJ73" t="n">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -60434,6 +60653,9 @@
       <c r="JI74" t="n">
         <v>45</v>
       </c>
+      <c r="JJ74" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -61245,6 +61467,9 @@
       <c r="JI75" t="n">
         <v>71</v>
       </c>
+      <c r="JJ75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -62056,6 +62281,9 @@
       <c r="JI76" t="n">
         <v>46</v>
       </c>
+      <c r="JJ76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -62867,6 +63095,9 @@
       <c r="JI77" t="n">
         <v>51</v>
       </c>
+      <c r="JJ77" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -63678,6 +63909,9 @@
       <c r="JI78" t="n">
         <v>2.55</v>
       </c>
+      <c r="JJ78" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -64489,6 +64723,9 @@
       <c r="JI79" t="n">
         <v>6.38</v>
       </c>
+      <c r="JJ79" t="n">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -65300,6 +65537,9 @@
       <c r="JI80" t="n">
         <v>35.3</v>
       </c>
+      <c r="JJ80" t="n">
+        <v>26.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -66111,6 +66351,9 @@
       <c r="JI81" t="n">
         <v>15.7</v>
       </c>
+      <c r="JJ81" t="n">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -66922,6 +67165,9 @@
       <c r="JI82" t="n">
         <v>187.7</v>
       </c>
+      <c r="JJ82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -67733,6 +67979,9 @@
       <c r="JI83" t="n">
         <v>85</v>
       </c>
+      <c r="JJ83" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -68544,6 +68793,9 @@
       <c r="JI84" t="n">
         <v>24.41</v>
       </c>
+      <c r="JJ84" t="n">
+        <v>26.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -69355,6 +69607,9 @@
       <c r="JI85" t="n">
         <v>75.3</v>
       </c>
+      <c r="JJ85" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -70166,6 +70421,9 @@
       <c r="JI86" t="n">
         <v>8</v>
       </c>
+      <c r="JJ86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -70977,6 +71235,9 @@
       <c r="JI87" t="n">
         <v>9</v>
       </c>
+      <c r="JJ87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -71788,6 +72049,9 @@
       <c r="JI88" t="n">
         <v>2</v>
       </c>
+      <c r="JJ88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -72599,6 +72863,9 @@
       <c r="JI89" t="n">
         <v>4</v>
       </c>
+      <c r="JJ89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -73410,6 +73677,9 @@
       <c r="JI90" t="n">
         <v>163</v>
       </c>
+      <c r="JJ90" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -74221,6 +74491,9 @@
       <c r="JI91" t="n">
         <v>183</v>
       </c>
+      <c r="JJ91" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -75032,6 +75305,9 @@
       <c r="JI92" t="n">
         <v>231</v>
       </c>
+      <c r="JJ92" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -75843,6 +76119,9 @@
       <c r="JI93" t="n">
         <v>66.59999999999999</v>
       </c>
+      <c r="JJ93" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -76654,6 +76933,9 @@
       <c r="JI94" t="n">
         <v>71</v>
       </c>
+      <c r="JJ94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -77465,6 +77747,9 @@
       <c r="JI95" t="n">
         <v>12</v>
       </c>
+      <c r="JJ95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -78276,6 +78561,9 @@
       <c r="JI96" t="n">
         <v>3</v>
       </c>
+      <c r="JJ96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -79087,6 +79375,9 @@
       <c r="JI97" t="n">
         <v>45</v>
       </c>
+      <c r="JJ97" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -79898,6 +80189,9 @@
       <c r="JI98" t="n">
         <v>46</v>
       </c>
+      <c r="JJ98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -80709,6 +81003,9 @@
       <c r="JI99" t="n">
         <v>61</v>
       </c>
+      <c r="JJ99" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -81520,6 +81817,9 @@
       <c r="JI100" t="n">
         <v>2</v>
       </c>
+      <c r="JJ100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -82331,6 +82631,9 @@
       <c r="JI101" t="n">
         <v>4</v>
       </c>
+      <c r="JJ101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -83142,6 +83445,9 @@
       <c r="JI102" t="n">
         <v>50</v>
       </c>
+      <c r="JJ102" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JJ102"/>
+  <dimension ref="A1:JM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1234,6 +1234,15 @@
       <c r="JJ1" t="n">
         <v>10961</v>
       </c>
+      <c r="JK1" t="n">
+        <v>10801</v>
+      </c>
+      <c r="JL1" t="n">
+        <v>10801</v>
+      </c>
+      <c r="JM1" t="n">
+        <v>10801</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2048,6 +2057,15 @@
       <c r="JJ2" t="n">
         <v>2023</v>
       </c>
+      <c r="JK2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2862,6 +2880,15 @@
       <c r="JJ3" t="n">
         <v>5</v>
       </c>
+      <c r="JK3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3676,6 +3703,15 @@
       <c r="JJ4" t="n">
         <v>1</v>
       </c>
+      <c r="JK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4490,6 +4526,15 @@
       <c r="JJ5" t="n">
         <v>0</v>
       </c>
+      <c r="JK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5304,6 +5349,15 @@
       <c r="JJ6" t="n">
         <v>64</v>
       </c>
+      <c r="JK6" t="n">
+        <v>82</v>
+      </c>
+      <c r="JL6" t="n">
+        <v>82</v>
+      </c>
+      <c r="JM6" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6118,6 +6172,15 @@
       <c r="JJ7" t="n">
         <v>70</v>
       </c>
+      <c r="JK7" t="n">
+        <v>60</v>
+      </c>
+      <c r="JL7" t="n">
+        <v>60</v>
+      </c>
+      <c r="JM7" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6932,6 +6995,15 @@
       <c r="JJ8" t="n">
         <v>-6</v>
       </c>
+      <c r="JK8" t="n">
+        <v>22</v>
+      </c>
+      <c r="JL8" t="n">
+        <v>22</v>
+      </c>
+      <c r="JM8" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7746,6 +7818,15 @@
       <c r="JJ9" t="n">
         <v>0</v>
       </c>
+      <c r="JK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8560,6 +8641,15 @@
       <c r="JJ10" t="n">
         <v>4</v>
       </c>
+      <c r="JK10" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL10" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9374,6 +9464,15 @@
       <c r="JJ11" t="n">
         <v>228</v>
       </c>
+      <c r="JK11" t="n">
+        <v>220</v>
+      </c>
+      <c r="JL11" t="n">
+        <v>220</v>
+      </c>
+      <c r="JM11" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10188,6 +10287,15 @@
       <c r="JJ12" t="n">
         <v>180</v>
       </c>
+      <c r="JK12" t="n">
+        <v>140</v>
+      </c>
+      <c r="JL12" t="n">
+        <v>140</v>
+      </c>
+      <c r="JM12" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11002,6 +11110,15 @@
       <c r="JJ13" t="n">
         <v>408</v>
       </c>
+      <c r="JK13" t="n">
+        <v>360</v>
+      </c>
+      <c r="JL13" t="n">
+        <v>360</v>
+      </c>
+      <c r="JM13" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11816,6 +11933,15 @@
       <c r="JJ14" t="n">
         <v>1.27</v>
       </c>
+      <c r="JK14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JL14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JM14" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12630,6 +12756,15 @@
       <c r="JJ15" t="n">
         <v>103</v>
       </c>
+      <c r="JK15" t="n">
+        <v>101</v>
+      </c>
+      <c r="JL15" t="n">
+        <v>101</v>
+      </c>
+      <c r="JM15" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13444,6 +13579,15 @@
       <c r="JJ16" t="n">
         <v>45</v>
       </c>
+      <c r="JK16" t="n">
+        <v>46</v>
+      </c>
+      <c r="JL16" t="n">
+        <v>46</v>
+      </c>
+      <c r="JM16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14258,6 +14402,15 @@
       <c r="JJ17" t="n">
         <v>37</v>
       </c>
+      <c r="JK17" t="n">
+        <v>30</v>
+      </c>
+      <c r="JL17" t="n">
+        <v>30</v>
+      </c>
+      <c r="JM17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15072,6 +15225,15 @@
       <c r="JJ18" t="n">
         <v>10</v>
       </c>
+      <c r="JK18" t="n">
+        <v>14</v>
+      </c>
+      <c r="JL18" t="n">
+        <v>14</v>
+      </c>
+      <c r="JM18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15886,6 +16048,15 @@
       <c r="JJ19" t="n">
         <v>15</v>
       </c>
+      <c r="JK19" t="n">
+        <v>20</v>
+      </c>
+      <c r="JL19" t="n">
+        <v>20</v>
+      </c>
+      <c r="JM19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16700,6 +16871,15 @@
       <c r="JJ20" t="n">
         <v>9</v>
       </c>
+      <c r="JK20" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL20" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17514,6 +17694,15 @@
       <c r="JJ21" t="n">
         <v>7</v>
       </c>
+      <c r="JK21" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL21" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18328,6 +18517,15 @@
       <c r="JJ22" t="n">
         <v>10</v>
       </c>
+      <c r="JK22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19142,6 +19340,15 @@
       <c r="JJ23" t="n">
         <v>0</v>
       </c>
+      <c r="JK23" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL23" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19956,6 +20163,15 @@
       <c r="JJ24" t="n">
         <v>19</v>
       </c>
+      <c r="JK24" t="n">
+        <v>22</v>
+      </c>
+      <c r="JL24" t="n">
+        <v>22</v>
+      </c>
+      <c r="JM24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20770,6 +20986,15 @@
       <c r="JJ25" t="n">
         <v>47.4</v>
       </c>
+      <c r="JK25" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JL25" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JM25" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21584,6 +21809,15 @@
       <c r="JJ26" t="n">
         <v>45.33</v>
       </c>
+      <c r="JK26" t="n">
+        <v>30</v>
+      </c>
+      <c r="JL26" t="n">
+        <v>30</v>
+      </c>
+      <c r="JM26" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22398,6 +22632,15 @@
       <c r="JJ27" t="n">
         <v>21.47</v>
       </c>
+      <c r="JK27" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="JL27" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="JM27" t="n">
+        <v>16.36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -23212,6 +23455,15 @@
       <c r="JJ28" t="n">
         <v>37</v>
       </c>
+      <c r="JK28" t="n">
+        <v>32</v>
+      </c>
+      <c r="JL28" t="n">
+        <v>32</v>
+      </c>
+      <c r="JM28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -24026,6 +24278,15 @@
       <c r="JJ29" t="n">
         <v>61</v>
       </c>
+      <c r="JK29" t="n">
+        <v>52</v>
+      </c>
+      <c r="JL29" t="n">
+        <v>52</v>
+      </c>
+      <c r="JM29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24840,6 +25101,15 @@
       <c r="JJ30" t="n">
         <v>52</v>
       </c>
+      <c r="JK30" t="n">
+        <v>43</v>
+      </c>
+      <c r="JL30" t="n">
+        <v>43</v>
+      </c>
+      <c r="JM30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25654,6 +25924,15 @@
       <c r="JJ31" t="n">
         <v>50</v>
       </c>
+      <c r="JK31" t="n">
+        <v>56</v>
+      </c>
+      <c r="JL31" t="n">
+        <v>56</v>
+      </c>
+      <c r="JM31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26468,6 +26747,15 @@
       <c r="JJ32" t="n">
         <v>2.63</v>
       </c>
+      <c r="JK32" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="JL32" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="JM32" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27282,6 +27570,15 @@
       <c r="JJ33" t="n">
         <v>5.56</v>
       </c>
+      <c r="JK33" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="JL33" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="JM33" t="n">
+        <v>4.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -28096,6 +28393,15 @@
       <c r="JJ34" t="n">
         <v>38</v>
       </c>
+      <c r="JK34" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JL34" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JM34" t="n">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28910,6 +29216,15 @@
       <c r="JJ35" t="n">
         <v>18</v>
       </c>
+      <c r="JK35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="JL35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="JM35" t="n">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29724,6 +30039,15 @@
       <c r="JJ36" t="n">
         <v>187.8</v>
       </c>
+      <c r="JK36" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JL36" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JM36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30538,6 +30862,15 @@
       <c r="JJ37" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="JK37" t="n">
+        <v>86</v>
+      </c>
+      <c r="JL37" t="n">
+        <v>86</v>
+      </c>
+      <c r="JM37" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -31352,6 +31685,15 @@
       <c r="JJ38" t="n">
         <v>24.74</v>
       </c>
+      <c r="JK38" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JL38" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JM38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -32166,6 +32508,15 @@
       <c r="JJ39" t="n">
         <v>81.59999999999999</v>
       </c>
+      <c r="JK39" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="JL39" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="JM39" t="n">
+        <v>94.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32980,6 +33331,15 @@
       <c r="JJ40" t="n">
         <v>8</v>
       </c>
+      <c r="JK40" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL40" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -33794,6 +34154,15 @@
       <c r="JJ41" t="n">
         <v>7</v>
       </c>
+      <c r="JK41" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL41" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -34608,6 +34977,15 @@
       <c r="JJ42" t="n">
         <v>6</v>
       </c>
+      <c r="JK42" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL42" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -35422,6 +35800,15 @@
       <c r="JJ43" t="n">
         <v>2</v>
       </c>
+      <c r="JK43" t="n">
+        <v>3</v>
+      </c>
+      <c r="JL43" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -36236,6 +36623,15 @@
       <c r="JJ44" t="n">
         <v>147</v>
       </c>
+      <c r="JK44" t="n">
+        <v>120</v>
+      </c>
+      <c r="JL44" t="n">
+        <v>120</v>
+      </c>
+      <c r="JM44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -37050,6 +37446,15 @@
       <c r="JJ45" t="n">
         <v>256</v>
       </c>
+      <c r="JK45" t="n">
+        <v>231</v>
+      </c>
+      <c r="JL45" t="n">
+        <v>231</v>
+      </c>
+      <c r="JM45" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -37864,6 +38269,15 @@
       <c r="JJ46" t="n">
         <v>299</v>
       </c>
+      <c r="JK46" t="n">
+        <v>264</v>
+      </c>
+      <c r="JL46" t="n">
+        <v>264</v>
+      </c>
+      <c r="JM46" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -38678,6 +39092,15 @@
       <c r="JJ47" t="n">
         <v>73.3</v>
       </c>
+      <c r="JK47" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="JL47" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="JM47" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -39492,6 +39915,15 @@
       <c r="JJ48" t="n">
         <v>61</v>
       </c>
+      <c r="JK48" t="n">
+        <v>52</v>
+      </c>
+      <c r="JL48" t="n">
+        <v>52</v>
+      </c>
+      <c r="JM48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -40306,6 +40738,15 @@
       <c r="JJ49" t="n">
         <v>15</v>
       </c>
+      <c r="JK49" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL49" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -41120,6 +41561,15 @@
       <c r="JJ50" t="n">
         <v>8</v>
       </c>
+      <c r="JK50" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL50" t="n">
+        <v>12</v>
+      </c>
+      <c r="JM50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -41934,6 +42384,15 @@
       <c r="JJ51" t="n">
         <v>37</v>
       </c>
+      <c r="JK51" t="n">
+        <v>32</v>
+      </c>
+      <c r="JL51" t="n">
+        <v>32</v>
+      </c>
+      <c r="JM51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -42748,6 +43207,15 @@
       <c r="JJ52" t="n">
         <v>52</v>
       </c>
+      <c r="JK52" t="n">
+        <v>43</v>
+      </c>
+      <c r="JL52" t="n">
+        <v>43</v>
+      </c>
+      <c r="JM52" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -43562,6 +44030,15 @@
       <c r="JJ53" t="n">
         <v>41</v>
       </c>
+      <c r="JK53" t="n">
+        <v>39</v>
+      </c>
+      <c r="JL53" t="n">
+        <v>39</v>
+      </c>
+      <c r="JM53" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -44376,6 +44853,15 @@
       <c r="JJ54" t="n">
         <v>2</v>
       </c>
+      <c r="JK54" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -45190,6 +45676,15 @@
       <c r="JJ55" t="n">
         <v>7</v>
       </c>
+      <c r="JK55" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL55" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -46004,6 +46499,15 @@
       <c r="JJ56" t="n">
         <v>77.8</v>
       </c>
+      <c r="JK56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JL56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JM56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -46818,6 +47322,15 @@
       <c r="JJ57" t="n">
         <v>226</v>
       </c>
+      <c r="JK57" t="n">
+        <v>256</v>
+      </c>
+      <c r="JL57" t="n">
+        <v>256</v>
+      </c>
+      <c r="JM57" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -47632,6 +48145,15 @@
       <c r="JJ58" t="n">
         <v>166</v>
       </c>
+      <c r="JK58" t="n">
+        <v>190</v>
+      </c>
+      <c r="JL58" t="n">
+        <v>190</v>
+      </c>
+      <c r="JM58" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -48446,6 +48968,15 @@
       <c r="JJ59" t="n">
         <v>392</v>
       </c>
+      <c r="JK59" t="n">
+        <v>446</v>
+      </c>
+      <c r="JL59" t="n">
+        <v>446</v>
+      </c>
+      <c r="JM59" t="n">
+        <v>446</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -49260,6 +49791,15 @@
       <c r="JJ60" t="n">
         <v>1.36</v>
       </c>
+      <c r="JK60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="JL60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="JM60" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -50074,6 +50614,15 @@
       <c r="JJ61" t="n">
         <v>99</v>
       </c>
+      <c r="JK61" t="n">
+        <v>140</v>
+      </c>
+      <c r="JL61" t="n">
+        <v>140</v>
+      </c>
+      <c r="JM61" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -50888,6 +51437,15 @@
       <c r="JJ62" t="n">
         <v>60</v>
       </c>
+      <c r="JK62" t="n">
+        <v>47</v>
+      </c>
+      <c r="JL62" t="n">
+        <v>47</v>
+      </c>
+      <c r="JM62" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -51702,6 +52260,15 @@
       <c r="JJ63" t="n">
         <v>31</v>
       </c>
+      <c r="JK63" t="n">
+        <v>36</v>
+      </c>
+      <c r="JL63" t="n">
+        <v>36</v>
+      </c>
+      <c r="JM63" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -52516,6 +53083,15 @@
       <c r="JJ64" t="n">
         <v>15</v>
       </c>
+      <c r="JK64" t="n">
+        <v>20</v>
+      </c>
+      <c r="JL64" t="n">
+        <v>20</v>
+      </c>
+      <c r="JM64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -53330,6 +53906,15 @@
       <c r="JJ65" t="n">
         <v>10</v>
       </c>
+      <c r="JK65" t="n">
+        <v>14</v>
+      </c>
+      <c r="JL65" t="n">
+        <v>14</v>
+      </c>
+      <c r="JM65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -54144,6 +54729,15 @@
       <c r="JJ66" t="n">
         <v>10</v>
       </c>
+      <c r="JK66" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL66" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -54958,6 +55552,15 @@
       <c r="JJ67" t="n">
         <v>10</v>
       </c>
+      <c r="JK67" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL67" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -55772,6 +56375,15 @@
       <c r="JJ68" t="n">
         <v>7</v>
       </c>
+      <c r="JK68" t="n">
+        <v>11</v>
+      </c>
+      <c r="JL68" t="n">
+        <v>11</v>
+      </c>
+      <c r="JM68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -56586,6 +57198,15 @@
       <c r="JJ69" t="n">
         <v>3</v>
       </c>
+      <c r="JK69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -57400,6 +58021,15 @@
       <c r="JJ70" t="n">
         <v>20</v>
       </c>
+      <c r="JK70" t="n">
+        <v>20</v>
+      </c>
+      <c r="JL70" t="n">
+        <v>20</v>
+      </c>
+      <c r="JM70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -58214,6 +58844,15 @@
       <c r="JJ71" t="n">
         <v>50</v>
       </c>
+      <c r="JK71" t="n">
+        <v>40</v>
+      </c>
+      <c r="JL71" t="n">
+        <v>40</v>
+      </c>
+      <c r="JM71" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -59028,6 +59667,15 @@
       <c r="JJ72" t="n">
         <v>39.2</v>
       </c>
+      <c r="JK72" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="JL72" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="JM72" t="n">
+        <v>55.75</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -59842,6 +60490,15 @@
       <c r="JJ73" t="n">
         <v>19.6</v>
       </c>
+      <c r="JK73" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="JL73" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="JM73" t="n">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -60656,6 +61313,15 @@
       <c r="JJ74" t="n">
         <v>31</v>
       </c>
+      <c r="JK74" t="n">
+        <v>31</v>
+      </c>
+      <c r="JL74" t="n">
+        <v>31</v>
+      </c>
+      <c r="JM74" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -61470,6 +62136,15 @@
       <c r="JJ75" t="n">
         <v>49</v>
       </c>
+      <c r="JK75" t="n">
+        <v>59</v>
+      </c>
+      <c r="JL75" t="n">
+        <v>59</v>
+      </c>
+      <c r="JM75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -62284,6 +62959,15 @@
       <c r="JJ76" t="n">
         <v>40</v>
       </c>
+      <c r="JK76" t="n">
+        <v>44</v>
+      </c>
+      <c r="JL76" t="n">
+        <v>44</v>
+      </c>
+      <c r="JM76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -63098,6 +63782,15 @@
       <c r="JJ77" t="n">
         <v>64</v>
       </c>
+      <c r="JK77" t="n">
+        <v>52</v>
+      </c>
+      <c r="JL77" t="n">
+        <v>52</v>
+      </c>
+      <c r="JM77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -63912,6 +64605,15 @@
       <c r="JJ78" t="n">
         <v>3.2</v>
       </c>
+      <c r="JK78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="JL78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="JM78" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -64726,6 +65428,15 @@
       <c r="JJ79" t="n">
         <v>6.4</v>
       </c>
+      <c r="JK79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="JL79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="JM79" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -65540,6 +66251,15 @@
       <c r="JJ80" t="n">
         <v>26.6</v>
       </c>
+      <c r="JK80" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="JL80" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="JM80" t="n">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -66354,6 +67074,15 @@
       <c r="JJ81" t="n">
         <v>15.6</v>
       </c>
+      <c r="JK81" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="JL81" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="JM81" t="n">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -67168,6 +67897,15 @@
       <c r="JJ82" t="n">
         <v>187.3</v>
       </c>
+      <c r="JK82" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JL82" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JM82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -67982,6 +68720,15 @@
       <c r="JJ83" t="n">
         <v>86.3</v>
       </c>
+      <c r="JK83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JL83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JM83" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -68796,6 +69543,15 @@
       <c r="JJ84" t="n">
         <v>26.74</v>
       </c>
+      <c r="JK84" t="n">
+        <v>25</v>
+      </c>
+      <c r="JL84" t="n">
+        <v>25</v>
+      </c>
+      <c r="JM84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -69610,6 +70366,15 @@
       <c r="JJ85" t="n">
         <v>115</v>
       </c>
+      <c r="JK85" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="JL85" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="JM85" t="n">
+        <v>80.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -70424,6 +71189,15 @@
       <c r="JJ86" t="n">
         <v>8</v>
       </c>
+      <c r="JK86" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL86" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -71238,6 +72012,15 @@
       <c r="JJ87" t="n">
         <v>4</v>
       </c>
+      <c r="JK87" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL87" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -72052,6 +72835,15 @@
       <c r="JJ88" t="n">
         <v>2</v>
       </c>
+      <c r="JK88" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL88" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -72866,6 +73658,15 @@
       <c r="JJ89" t="n">
         <v>9</v>
       </c>
+      <c r="JK89" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL89" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -73680,6 +74481,15 @@
       <c r="JJ90" t="n">
         <v>126</v>
       </c>
+      <c r="JK90" t="n">
+        <v>140</v>
+      </c>
+      <c r="JL90" t="n">
+        <v>140</v>
+      </c>
+      <c r="JM90" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -74494,6 +75304,15 @@
       <c r="JJ91" t="n">
         <v>256</v>
       </c>
+      <c r="JK91" t="n">
+        <v>304</v>
+      </c>
+      <c r="JL91" t="n">
+        <v>304</v>
+      </c>
+      <c r="JM91" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -75308,6 +76127,15 @@
       <c r="JJ92" t="n">
         <v>298</v>
       </c>
+      <c r="JK92" t="n">
+        <v>341</v>
+      </c>
+      <c r="JL92" t="n">
+        <v>341</v>
+      </c>
+      <c r="JM92" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -76122,6 +76950,15 @@
       <c r="JJ93" t="n">
         <v>76</v>
       </c>
+      <c r="JK93" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JL93" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JM93" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -76936,6 +77773,15 @@
       <c r="JJ94" t="n">
         <v>49</v>
       </c>
+      <c r="JK94" t="n">
+        <v>59</v>
+      </c>
+      <c r="JL94" t="n">
+        <v>59</v>
+      </c>
+      <c r="JM94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -77750,6 +78596,15 @@
       <c r="JJ95" t="n">
         <v>11</v>
       </c>
+      <c r="JK95" t="n">
+        <v>14</v>
+      </c>
+      <c r="JL95" t="n">
+        <v>14</v>
+      </c>
+      <c r="JM95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -78564,6 +79419,15 @@
       <c r="JJ96" t="n">
         <v>10</v>
       </c>
+      <c r="JK96" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL96" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -79378,6 +80242,15 @@
       <c r="JJ97" t="n">
         <v>31</v>
       </c>
+      <c r="JK97" t="n">
+        <v>31</v>
+      </c>
+      <c r="JL97" t="n">
+        <v>31</v>
+      </c>
+      <c r="JM97" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -80192,6 +81065,15 @@
       <c r="JJ98" t="n">
         <v>40</v>
       </c>
+      <c r="JK98" t="n">
+        <v>44</v>
+      </c>
+      <c r="JL98" t="n">
+        <v>44</v>
+      </c>
+      <c r="JM98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -81006,6 +81888,15 @@
       <c r="JJ99" t="n">
         <v>57</v>
       </c>
+      <c r="JK99" t="n">
+        <v>46</v>
+      </c>
+      <c r="JL99" t="n">
+        <v>46</v>
+      </c>
+      <c r="JM99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -81820,6 +82711,15 @@
       <c r="JJ100" t="n">
         <v>5</v>
       </c>
+      <c r="JK100" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL100" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -82634,6 +83534,15 @@
       <c r="JJ101" t="n">
         <v>10</v>
       </c>
+      <c r="JK101" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL101" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -83448,6 +84357,15 @@
       <c r="JJ102" t="n">
         <v>100</v>
       </c>
+      <c r="JK102" t="n">
+        <v>50</v>
+      </c>
+      <c r="JL102" t="n">
+        <v>50</v>
+      </c>
+      <c r="JM102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM102"/>
+  <dimension ref="A1:JT102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,6 +1243,27 @@
       <c r="JM1" t="n">
         <v>10801</v>
       </c>
+      <c r="JN1" t="n">
+        <v>10801</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>10801</v>
+      </c>
+      <c r="JP1" t="n">
+        <v>10801</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>10801</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>10801</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>10801</v>
+      </c>
+      <c r="JT1" t="n">
+        <v>10801</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2066,6 +2087,27 @@
       <c r="JM2" t="n">
         <v>2023</v>
       </c>
+      <c r="JN2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2889,6 +2931,27 @@
       <c r="JM3" t="n">
         <v>6</v>
       </c>
+      <c r="JN3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3712,6 +3775,27 @@
       <c r="JM4" t="n">
         <v>1</v>
       </c>
+      <c r="JN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4535,6 +4619,27 @@
       <c r="JM5" t="n">
         <v>1</v>
       </c>
+      <c r="JN5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5358,6 +5463,27 @@
       <c r="JM6" t="n">
         <v>82</v>
       </c>
+      <c r="JN6" t="n">
+        <v>82</v>
+      </c>
+      <c r="JO6" t="n">
+        <v>82</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>82</v>
+      </c>
+      <c r="JQ6" t="n">
+        <v>82</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>82</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>82</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6181,6 +6307,27 @@
       <c r="JM7" t="n">
         <v>60</v>
       </c>
+      <c r="JN7" t="n">
+        <v>60</v>
+      </c>
+      <c r="JO7" t="n">
+        <v>60</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>60</v>
+      </c>
+      <c r="JQ7" t="n">
+        <v>60</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>60</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>60</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7004,6 +7151,27 @@
       <c r="JM8" t="n">
         <v>22</v>
       </c>
+      <c r="JN8" t="n">
+        <v>22</v>
+      </c>
+      <c r="JO8" t="n">
+        <v>22</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>22</v>
+      </c>
+      <c r="JQ8" t="n">
+        <v>22</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>22</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>22</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7827,6 +7995,27 @@
       <c r="JM9" t="n">
         <v>1</v>
       </c>
+      <c r="JN9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8650,6 +8839,27 @@
       <c r="JM10" t="n">
         <v>3</v>
       </c>
+      <c r="JN10" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO10" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9473,6 +9683,27 @@
       <c r="JM11" t="n">
         <v>220</v>
       </c>
+      <c r="JN11" t="n">
+        <v>220</v>
+      </c>
+      <c r="JO11" t="n">
+        <v>220</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>220</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>220</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>220</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>220</v>
+      </c>
+      <c r="JT11" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10296,6 +10527,27 @@
       <c r="JM12" t="n">
         <v>140</v>
       </c>
+      <c r="JN12" t="n">
+        <v>140</v>
+      </c>
+      <c r="JO12" t="n">
+        <v>140</v>
+      </c>
+      <c r="JP12" t="n">
+        <v>140</v>
+      </c>
+      <c r="JQ12" t="n">
+        <v>140</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>140</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>140</v>
+      </c>
+      <c r="JT12" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11119,6 +11371,27 @@
       <c r="JM13" t="n">
         <v>360</v>
       </c>
+      <c r="JN13" t="n">
+        <v>360</v>
+      </c>
+      <c r="JO13" t="n">
+        <v>360</v>
+      </c>
+      <c r="JP13" t="n">
+        <v>360</v>
+      </c>
+      <c r="JQ13" t="n">
+        <v>360</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>360</v>
+      </c>
+      <c r="JS13" t="n">
+        <v>360</v>
+      </c>
+      <c r="JT13" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11942,6 +12215,27 @@
       <c r="JM14" t="n">
         <v>1.57</v>
       </c>
+      <c r="JN14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JO14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JP14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JQ14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JR14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JS14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JT14" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12765,6 +13059,27 @@
       <c r="JM15" t="n">
         <v>101</v>
       </c>
+      <c r="JN15" t="n">
+        <v>101</v>
+      </c>
+      <c r="JO15" t="n">
+        <v>101</v>
+      </c>
+      <c r="JP15" t="n">
+        <v>101</v>
+      </c>
+      <c r="JQ15" t="n">
+        <v>101</v>
+      </c>
+      <c r="JR15" t="n">
+        <v>101</v>
+      </c>
+      <c r="JS15" t="n">
+        <v>101</v>
+      </c>
+      <c r="JT15" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13588,6 +13903,27 @@
       <c r="JM16" t="n">
         <v>46</v>
       </c>
+      <c r="JN16" t="n">
+        <v>46</v>
+      </c>
+      <c r="JO16" t="n">
+        <v>46</v>
+      </c>
+      <c r="JP16" t="n">
+        <v>46</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>46</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>46</v>
+      </c>
+      <c r="JS16" t="n">
+        <v>46</v>
+      </c>
+      <c r="JT16" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14411,6 +14747,27 @@
       <c r="JM17" t="n">
         <v>30</v>
       </c>
+      <c r="JN17" t="n">
+        <v>30</v>
+      </c>
+      <c r="JO17" t="n">
+        <v>30</v>
+      </c>
+      <c r="JP17" t="n">
+        <v>30</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>30</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>30</v>
+      </c>
+      <c r="JS17" t="n">
+        <v>30</v>
+      </c>
+      <c r="JT17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15234,6 +15591,27 @@
       <c r="JM18" t="n">
         <v>14</v>
       </c>
+      <c r="JN18" t="n">
+        <v>14</v>
+      </c>
+      <c r="JO18" t="n">
+        <v>14</v>
+      </c>
+      <c r="JP18" t="n">
+        <v>14</v>
+      </c>
+      <c r="JQ18" t="n">
+        <v>14</v>
+      </c>
+      <c r="JR18" t="n">
+        <v>14</v>
+      </c>
+      <c r="JS18" t="n">
+        <v>14</v>
+      </c>
+      <c r="JT18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16057,6 +16435,27 @@
       <c r="JM19" t="n">
         <v>20</v>
       </c>
+      <c r="JN19" t="n">
+        <v>20</v>
+      </c>
+      <c r="JO19" t="n">
+        <v>20</v>
+      </c>
+      <c r="JP19" t="n">
+        <v>20</v>
+      </c>
+      <c r="JQ19" t="n">
+        <v>20</v>
+      </c>
+      <c r="JR19" t="n">
+        <v>20</v>
+      </c>
+      <c r="JS19" t="n">
+        <v>20</v>
+      </c>
+      <c r="JT19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16880,6 +17279,27 @@
       <c r="JM20" t="n">
         <v>12</v>
       </c>
+      <c r="JN20" t="n">
+        <v>12</v>
+      </c>
+      <c r="JO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="JP20" t="n">
+        <v>12</v>
+      </c>
+      <c r="JQ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="JR20" t="n">
+        <v>12</v>
+      </c>
+      <c r="JS20" t="n">
+        <v>12</v>
+      </c>
+      <c r="JT20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17703,6 +18123,27 @@
       <c r="JM21" t="n">
         <v>8</v>
       </c>
+      <c r="JN21" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO21" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP21" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ21" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR21" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS21" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18526,6 +18967,27 @@
       <c r="JM22" t="n">
         <v>7</v>
       </c>
+      <c r="JN22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS22" t="n">
+        <v>7</v>
+      </c>
+      <c r="JT22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19349,6 +19811,27 @@
       <c r="JM23" t="n">
         <v>3</v>
       </c>
+      <c r="JN23" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO23" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP23" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="JR23" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS23" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20172,6 +20655,27 @@
       <c r="JM24" t="n">
         <v>22</v>
       </c>
+      <c r="JN24" t="n">
+        <v>22</v>
+      </c>
+      <c r="JO24" t="n">
+        <v>22</v>
+      </c>
+      <c r="JP24" t="n">
+        <v>22</v>
+      </c>
+      <c r="JQ24" t="n">
+        <v>22</v>
+      </c>
+      <c r="JR24" t="n">
+        <v>22</v>
+      </c>
+      <c r="JS24" t="n">
+        <v>22</v>
+      </c>
+      <c r="JT24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20995,6 +21499,27 @@
       <c r="JM25" t="n">
         <v>54.5</v>
       </c>
+      <c r="JN25" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JO25" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JP25" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JQ25" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JR25" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JS25" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JT25" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21818,6 +22343,27 @@
       <c r="JM26" t="n">
         <v>30</v>
       </c>
+      <c r="JN26" t="n">
+        <v>30</v>
+      </c>
+      <c r="JO26" t="n">
+        <v>30</v>
+      </c>
+      <c r="JP26" t="n">
+        <v>30</v>
+      </c>
+      <c r="JQ26" t="n">
+        <v>30</v>
+      </c>
+      <c r="JR26" t="n">
+        <v>30</v>
+      </c>
+      <c r="JS26" t="n">
+        <v>30</v>
+      </c>
+      <c r="JT26" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22641,6 +23187,27 @@
       <c r="JM27" t="n">
         <v>16.36</v>
       </c>
+      <c r="JN27" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="JO27" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="JP27" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="JQ27" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="JR27" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="JS27" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="JT27" t="n">
+        <v>16.36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -23464,6 +24031,27 @@
       <c r="JM28" t="n">
         <v>32</v>
       </c>
+      <c r="JN28" t="n">
+        <v>32</v>
+      </c>
+      <c r="JO28" t="n">
+        <v>32</v>
+      </c>
+      <c r="JP28" t="n">
+        <v>32</v>
+      </c>
+      <c r="JQ28" t="n">
+        <v>32</v>
+      </c>
+      <c r="JR28" t="n">
+        <v>32</v>
+      </c>
+      <c r="JS28" t="n">
+        <v>32</v>
+      </c>
+      <c r="JT28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -24287,6 +24875,27 @@
       <c r="JM29" t="n">
         <v>52</v>
       </c>
+      <c r="JN29" t="n">
+        <v>52</v>
+      </c>
+      <c r="JO29" t="n">
+        <v>52</v>
+      </c>
+      <c r="JP29" t="n">
+        <v>52</v>
+      </c>
+      <c r="JQ29" t="n">
+        <v>52</v>
+      </c>
+      <c r="JR29" t="n">
+        <v>52</v>
+      </c>
+      <c r="JS29" t="n">
+        <v>52</v>
+      </c>
+      <c r="JT29" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -25110,6 +25719,27 @@
       <c r="JM30" t="n">
         <v>43</v>
       </c>
+      <c r="JN30" t="n">
+        <v>43</v>
+      </c>
+      <c r="JO30" t="n">
+        <v>43</v>
+      </c>
+      <c r="JP30" t="n">
+        <v>43</v>
+      </c>
+      <c r="JQ30" t="n">
+        <v>43</v>
+      </c>
+      <c r="JR30" t="n">
+        <v>43</v>
+      </c>
+      <c r="JS30" t="n">
+        <v>43</v>
+      </c>
+      <c r="JT30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25933,6 +26563,27 @@
       <c r="JM31" t="n">
         <v>56</v>
       </c>
+      <c r="JN31" t="n">
+        <v>56</v>
+      </c>
+      <c r="JO31" t="n">
+        <v>56</v>
+      </c>
+      <c r="JP31" t="n">
+        <v>56</v>
+      </c>
+      <c r="JQ31" t="n">
+        <v>56</v>
+      </c>
+      <c r="JR31" t="n">
+        <v>56</v>
+      </c>
+      <c r="JS31" t="n">
+        <v>56</v>
+      </c>
+      <c r="JT31" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26756,6 +27407,27 @@
       <c r="JM32" t="n">
         <v>2.55</v>
       </c>
+      <c r="JN32" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="JO32" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="JP32" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="JQ32" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="JR32" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="JS32" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="JT32" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27579,6 +28251,27 @@
       <c r="JM33" t="n">
         <v>4.67</v>
       </c>
+      <c r="JN33" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="JO33" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="JP33" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="JQ33" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="JR33" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="JS33" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="JT33" t="n">
+        <v>4.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -28402,6 +29095,27 @@
       <c r="JM34" t="n">
         <v>33.9</v>
       </c>
+      <c r="JN34" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JO34" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JP34" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JQ34" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JR34" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JS34" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JT34" t="n">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -29225,6 +29939,27 @@
       <c r="JM35" t="n">
         <v>21.4</v>
       </c>
+      <c r="JN35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="JO35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="JP35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="JQ35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="JR35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="JS35" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="JT35" t="n">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -30048,6 +30783,27 @@
       <c r="JM36" t="n">
         <v>187.3</v>
       </c>
+      <c r="JN36" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JO36" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JP36" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JQ36" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JR36" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JS36" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="JT36" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30871,6 +31627,27 @@
       <c r="JM37" t="n">
         <v>86</v>
       </c>
+      <c r="JN37" t="n">
+        <v>86</v>
+      </c>
+      <c r="JO37" t="n">
+        <v>86</v>
+      </c>
+      <c r="JP37" t="n">
+        <v>86</v>
+      </c>
+      <c r="JQ37" t="n">
+        <v>86</v>
+      </c>
+      <c r="JR37" t="n">
+        <v>86</v>
+      </c>
+      <c r="JS37" t="n">
+        <v>86</v>
+      </c>
+      <c r="JT37" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -31694,6 +32471,27 @@
       <c r="JM38" t="n">
         <v>25.41</v>
       </c>
+      <c r="JN38" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JO38" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JP38" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JQ38" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JR38" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JS38" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="JT38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -32517,6 +33315,27 @@
       <c r="JM39" t="n">
         <v>94.2</v>
       </c>
+      <c r="JN39" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="JO39" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="JP39" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="JQ39" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="JR39" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="JS39" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="JT39" t="n">
+        <v>94.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -33340,6 +34159,27 @@
       <c r="JM40" t="n">
         <v>6</v>
       </c>
+      <c r="JN40" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO40" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP40" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ40" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR40" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS40" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -34163,6 +35003,27 @@
       <c r="JM41" t="n">
         <v>7</v>
       </c>
+      <c r="JN41" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO41" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP41" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ41" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR41" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS41" t="n">
+        <v>7</v>
+      </c>
+      <c r="JT41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -34986,6 +35847,27 @@
       <c r="JM42" t="n">
         <v>7</v>
       </c>
+      <c r="JN42" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO42" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP42" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ42" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR42" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS42" t="n">
+        <v>7</v>
+      </c>
+      <c r="JT42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -35809,6 +36691,27 @@
       <c r="JM43" t="n">
         <v>3</v>
       </c>
+      <c r="JN43" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO43" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP43" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="JR43" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS43" t="n">
+        <v>3</v>
+      </c>
+      <c r="JT43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -36632,6 +37535,27 @@
       <c r="JM44" t="n">
         <v>120</v>
       </c>
+      <c r="JN44" t="n">
+        <v>120</v>
+      </c>
+      <c r="JO44" t="n">
+        <v>120</v>
+      </c>
+      <c r="JP44" t="n">
+        <v>120</v>
+      </c>
+      <c r="JQ44" t="n">
+        <v>120</v>
+      </c>
+      <c r="JR44" t="n">
+        <v>120</v>
+      </c>
+      <c r="JS44" t="n">
+        <v>120</v>
+      </c>
+      <c r="JT44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -37455,6 +38379,27 @@
       <c r="JM45" t="n">
         <v>231</v>
       </c>
+      <c r="JN45" t="n">
+        <v>231</v>
+      </c>
+      <c r="JO45" t="n">
+        <v>231</v>
+      </c>
+      <c r="JP45" t="n">
+        <v>231</v>
+      </c>
+      <c r="JQ45" t="n">
+        <v>231</v>
+      </c>
+      <c r="JR45" t="n">
+        <v>231</v>
+      </c>
+      <c r="JS45" t="n">
+        <v>231</v>
+      </c>
+      <c r="JT45" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -38278,6 +39223,27 @@
       <c r="JM46" t="n">
         <v>264</v>
       </c>
+      <c r="JN46" t="n">
+        <v>264</v>
+      </c>
+      <c r="JO46" t="n">
+        <v>264</v>
+      </c>
+      <c r="JP46" t="n">
+        <v>264</v>
+      </c>
+      <c r="JQ46" t="n">
+        <v>264</v>
+      </c>
+      <c r="JR46" t="n">
+        <v>264</v>
+      </c>
+      <c r="JS46" t="n">
+        <v>264</v>
+      </c>
+      <c r="JT46" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -39101,6 +40067,27 @@
       <c r="JM47" t="n">
         <v>73.3</v>
       </c>
+      <c r="JN47" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="JO47" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="JP47" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="JQ47" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="JR47" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="JS47" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="JT47" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -39924,6 +40911,27 @@
       <c r="JM48" t="n">
         <v>52</v>
       </c>
+      <c r="JN48" t="n">
+        <v>52</v>
+      </c>
+      <c r="JO48" t="n">
+        <v>52</v>
+      </c>
+      <c r="JP48" t="n">
+        <v>52</v>
+      </c>
+      <c r="JQ48" t="n">
+        <v>52</v>
+      </c>
+      <c r="JR48" t="n">
+        <v>52</v>
+      </c>
+      <c r="JS48" t="n">
+        <v>52</v>
+      </c>
+      <c r="JT48" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -40747,6 +41755,27 @@
       <c r="JM49" t="n">
         <v>8</v>
       </c>
+      <c r="JN49" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO49" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP49" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ49" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR49" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS49" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -41570,6 +42599,27 @@
       <c r="JM50" t="n">
         <v>12</v>
       </c>
+      <c r="JN50" t="n">
+        <v>12</v>
+      </c>
+      <c r="JO50" t="n">
+        <v>12</v>
+      </c>
+      <c r="JP50" t="n">
+        <v>12</v>
+      </c>
+      <c r="JQ50" t="n">
+        <v>12</v>
+      </c>
+      <c r="JR50" t="n">
+        <v>12</v>
+      </c>
+      <c r="JS50" t="n">
+        <v>12</v>
+      </c>
+      <c r="JT50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -42393,6 +43443,27 @@
       <c r="JM51" t="n">
         <v>32</v>
       </c>
+      <c r="JN51" t="n">
+        <v>32</v>
+      </c>
+      <c r="JO51" t="n">
+        <v>32</v>
+      </c>
+      <c r="JP51" t="n">
+        <v>32</v>
+      </c>
+      <c r="JQ51" t="n">
+        <v>32</v>
+      </c>
+      <c r="JR51" t="n">
+        <v>32</v>
+      </c>
+      <c r="JS51" t="n">
+        <v>32</v>
+      </c>
+      <c r="JT51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -43216,6 +44287,27 @@
       <c r="JM52" t="n">
         <v>43</v>
       </c>
+      <c r="JN52" t="n">
+        <v>43</v>
+      </c>
+      <c r="JO52" t="n">
+        <v>43</v>
+      </c>
+      <c r="JP52" t="n">
+        <v>43</v>
+      </c>
+      <c r="JQ52" t="n">
+        <v>43</v>
+      </c>
+      <c r="JR52" t="n">
+        <v>43</v>
+      </c>
+      <c r="JS52" t="n">
+        <v>43</v>
+      </c>
+      <c r="JT52" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -44039,6 +45131,27 @@
       <c r="JM53" t="n">
         <v>39</v>
       </c>
+      <c r="JN53" t="n">
+        <v>39</v>
+      </c>
+      <c r="JO53" t="n">
+        <v>39</v>
+      </c>
+      <c r="JP53" t="n">
+        <v>39</v>
+      </c>
+      <c r="JQ53" t="n">
+        <v>39</v>
+      </c>
+      <c r="JR53" t="n">
+        <v>39</v>
+      </c>
+      <c r="JS53" t="n">
+        <v>39</v>
+      </c>
+      <c r="JT53" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -44862,6 +45975,27 @@
       <c r="JM54" t="n">
         <v>2</v>
       </c>
+      <c r="JN54" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO54" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP54" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ54" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR54" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS54" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -45685,6 +46819,27 @@
       <c r="JM55" t="n">
         <v>8</v>
       </c>
+      <c r="JN55" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO55" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP55" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ55" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR55" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS55" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -46508,6 +47663,27 @@
       <c r="JM56" t="n">
         <v>66.7</v>
       </c>
+      <c r="JN56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JO56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JP56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JQ56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JR56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JS56" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JT56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -47331,6 +48507,27 @@
       <c r="JM57" t="n">
         <v>256</v>
       </c>
+      <c r="JN57" t="n">
+        <v>256</v>
+      </c>
+      <c r="JO57" t="n">
+        <v>256</v>
+      </c>
+      <c r="JP57" t="n">
+        <v>256</v>
+      </c>
+      <c r="JQ57" t="n">
+        <v>256</v>
+      </c>
+      <c r="JR57" t="n">
+        <v>256</v>
+      </c>
+      <c r="JS57" t="n">
+        <v>256</v>
+      </c>
+      <c r="JT57" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -48154,6 +49351,27 @@
       <c r="JM58" t="n">
         <v>190</v>
       </c>
+      <c r="JN58" t="n">
+        <v>190</v>
+      </c>
+      <c r="JO58" t="n">
+        <v>190</v>
+      </c>
+      <c r="JP58" t="n">
+        <v>190</v>
+      </c>
+      <c r="JQ58" t="n">
+        <v>190</v>
+      </c>
+      <c r="JR58" t="n">
+        <v>190</v>
+      </c>
+      <c r="JS58" t="n">
+        <v>190</v>
+      </c>
+      <c r="JT58" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -48977,6 +50195,27 @@
       <c r="JM59" t="n">
         <v>446</v>
       </c>
+      <c r="JN59" t="n">
+        <v>446</v>
+      </c>
+      <c r="JO59" t="n">
+        <v>446</v>
+      </c>
+      <c r="JP59" t="n">
+        <v>446</v>
+      </c>
+      <c r="JQ59" t="n">
+        <v>446</v>
+      </c>
+      <c r="JR59" t="n">
+        <v>446</v>
+      </c>
+      <c r="JS59" t="n">
+        <v>446</v>
+      </c>
+      <c r="JT59" t="n">
+        <v>446</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -49800,6 +51039,27 @@
       <c r="JM60" t="n">
         <v>1.35</v>
       </c>
+      <c r="JN60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="JO60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="JP60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="JQ60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="JR60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="JS60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="JT60" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -50623,6 +51883,27 @@
       <c r="JM61" t="n">
         <v>140</v>
       </c>
+      <c r="JN61" t="n">
+        <v>140</v>
+      </c>
+      <c r="JO61" t="n">
+        <v>140</v>
+      </c>
+      <c r="JP61" t="n">
+        <v>140</v>
+      </c>
+      <c r="JQ61" t="n">
+        <v>140</v>
+      </c>
+      <c r="JR61" t="n">
+        <v>140</v>
+      </c>
+      <c r="JS61" t="n">
+        <v>140</v>
+      </c>
+      <c r="JT61" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -51446,6 +52727,27 @@
       <c r="JM62" t="n">
         <v>47</v>
       </c>
+      <c r="JN62" t="n">
+        <v>47</v>
+      </c>
+      <c r="JO62" t="n">
+        <v>47</v>
+      </c>
+      <c r="JP62" t="n">
+        <v>47</v>
+      </c>
+      <c r="JQ62" t="n">
+        <v>47</v>
+      </c>
+      <c r="JR62" t="n">
+        <v>47</v>
+      </c>
+      <c r="JS62" t="n">
+        <v>47</v>
+      </c>
+      <c r="JT62" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -52269,6 +53571,27 @@
       <c r="JM63" t="n">
         <v>36</v>
       </c>
+      <c r="JN63" t="n">
+        <v>36</v>
+      </c>
+      <c r="JO63" t="n">
+        <v>36</v>
+      </c>
+      <c r="JP63" t="n">
+        <v>36</v>
+      </c>
+      <c r="JQ63" t="n">
+        <v>36</v>
+      </c>
+      <c r="JR63" t="n">
+        <v>36</v>
+      </c>
+      <c r="JS63" t="n">
+        <v>36</v>
+      </c>
+      <c r="JT63" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -53092,6 +54415,27 @@
       <c r="JM64" t="n">
         <v>20</v>
       </c>
+      <c r="JN64" t="n">
+        <v>20</v>
+      </c>
+      <c r="JO64" t="n">
+        <v>20</v>
+      </c>
+      <c r="JP64" t="n">
+        <v>20</v>
+      </c>
+      <c r="JQ64" t="n">
+        <v>20</v>
+      </c>
+      <c r="JR64" t="n">
+        <v>20</v>
+      </c>
+      <c r="JS64" t="n">
+        <v>20</v>
+      </c>
+      <c r="JT64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -53915,6 +55259,27 @@
       <c r="JM65" t="n">
         <v>14</v>
       </c>
+      <c r="JN65" t="n">
+        <v>14</v>
+      </c>
+      <c r="JO65" t="n">
+        <v>14</v>
+      </c>
+      <c r="JP65" t="n">
+        <v>14</v>
+      </c>
+      <c r="JQ65" t="n">
+        <v>14</v>
+      </c>
+      <c r="JR65" t="n">
+        <v>14</v>
+      </c>
+      <c r="JS65" t="n">
+        <v>14</v>
+      </c>
+      <c r="JT65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -54738,6 +56103,27 @@
       <c r="JM66" t="n">
         <v>8</v>
       </c>
+      <c r="JN66" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO66" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP66" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ66" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR66" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS66" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -55561,6 +56947,27 @@
       <c r="JM67" t="n">
         <v>4</v>
       </c>
+      <c r="JN67" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO67" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP67" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ67" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR67" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS67" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -56384,6 +57791,27 @@
       <c r="JM68" t="n">
         <v>11</v>
       </c>
+      <c r="JN68" t="n">
+        <v>11</v>
+      </c>
+      <c r="JO68" t="n">
+        <v>11</v>
+      </c>
+      <c r="JP68" t="n">
+        <v>11</v>
+      </c>
+      <c r="JQ68" t="n">
+        <v>11</v>
+      </c>
+      <c r="JR68" t="n">
+        <v>11</v>
+      </c>
+      <c r="JS68" t="n">
+        <v>11</v>
+      </c>
+      <c r="JT68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -57207,6 +58635,27 @@
       <c r="JM69" t="n">
         <v>1</v>
       </c>
+      <c r="JN69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS69" t="n">
+        <v>1</v>
+      </c>
+      <c r="JT69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -58030,6 +59479,27 @@
       <c r="JM70" t="n">
         <v>20</v>
       </c>
+      <c r="JN70" t="n">
+        <v>20</v>
+      </c>
+      <c r="JO70" t="n">
+        <v>20</v>
+      </c>
+      <c r="JP70" t="n">
+        <v>20</v>
+      </c>
+      <c r="JQ70" t="n">
+        <v>20</v>
+      </c>
+      <c r="JR70" t="n">
+        <v>20</v>
+      </c>
+      <c r="JS70" t="n">
+        <v>20</v>
+      </c>
+      <c r="JT70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -58853,6 +60323,27 @@
       <c r="JM71" t="n">
         <v>40</v>
       </c>
+      <c r="JN71" t="n">
+        <v>40</v>
+      </c>
+      <c r="JO71" t="n">
+        <v>40</v>
+      </c>
+      <c r="JP71" t="n">
+        <v>40</v>
+      </c>
+      <c r="JQ71" t="n">
+        <v>40</v>
+      </c>
+      <c r="JR71" t="n">
+        <v>40</v>
+      </c>
+      <c r="JS71" t="n">
+        <v>40</v>
+      </c>
+      <c r="JT71" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -59676,6 +61167,27 @@
       <c r="JM72" t="n">
         <v>55.75</v>
       </c>
+      <c r="JN72" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="JO72" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="JP72" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="JQ72" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="JR72" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="JS72" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="JT72" t="n">
+        <v>55.75</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -60499,6 +62011,27 @@
       <c r="JM73" t="n">
         <v>22.3</v>
       </c>
+      <c r="JN73" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="JO73" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="JP73" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="JQ73" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="JR73" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="JS73" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="JT73" t="n">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -61322,6 +62855,27 @@
       <c r="JM74" t="n">
         <v>31</v>
       </c>
+      <c r="JN74" t="n">
+        <v>31</v>
+      </c>
+      <c r="JO74" t="n">
+        <v>31</v>
+      </c>
+      <c r="JP74" t="n">
+        <v>31</v>
+      </c>
+      <c r="JQ74" t="n">
+        <v>31</v>
+      </c>
+      <c r="JR74" t="n">
+        <v>31</v>
+      </c>
+      <c r="JS74" t="n">
+        <v>31</v>
+      </c>
+      <c r="JT74" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -62145,6 +63699,27 @@
       <c r="JM75" t="n">
         <v>59</v>
       </c>
+      <c r="JN75" t="n">
+        <v>59</v>
+      </c>
+      <c r="JO75" t="n">
+        <v>59</v>
+      </c>
+      <c r="JP75" t="n">
+        <v>59</v>
+      </c>
+      <c r="JQ75" t="n">
+        <v>59</v>
+      </c>
+      <c r="JR75" t="n">
+        <v>59</v>
+      </c>
+      <c r="JS75" t="n">
+        <v>59</v>
+      </c>
+      <c r="JT75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -62968,6 +64543,27 @@
       <c r="JM76" t="n">
         <v>44</v>
       </c>
+      <c r="JN76" t="n">
+        <v>44</v>
+      </c>
+      <c r="JO76" t="n">
+        <v>44</v>
+      </c>
+      <c r="JP76" t="n">
+        <v>44</v>
+      </c>
+      <c r="JQ76" t="n">
+        <v>44</v>
+      </c>
+      <c r="JR76" t="n">
+        <v>44</v>
+      </c>
+      <c r="JS76" t="n">
+        <v>44</v>
+      </c>
+      <c r="JT76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -63791,6 +65387,27 @@
       <c r="JM77" t="n">
         <v>52</v>
       </c>
+      <c r="JN77" t="n">
+        <v>52</v>
+      </c>
+      <c r="JO77" t="n">
+        <v>52</v>
+      </c>
+      <c r="JP77" t="n">
+        <v>52</v>
+      </c>
+      <c r="JQ77" t="n">
+        <v>52</v>
+      </c>
+      <c r="JR77" t="n">
+        <v>52</v>
+      </c>
+      <c r="JS77" t="n">
+        <v>52</v>
+      </c>
+      <c r="JT77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -64614,6 +66231,27 @@
       <c r="JM78" t="n">
         <v>2.6</v>
       </c>
+      <c r="JN78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="JO78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="JP78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="JQ78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="JR78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="JS78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="JT78" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -65437,6 +67075,27 @@
       <c r="JM79" t="n">
         <v>6.5</v>
       </c>
+      <c r="JN79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="JO79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="JP79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="JQ79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="JR79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="JS79" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="JT79" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -66260,6 +67919,27 @@
       <c r="JM80" t="n">
         <v>36.5</v>
       </c>
+      <c r="JN80" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="JO80" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="JP80" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="JQ80" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="JR80" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="JS80" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="JT80" t="n">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -67083,6 +68763,27 @@
       <c r="JM81" t="n">
         <v>15.4</v>
       </c>
+      <c r="JN81" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="JO81" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="JP81" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="JQ81" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="JR81" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="JS81" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="JT81" t="n">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -67906,6 +69607,27 @@
       <c r="JM82" t="n">
         <v>188.4</v>
       </c>
+      <c r="JN82" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JO82" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JP82" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JQ82" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JR82" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JS82" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JT82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -68729,6 +70451,27 @@
       <c r="JM83" t="n">
         <v>87.5</v>
       </c>
+      <c r="JN83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JO83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JP83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JQ83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JR83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JS83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="JT83" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -69552,6 +71295,27 @@
       <c r="JM84" t="n">
         <v>25</v>
       </c>
+      <c r="JN84" t="n">
+        <v>25</v>
+      </c>
+      <c r="JO84" t="n">
+        <v>25</v>
+      </c>
+      <c r="JP84" t="n">
+        <v>25</v>
+      </c>
+      <c r="JQ84" t="n">
+        <v>25</v>
+      </c>
+      <c r="JR84" t="n">
+        <v>25</v>
+      </c>
+      <c r="JS84" t="n">
+        <v>25</v>
+      </c>
+      <c r="JT84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -70375,6 +72139,27 @@
       <c r="JM85" t="n">
         <v>80.40000000000001</v>
       </c>
+      <c r="JN85" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="JO85" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="JP85" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="JQ85" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="JR85" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="JS85" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="JT85" t="n">
+        <v>80.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -71198,6 +72983,27 @@
       <c r="JM86" t="n">
         <v>8</v>
       </c>
+      <c r="JN86" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO86" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP86" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ86" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR86" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS86" t="n">
+        <v>8</v>
+      </c>
+      <c r="JT86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -72021,6 +73827,27 @@
       <c r="JM87" t="n">
         <v>7</v>
       </c>
+      <c r="JN87" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO87" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP87" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ87" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR87" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS87" t="n">
+        <v>7</v>
+      </c>
+      <c r="JT87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -72844,6 +74671,27 @@
       <c r="JM88" t="n">
         <v>6</v>
       </c>
+      <c r="JN88" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO88" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP88" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ88" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR88" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS88" t="n">
+        <v>6</v>
+      </c>
+      <c r="JT88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -73667,6 +75515,27 @@
       <c r="JM89" t="n">
         <v>2</v>
       </c>
+      <c r="JN89" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO89" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP89" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ89" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR89" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS89" t="n">
+        <v>2</v>
+      </c>
+      <c r="JT89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -74490,6 +76359,27 @@
       <c r="JM90" t="n">
         <v>140</v>
       </c>
+      <c r="JN90" t="n">
+        <v>140</v>
+      </c>
+      <c r="JO90" t="n">
+        <v>140</v>
+      </c>
+      <c r="JP90" t="n">
+        <v>140</v>
+      </c>
+      <c r="JQ90" t="n">
+        <v>140</v>
+      </c>
+      <c r="JR90" t="n">
+        <v>140</v>
+      </c>
+      <c r="JS90" t="n">
+        <v>140</v>
+      </c>
+      <c r="JT90" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -75313,6 +77203,27 @@
       <c r="JM91" t="n">
         <v>304</v>
       </c>
+      <c r="JN91" t="n">
+        <v>304</v>
+      </c>
+      <c r="JO91" t="n">
+        <v>304</v>
+      </c>
+      <c r="JP91" t="n">
+        <v>304</v>
+      </c>
+      <c r="JQ91" t="n">
+        <v>304</v>
+      </c>
+      <c r="JR91" t="n">
+        <v>304</v>
+      </c>
+      <c r="JS91" t="n">
+        <v>304</v>
+      </c>
+      <c r="JT91" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -76136,6 +78047,27 @@
       <c r="JM92" t="n">
         <v>341</v>
       </c>
+      <c r="JN92" t="n">
+        <v>341</v>
+      </c>
+      <c r="JO92" t="n">
+        <v>341</v>
+      </c>
+      <c r="JP92" t="n">
+        <v>341</v>
+      </c>
+      <c r="JQ92" t="n">
+        <v>341</v>
+      </c>
+      <c r="JR92" t="n">
+        <v>341</v>
+      </c>
+      <c r="JS92" t="n">
+        <v>341</v>
+      </c>
+      <c r="JT92" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -76959,6 +78891,27 @@
       <c r="JM93" t="n">
         <v>76.5</v>
       </c>
+      <c r="JN93" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JO93" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JP93" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JQ93" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JR93" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JS93" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="JT93" t="n">
+        <v>76.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -77782,6 +79735,27 @@
       <c r="JM94" t="n">
         <v>59</v>
       </c>
+      <c r="JN94" t="n">
+        <v>59</v>
+      </c>
+      <c r="JO94" t="n">
+        <v>59</v>
+      </c>
+      <c r="JP94" t="n">
+        <v>59</v>
+      </c>
+      <c r="JQ94" t="n">
+        <v>59</v>
+      </c>
+      <c r="JR94" t="n">
+        <v>59</v>
+      </c>
+      <c r="JS94" t="n">
+        <v>59</v>
+      </c>
+      <c r="JT94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -78605,6 +80579,27 @@
       <c r="JM95" t="n">
         <v>14</v>
       </c>
+      <c r="JN95" t="n">
+        <v>14</v>
+      </c>
+      <c r="JO95" t="n">
+        <v>14</v>
+      </c>
+      <c r="JP95" t="n">
+        <v>14</v>
+      </c>
+      <c r="JQ95" t="n">
+        <v>14</v>
+      </c>
+      <c r="JR95" t="n">
+        <v>14</v>
+      </c>
+      <c r="JS95" t="n">
+        <v>14</v>
+      </c>
+      <c r="JT95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -79428,6 +81423,27 @@
       <c r="JM96" t="n">
         <v>9</v>
       </c>
+      <c r="JN96" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO96" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP96" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ96" t="n">
+        <v>9</v>
+      </c>
+      <c r="JR96" t="n">
+        <v>9</v>
+      </c>
+      <c r="JS96" t="n">
+        <v>9</v>
+      </c>
+      <c r="JT96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -80251,6 +82267,27 @@
       <c r="JM97" t="n">
         <v>31</v>
       </c>
+      <c r="JN97" t="n">
+        <v>31</v>
+      </c>
+      <c r="JO97" t="n">
+        <v>31</v>
+      </c>
+      <c r="JP97" t="n">
+        <v>31</v>
+      </c>
+      <c r="JQ97" t="n">
+        <v>31</v>
+      </c>
+      <c r="JR97" t="n">
+        <v>31</v>
+      </c>
+      <c r="JS97" t="n">
+        <v>31</v>
+      </c>
+      <c r="JT97" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -81074,6 +83111,27 @@
       <c r="JM98" t="n">
         <v>44</v>
       </c>
+      <c r="JN98" t="n">
+        <v>44</v>
+      </c>
+      <c r="JO98" t="n">
+        <v>44</v>
+      </c>
+      <c r="JP98" t="n">
+        <v>44</v>
+      </c>
+      <c r="JQ98" t="n">
+        <v>44</v>
+      </c>
+      <c r="JR98" t="n">
+        <v>44</v>
+      </c>
+      <c r="JS98" t="n">
+        <v>44</v>
+      </c>
+      <c r="JT98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -81897,6 +83955,27 @@
       <c r="JM99" t="n">
         <v>46</v>
       </c>
+      <c r="JN99" t="n">
+        <v>46</v>
+      </c>
+      <c r="JO99" t="n">
+        <v>46</v>
+      </c>
+      <c r="JP99" t="n">
+        <v>46</v>
+      </c>
+      <c r="JQ99" t="n">
+        <v>46</v>
+      </c>
+      <c r="JR99" t="n">
+        <v>46</v>
+      </c>
+      <c r="JS99" t="n">
+        <v>46</v>
+      </c>
+      <c r="JT99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -82720,6 +84799,27 @@
       <c r="JM100" t="n">
         <v>0</v>
       </c>
+      <c r="JN100" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO100" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP100" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR100" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS100" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -83543,6 +85643,27 @@
       <c r="JM101" t="n">
         <v>4</v>
       </c>
+      <c r="JN101" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO101" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP101" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ101" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR101" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS101" t="n">
+        <v>4</v>
+      </c>
+      <c r="JT101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -84366,6 +86487,27 @@
       <c r="JM102" t="n">
         <v>50</v>
       </c>
+      <c r="JN102" t="n">
+        <v>50</v>
+      </c>
+      <c r="JO102" t="n">
+        <v>50</v>
+      </c>
+      <c r="JP102" t="n">
+        <v>50</v>
+      </c>
+      <c r="JQ102" t="n">
+        <v>50</v>
+      </c>
+      <c r="JR102" t="n">
+        <v>50</v>
+      </c>
+      <c r="JS102" t="n">
+        <v>50</v>
+      </c>
+      <c r="JT102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KA102"/>
+  <dimension ref="A1:KB102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JO99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JV100" activeCellId="0" sqref="JV100"/>
@@ -1317,8 +1317,11 @@
       <c r="JZ1" s="1" t="n">
         <v>10842</v>
       </c>
-      <c r="KA1" t="n">
+      <c r="KA1" s="1" t="n">
         <v>10857</v>
+      </c>
+      <c r="KB1" t="n">
+        <v>10868</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2182,7 +2185,10 @@
       <c r="JZ2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KA2" t="n">
+      <c r="KA2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KB2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3047,8 +3053,11 @@
       <c r="JZ3" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KA3" t="n">
+      <c r="KA3" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3912,7 +3921,10 @@
       <c r="JZ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KA4" t="n">
+      <c r="KA4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4777,8 +4789,11 @@
       <c r="JZ5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KA5" t="n">
+      <c r="KA5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KB5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5642,8 +5657,11 @@
       <c r="JZ6" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="KA6" t="n">
+      <c r="KA6" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="KB6" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6507,8 +6525,11 @@
       <c r="JZ7" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="KA7" t="n">
+      <c r="KA7" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="KB7" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7372,8 +7393,11 @@
       <c r="JZ8" s="1" t="n">
         <v>-10</v>
       </c>
-      <c r="KA8" t="n">
+      <c r="KA8" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KB8" t="n">
+        <v>-20</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8237,8 +8261,11 @@
       <c r="JZ9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KA9" t="n">
+      <c r="KA9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KB9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9102,8 +9129,11 @@
       <c r="JZ10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KA10" t="n">
+      <c r="KA10" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KB10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9967,8 +9997,11 @@
       <c r="JZ11" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="KA11" t="n">
+      <c r="KA11" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="KB11" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10832,8 +10865,11 @@
       <c r="JZ12" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="KA12" t="n">
+      <c r="KA12" s="1" t="n">
         <v>162</v>
+      </c>
+      <c r="KB12" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11697,8 +11733,11 @@
       <c r="JZ13" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="KA13" t="n">
+      <c r="KA13" s="1" t="n">
         <v>386</v>
+      </c>
+      <c r="KB13" t="n">
+        <v>384</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12562,8 +12601,11 @@
       <c r="JZ14" s="1" t="n">
         <v>1.71</v>
       </c>
-      <c r="KA14" t="n">
+      <c r="KA14" s="1" t="n">
         <v>1.38</v>
+      </c>
+      <c r="KB14" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13427,8 +13469,11 @@
       <c r="JZ15" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="KA15" t="n">
+      <c r="KA15" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="KB15" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14292,8 +14337,11 @@
       <c r="JZ16" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KA16" t="n">
+      <c r="KA16" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="KB16" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15157,8 +15205,11 @@
       <c r="JZ17" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KA17" t="n">
+      <c r="KA17" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KB17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16022,8 +16073,11 @@
       <c r="JZ18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KA18" t="n">
+      <c r="KA18" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KB18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16887,8 +16941,11 @@
       <c r="JZ19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KA19" t="n">
+      <c r="KA19" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KB19" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17752,8 +17809,11 @@
       <c r="JZ20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KA20" t="n">
+      <c r="KA20" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KB20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18617,7 +18677,10 @@
       <c r="JZ21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KA21" t="n">
+      <c r="KA21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -19482,8 +19545,11 @@
       <c r="JZ22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KA22" t="n">
+      <c r="KA22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KB22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20347,8 +20413,11 @@
       <c r="JZ23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KA23" t="n">
+      <c r="KA23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KB23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21212,8 +21281,11 @@
       <c r="JZ24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KA24" t="n">
+      <c r="KA24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KB24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22077,8 +22149,11 @@
       <c r="JZ25" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="KA25" t="n">
+      <c r="KA25" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KB25" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22942,8 +23017,11 @@
       <c r="JZ26" s="1" t="n">
         <v>29.58</v>
       </c>
-      <c r="KA26" t="n">
+      <c r="KA26" s="1" t="n">
         <v>32.17</v>
+      </c>
+      <c r="KB26" t="n">
+        <v>34.91</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23807,8 +23885,11 @@
       <c r="JZ27" s="1" t="n">
         <v>19.72</v>
       </c>
-      <c r="KA27" t="n">
+      <c r="KA27" s="1" t="n">
         <v>19.3</v>
+      </c>
+      <c r="KB27" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24672,8 +24753,11 @@
       <c r="JZ28" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KA28" t="n">
+      <c r="KA28" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KB28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25537,8 +25621,11 @@
       <c r="JZ29" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KA29" t="n">
+      <c r="KA29" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KB29" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26402,8 +26489,11 @@
       <c r="JZ30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KA30" t="n">
+      <c r="KA30" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KB30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27267,8 +27357,11 @@
       <c r="JZ31" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KA31" t="n">
+      <c r="KA31" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KB31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28132,8 +28225,11 @@
       <c r="JZ32" s="1" t="n">
         <v>2.39</v>
       </c>
-      <c r="KA32" t="n">
+      <c r="KA32" s="1" t="n">
         <v>2.55</v>
+      </c>
+      <c r="KB32" t="n">
+        <v>4.07</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28997,8 +29093,11 @@
       <c r="JZ33" s="1" t="n">
         <v>3.58</v>
       </c>
-      <c r="KA33" t="n">
+      <c r="KA33" s="1" t="n">
         <v>4.25</v>
+      </c>
+      <c r="KB33" t="n">
+        <v>5.55</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29862,8 +29961,11 @@
       <c r="JZ34" s="1" t="n">
         <v>37.2</v>
       </c>
-      <c r="KA34" t="n">
+      <c r="KA34" s="1" t="n">
         <v>37.3</v>
+      </c>
+      <c r="KB34" t="n">
+        <v>24.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -30727,8 +30829,11 @@
       <c r="JZ35" s="1" t="n">
         <v>27.9</v>
       </c>
-      <c r="KA35" t="n">
+      <c r="KA35" s="1" t="n">
         <v>23.5</v>
+      </c>
+      <c r="KB35" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -31592,7 +31697,10 @@
       <c r="JZ36" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="KA36" t="n">
+      <c r="KA36" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="KB36" t="n">
         <v>188.4</v>
       </c>
     </row>
@@ -32457,7 +32565,10 @@
       <c r="JZ37" s="1" t="n">
         <v>85.5</v>
       </c>
-      <c r="KA37" t="n">
+      <c r="KA37" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="KB37" t="n">
         <v>86</v>
       </c>
     </row>
@@ -33322,7 +33433,10 @@
       <c r="JZ38" s="1" t="n">
         <v>25.49</v>
       </c>
-      <c r="KA38" t="n">
+      <c r="KA38" s="1" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="KB38" t="n">
         <v>25.16</v>
       </c>
     </row>
@@ -34187,8 +34301,11 @@
       <c r="JZ39" s="1" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="KA39" t="n">
+      <c r="KA39" s="1" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="KB39" t="n">
+        <v>91.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35052,7 +35169,10 @@
       <c r="JZ40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KA40" t="n">
+      <c r="KA40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -35917,7 +36037,10 @@
       <c r="JZ41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KA41" t="n">
+      <c r="KA41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36782,7 +36905,10 @@
       <c r="JZ42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KA42" t="n">
+      <c r="KA42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -37647,7 +37773,10 @@
       <c r="JZ43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KA43" t="n">
+      <c r="KA43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -38512,8 +38641,11 @@
       <c r="JZ44" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="KA44" t="n">
+      <c r="KA44" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="KB44" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -39377,8 +39509,11 @@
       <c r="JZ45" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="KA45" t="n">
+      <c r="KA45" s="1" t="n">
         <v>229</v>
+      </c>
+      <c r="KB45" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -40242,8 +40377,11 @@
       <c r="JZ46" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="KA46" t="n">
+      <c r="KA46" s="1" t="n">
         <v>275</v>
+      </c>
+      <c r="KB46" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -41107,8 +41245,11 @@
       <c r="JZ47" s="1" t="n">
         <v>75.8</v>
       </c>
-      <c r="KA47" t="n">
+      <c r="KA47" s="1" t="n">
         <v>71.2</v>
+      </c>
+      <c r="KB47" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -41972,8 +42113,11 @@
       <c r="JZ48" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KA48" t="n">
+      <c r="KA48" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KB48" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -42837,8 +42981,11 @@
       <c r="JZ49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KA49" t="n">
+      <c r="KA49" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KB49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -43702,8 +43849,11 @@
       <c r="JZ50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KA50" t="n">
+      <c r="KA50" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KB50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -44567,8 +44717,11 @@
       <c r="JZ51" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KA51" t="n">
+      <c r="KA51" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KB51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -45432,8 +45585,11 @@
       <c r="JZ52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KA52" t="n">
+      <c r="KA52" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KB52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -46297,8 +46453,11 @@
       <c r="JZ53" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KA53" t="n">
+      <c r="KA53" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KB53" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -47162,8 +47321,11 @@
       <c r="JZ54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KA54" t="n">
+      <c r="KA54" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KB54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -48027,7 +48189,10 @@
       <c r="JZ55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KA55" t="n">
+      <c r="KA55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB55" t="n">
         <v>5</v>
       </c>
     </row>
@@ -48892,8 +49057,11 @@
       <c r="JZ56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="KA56" t="n">
+      <c r="KA56" s="1" t="n">
         <v>41.7</v>
+      </c>
+      <c r="KB56" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -49757,8 +49925,11 @@
       <c r="JZ57" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="KA57" t="n">
+      <c r="KA57" s="1" t="n">
         <v>215</v>
+      </c>
+      <c r="KB57" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -50622,8 +50793,11 @@
       <c r="JZ58" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="KA58" t="n">
+      <c r="KA58" s="1" t="n">
         <v>155</v>
+      </c>
+      <c r="KB58" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -51487,8 +51661,11 @@
       <c r="JZ59" s="1" t="n">
         <v>424</v>
       </c>
-      <c r="KA59" t="n">
+      <c r="KA59" s="1" t="n">
         <v>370</v>
+      </c>
+      <c r="KB59" t="n">
+        <v>394</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -52352,8 +52529,11 @@
       <c r="JZ60" s="1" t="n">
         <v>0.98</v>
       </c>
-      <c r="KA60" t="n">
+      <c r="KA60" s="1" t="n">
         <v>1.39</v>
+      </c>
+      <c r="KB60" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -53217,8 +53397,11 @@
       <c r="JZ61" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="KA61" t="n">
+      <c r="KA61" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="KB61" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -54082,8 +54265,11 @@
       <c r="JZ62" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KA62" t="n">
+      <c r="KA62" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KB62" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -54947,8 +55133,11 @@
       <c r="JZ63" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KA63" t="n">
+      <c r="KA63" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KB63" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -55812,8 +56001,11 @@
       <c r="JZ64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KA64" t="n">
+      <c r="KA64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KB64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -56677,8 +56869,11 @@
       <c r="JZ65" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KA65" t="n">
+      <c r="KA65" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KB65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -57542,8 +57737,11 @@
       <c r="JZ66" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KA66" t="n">
+      <c r="KA66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KB66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -58407,8 +58605,11 @@
       <c r="JZ67" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KA67" t="n">
+      <c r="KA67" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KB67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -59272,8 +59473,11 @@
       <c r="JZ68" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KA68" t="n">
+      <c r="KA68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KB68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -60137,8 +60341,11 @@
       <c r="JZ69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KA69" t="n">
+      <c r="KA69" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KB69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -61002,8 +61209,11 @@
       <c r="JZ70" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="KA70" t="n">
+      <c r="KA70" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KB70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -61867,8 +62077,11 @@
       <c r="JZ71" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="KA71" t="n">
+      <c r="KA71" s="1" t="n">
         <v>42.9</v>
+      </c>
+      <c r="KB71" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -62732,8 +62945,11 @@
       <c r="JZ72" s="1" t="n">
         <v>35.33</v>
       </c>
-      <c r="KA72" t="n">
+      <c r="KA72" s="1" t="n">
         <v>41.11</v>
+      </c>
+      <c r="KB72" t="n">
+        <v>30.31</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -63597,8 +63813,11 @@
       <c r="JZ73" s="1" t="n">
         <v>15.14</v>
       </c>
-      <c r="KA73" t="n">
+      <c r="KA73" s="1" t="n">
         <v>17.62</v>
+      </c>
+      <c r="KB73" t="n">
+        <v>15.76</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -64462,8 +64681,11 @@
       <c r="JZ74" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="KA74" t="n">
+      <c r="KA74" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KB74" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -65327,8 +65549,11 @@
       <c r="JZ75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KA75" t="n">
+      <c r="KA75" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="KB75" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -66192,8 +66417,11 @@
       <c r="JZ76" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KA76" t="n">
+      <c r="KA76" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KB76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -67057,8 +67285,11 @@
       <c r="JZ77" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KA77" t="n">
+      <c r="KA77" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KB77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -67922,8 +68153,11 @@
       <c r="JZ78" s="1" t="n">
         <v>2.07</v>
       </c>
-      <c r="KA78" t="n">
+      <c r="KA78" s="1" t="n">
         <v>2.57</v>
+      </c>
+      <c r="KB78" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -68787,8 +69021,11 @@
       <c r="JZ79" s="1" t="n">
         <v>4.83</v>
       </c>
-      <c r="KA79" t="n">
+      <c r="KA79" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KB79" t="n">
+        <v>4.46</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -69652,8 +69889,11 @@
       <c r="JZ80" s="1" t="n">
         <v>44.8</v>
       </c>
-      <c r="KA80" t="n">
+      <c r="KA80" s="1" t="n">
         <v>31.5</v>
+      </c>
+      <c r="KB80" t="n">
+        <v>39.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -70517,8 +70757,11 @@
       <c r="JZ81" s="1" t="n">
         <v>20.7</v>
       </c>
-      <c r="KA81" t="n">
+      <c r="KA81" s="1" t="n">
         <v>16.7</v>
+      </c>
+      <c r="KB81" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -71382,8 +71625,11 @@
       <c r="JZ82" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="KA82" t="n">
+      <c r="KA82" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="KB82" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -72247,8 +72493,11 @@
       <c r="JZ83" s="1" t="n">
         <v>87.3</v>
       </c>
-      <c r="KA83" t="n">
+      <c r="KA83" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="KB83" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -73112,8 +73361,11 @@
       <c r="JZ84" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="KA84" t="n">
+      <c r="KA84" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KB84" t="n">
+        <v>26.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -73977,8 +74229,11 @@
       <c r="JZ85" s="1" t="n">
         <v>67.2</v>
       </c>
-      <c r="KA85" t="n">
+      <c r="KA85" s="1" t="n">
         <v>105.8</v>
+      </c>
+      <c r="KB85" t="n">
+        <v>127.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -74842,8 +75097,11 @@
       <c r="JZ86" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KA86" t="n">
+      <c r="KA86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KB86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -75707,8 +75965,11 @@
       <c r="JZ87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KA87" t="n">
+      <c r="KA87" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KB87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -76572,8 +76833,11 @@
       <c r="JZ88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KA88" t="n">
+      <c r="KA88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KB88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -77437,8 +77701,11 @@
       <c r="JZ89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KA89" t="n">
+      <c r="KA89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KB89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -78302,8 +78569,11 @@
       <c r="JZ90" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="KA90" t="n">
+      <c r="KA90" s="1" t="n">
         <v>157</v>
+      </c>
+      <c r="KB90" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -79167,8 +79437,11 @@
       <c r="JZ91" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="KA91" t="n">
+      <c r="KA91" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="KB91" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -80032,8 +80305,11 @@
       <c r="JZ92" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="KA92" t="n">
+      <c r="KA92" s="1" t="n">
         <v>244</v>
+      </c>
+      <c r="KB92" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -80897,8 +81173,11 @@
       <c r="JZ93" s="1" t="n">
         <v>79.5</v>
       </c>
-      <c r="KA93" t="n">
+      <c r="KA93" s="1" t="n">
         <v>65.90000000000001</v>
+      </c>
+      <c r="KB93" t="n">
+        <v>65.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -81762,8 +82041,11 @@
       <c r="JZ94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KA94" t="n">
+      <c r="KA94" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="KB94" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -82627,8 +82909,11 @@
       <c r="JZ95" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KA95" t="n">
+      <c r="KA95" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KB95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -83492,8 +83777,11 @@
       <c r="JZ96" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KA96" t="n">
+      <c r="KA96" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KB96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -84357,8 +84645,11 @@
       <c r="JZ97" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="KA97" t="n">
+      <c r="KA97" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KB97" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -85222,8 +85513,11 @@
       <c r="JZ98" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KA98" t="n">
+      <c r="KA98" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KB98" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -86087,8 +86381,11 @@
       <c r="JZ99" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KA99" t="n">
+      <c r="KA99" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="KB99" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -86952,8 +87249,11 @@
       <c r="JZ100" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KA100" t="n">
+      <c r="KA100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KB100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -87817,8 +88117,11 @@
       <c r="JZ101" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KA101" t="n">
+      <c r="KA101" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KB101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -88682,8 +88985,11 @@
       <c r="JZ102" s="1" t="n">
         <v>91.7</v>
       </c>
-      <c r="KA102" t="n">
+      <c r="KA102" s="1" t="n">
         <v>22.2</v>
+      </c>
+      <c r="KB102" t="n">
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KB102"/>
+  <dimension ref="A1:KC102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JO99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JV100" activeCellId="0" sqref="JV100"/>
@@ -1320,8 +1320,11 @@
       <c r="KA1" s="1" t="n">
         <v>10857</v>
       </c>
-      <c r="KB1" t="n">
+      <c r="KB1" s="1" t="n">
         <v>10868</v>
+      </c>
+      <c r="KC1" t="n">
+        <v>10872</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2188,7 +2191,10 @@
       <c r="KA2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KB2" t="n">
+      <c r="KB2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KC2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3056,8 +3062,11 @@
       <c r="KA3" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KB3" t="n">
+      <c r="KB3" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3924,8 +3933,11 @@
       <c r="KA4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KB4" t="n">
+      <c r="KB4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4792,8 +4804,11 @@
       <c r="KA5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KB5" t="n">
+      <c r="KB5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KC5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5660,8 +5675,11 @@
       <c r="KA6" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="KB6" t="n">
+      <c r="KB6" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="KC6" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6528,8 +6546,11 @@
       <c r="KA7" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="KB7" t="n">
+      <c r="KB7" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="KC7" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7396,8 +7417,11 @@
       <c r="KA8" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KB8" t="n">
+      <c r="KB8" s="1" t="n">
         <v>-20</v>
+      </c>
+      <c r="KC8" t="n">
+        <v>-28</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8264,7 +8288,10 @@
       <c r="KA9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KB9" t="n">
+      <c r="KB9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9132,8 +9159,11 @@
       <c r="KA10" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KB10" t="n">
+      <c r="KB10" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KC10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10000,8 +10030,11 @@
       <c r="KA11" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="KB11" t="n">
+      <c r="KB11" s="1" t="n">
         <v>238</v>
+      </c>
+      <c r="KC11" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10868,8 +10901,11 @@
       <c r="KA12" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="KB12" t="n">
+      <c r="KB12" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="KC12" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11736,8 +11772,11 @@
       <c r="KA13" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="KB13" t="n">
+      <c r="KB13" s="1" t="n">
         <v>384</v>
+      </c>
+      <c r="KC13" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12604,8 +12643,11 @@
       <c r="KA14" s="1" t="n">
         <v>1.38</v>
       </c>
-      <c r="KB14" t="n">
+      <c r="KB14" s="1" t="n">
         <v>1.63</v>
+      </c>
+      <c r="KC14" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13472,8 +13514,11 @@
       <c r="KA15" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="KB15" t="n">
+      <c r="KB15" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KC15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14340,8 +14385,11 @@
       <c r="KA16" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="KB16" t="n">
+      <c r="KB16" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="KC16" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15208,8 +15256,11 @@
       <c r="KA17" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KB17" t="n">
+      <c r="KB17" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KC17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16076,8 +16127,11 @@
       <c r="KA18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KB18" t="n">
+      <c r="KB18" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KC18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16944,8 +16998,11 @@
       <c r="KA19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KB19" t="n">
+      <c r="KB19" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KC19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17812,8 +17869,11 @@
       <c r="KA20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KB20" t="n">
+      <c r="KB20" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KC20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18680,8 +18740,11 @@
       <c r="KA21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KB21" t="n">
+      <c r="KB21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KC21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19548,8 +19611,11 @@
       <c r="KA22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KB22" t="n">
+      <c r="KB22" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KC22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20416,8 +20482,11 @@
       <c r="KA23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KB23" t="n">
+      <c r="KB23" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KC23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21284,8 +21353,11 @@
       <c r="KA24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KB24" t="n">
+      <c r="KB24" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KC24" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22152,8 +22224,11 @@
       <c r="KA25" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KB25" t="n">
+      <c r="KB25" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="KC25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23020,8 +23095,11 @@
       <c r="KA26" s="1" t="n">
         <v>32.17</v>
       </c>
-      <c r="KB26" t="n">
+      <c r="KB26" s="1" t="n">
         <v>34.91</v>
+      </c>
+      <c r="KC26" t="n">
+        <v>44.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23888,8 +23966,11 @@
       <c r="KA27" s="1" t="n">
         <v>19.3</v>
       </c>
-      <c r="KB27" t="n">
+      <c r="KB27" s="1" t="n">
         <v>25.6</v>
+      </c>
+      <c r="KC27" t="n">
+        <v>22.25</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24756,8 +24837,11 @@
       <c r="KA28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KB28" t="n">
+      <c r="KB28" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="KC28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25624,8 +25708,11 @@
       <c r="KA29" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KB29" t="n">
+      <c r="KB29" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="KC29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26492,8 +26579,11 @@
       <c r="KA30" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KB30" t="n">
+      <c r="KB30" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KC30" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27360,8 +27450,11 @@
       <c r="KA31" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KB31" t="n">
+      <c r="KB31" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="KC31" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28228,8 +28321,11 @@
       <c r="KA32" s="1" t="n">
         <v>2.55</v>
       </c>
-      <c r="KB32" t="n">
+      <c r="KB32" s="1" t="n">
         <v>4.07</v>
+      </c>
+      <c r="KC32" t="n">
+        <v>2.69</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29096,8 +29192,11 @@
       <c r="KA33" s="1" t="n">
         <v>4.25</v>
       </c>
-      <c r="KB33" t="n">
+      <c r="KB33" s="1" t="n">
         <v>5.55</v>
+      </c>
+      <c r="KC33" t="n">
+        <v>5.38</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29964,8 +30063,11 @@
       <c r="KA34" s="1" t="n">
         <v>37.3</v>
       </c>
-      <c r="KB34" t="n">
+      <c r="KB34" s="1" t="n">
         <v>24.6</v>
+      </c>
+      <c r="KC34" t="n">
+        <v>34.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -30832,8 +30934,11 @@
       <c r="KA35" s="1" t="n">
         <v>23.5</v>
       </c>
-      <c r="KB35" t="n">
+      <c r="KB35" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KC35" t="n">
+        <v>18.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -31700,8 +31805,11 @@
       <c r="KA36" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="KB36" t="n">
+      <c r="KB36" s="1" t="n">
         <v>188.4</v>
+      </c>
+      <c r="KC36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -32568,8 +32676,11 @@
       <c r="KA37" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="KB37" t="n">
+      <c r="KB37" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="KC37" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -33436,8 +33547,11 @@
       <c r="KA38" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="KB38" t="n">
+      <c r="KB38" s="1" t="n">
         <v>25.16</v>
+      </c>
+      <c r="KC38" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -34304,8 +34418,11 @@
       <c r="KA39" s="1" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="KB39" t="n">
+      <c r="KB39" s="1" t="n">
         <v>91.90000000000001</v>
+      </c>
+      <c r="KC39" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35172,7 +35289,10 @@
       <c r="KA40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KB40" t="n">
+      <c r="KB40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -36040,7 +36160,10 @@
       <c r="KA41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KB41" t="n">
+      <c r="KB41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36908,7 +37031,10 @@
       <c r="KA42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KB42" t="n">
+      <c r="KB42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -37776,7 +37902,10 @@
       <c r="KA43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KB43" t="n">
+      <c r="KB43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -38644,8 +38773,11 @@
       <c r="KA44" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="KB44" t="n">
+      <c r="KB44" s="1" t="n">
         <v>173</v>
+      </c>
+      <c r="KC44" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -39512,8 +39644,11 @@
       <c r="KA45" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="KB45" t="n">
+      <c r="KB45" s="1" t="n">
         <v>190</v>
+      </c>
+      <c r="KC45" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -40380,8 +40515,11 @@
       <c r="KA46" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="KB46" t="n">
+      <c r="KB46" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="KC46" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -41248,8 +41386,11 @@
       <c r="KA47" s="1" t="n">
         <v>71.2</v>
       </c>
-      <c r="KB47" t="n">
+      <c r="KB47" s="1" t="n">
         <v>62.5</v>
+      </c>
+      <c r="KC47" t="n">
+        <v>70.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -42116,8 +42257,11 @@
       <c r="KA48" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KB48" t="n">
+      <c r="KB48" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="KC48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -42984,7 +43128,10 @@
       <c r="KA49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KB49" t="n">
+      <c r="KB49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC49" t="n">
         <v>6</v>
       </c>
     </row>
@@ -43852,8 +43999,11 @@
       <c r="KA50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KB50" t="n">
+      <c r="KB50" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KC50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -44720,8 +44870,11 @@
       <c r="KA51" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KB51" t="n">
+      <c r="KB51" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="KC51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -45588,8 +45741,11 @@
       <c r="KA52" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KB52" t="n">
+      <c r="KB52" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KC52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -46456,8 +46612,11 @@
       <c r="KA53" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KB53" t="n">
+      <c r="KB53" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="KC53" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -47324,8 +47483,11 @@
       <c r="KA54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KB54" t="n">
+      <c r="KB54" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KC54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -48192,8 +48354,11 @@
       <c r="KA55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KB55" t="n">
+      <c r="KB55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KC55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -49060,8 +49225,11 @@
       <c r="KA56" s="1" t="n">
         <v>41.7</v>
       </c>
-      <c r="KB56" t="n">
+      <c r="KB56" s="1" t="n">
         <v>45.5</v>
+      </c>
+      <c r="KC56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -49928,8 +50096,11 @@
       <c r="KA57" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="KB57" t="n">
+      <c r="KB57" s="1" t="n">
         <v>244</v>
+      </c>
+      <c r="KC57" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -50796,8 +50967,11 @@
       <c r="KA58" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="KB58" t="n">
+      <c r="KB58" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="KC58" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -51664,8 +51838,11 @@
       <c r="KA59" s="1" t="n">
         <v>370</v>
       </c>
-      <c r="KB59" t="n">
+      <c r="KB59" s="1" t="n">
         <v>394</v>
+      </c>
+      <c r="KC59" t="n">
+        <v>333</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -52532,8 +52709,11 @@
       <c r="KA60" s="1" t="n">
         <v>1.39</v>
       </c>
-      <c r="KB60" t="n">
+      <c r="KB60" s="1" t="n">
         <v>1.63</v>
+      </c>
+      <c r="KC60" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -53400,8 +53580,11 @@
       <c r="KA61" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="KB61" t="n">
+      <c r="KB61" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KC61" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -54268,8 +54451,11 @@
       <c r="KA62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KB62" t="n">
+      <c r="KB62" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="KC62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -55136,8 +55322,11 @@
       <c r="KA63" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KB63" t="n">
+      <c r="KB63" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KC63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -56004,8 +56193,11 @@
       <c r="KA64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KB64" t="n">
+      <c r="KB64" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KC64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -56872,8 +57064,11 @@
       <c r="KA65" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KB65" t="n">
+      <c r="KB65" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KC65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -57740,8 +57935,11 @@
       <c r="KA66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KB66" t="n">
+      <c r="KB66" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KC66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -58608,8 +58806,11 @@
       <c r="KA67" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KB67" t="n">
+      <c r="KB67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KC67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -59476,8 +59677,11 @@
       <c r="KA68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KB68" t="n">
+      <c r="KB68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KC68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -60344,8 +60548,11 @@
       <c r="KA69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KB69" t="n">
+      <c r="KB69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KC69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -61212,8 +61419,11 @@
       <c r="KA70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KB70" t="n">
+      <c r="KB70" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KC70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -62080,8 +62290,11 @@
       <c r="KA71" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="KB71" t="n">
+      <c r="KB71" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KC71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -62948,8 +63161,11 @@
       <c r="KA72" s="1" t="n">
         <v>41.11</v>
       </c>
-      <c r="KB72" t="n">
+      <c r="KB72" s="1" t="n">
         <v>30.31</v>
+      </c>
+      <c r="KC72" t="n">
+        <v>27.75</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -63816,8 +64032,11 @@
       <c r="KA73" s="1" t="n">
         <v>17.62</v>
       </c>
-      <c r="KB73" t="n">
+      <c r="KB73" s="1" t="n">
         <v>15.76</v>
+      </c>
+      <c r="KC73" t="n">
+        <v>13.88</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -64684,8 +64903,11 @@
       <c r="KA74" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KB74" t="n">
+      <c r="KB74" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KC74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -65552,8 +65774,11 @@
       <c r="KA75" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="KB75" t="n">
+      <c r="KB75" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="KC75" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -66420,8 +66645,11 @@
       <c r="KA76" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KB76" t="n">
+      <c r="KB76" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KC76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -67288,8 +67516,11 @@
       <c r="KA77" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KB77" t="n">
+      <c r="KB77" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KC77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -68156,8 +68387,11 @@
       <c r="KA78" s="1" t="n">
         <v>2.57</v>
       </c>
-      <c r="KB78" t="n">
+      <c r="KB78" s="1" t="n">
         <v>2.32</v>
+      </c>
+      <c r="KC78" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -69024,8 +69258,11 @@
       <c r="KA79" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KB79" t="n">
+      <c r="KB79" s="1" t="n">
         <v>4.46</v>
+      </c>
+      <c r="KC79" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -69892,8 +70129,11 @@
       <c r="KA80" s="1" t="n">
         <v>31.5</v>
       </c>
-      <c r="KB80" t="n">
+      <c r="KB80" s="1" t="n">
         <v>39.7</v>
+      </c>
+      <c r="KC80" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -70760,8 +71000,11 @@
       <c r="KA81" s="1" t="n">
         <v>16.7</v>
       </c>
-      <c r="KB81" t="n">
+      <c r="KB81" s="1" t="n">
         <v>22.4</v>
+      </c>
+      <c r="KC81" t="n">
+        <v>22.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -71628,8 +71871,11 @@
       <c r="KA82" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="KB82" t="n">
+      <c r="KB82" s="1" t="n">
         <v>187.2</v>
+      </c>
+      <c r="KC82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -72496,8 +72742,11 @@
       <c r="KA83" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="KB83" t="n">
+      <c r="KB83" s="1" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KC83" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -73364,8 +73613,11 @@
       <c r="KA84" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KB84" t="n">
+      <c r="KB84" s="1" t="n">
         <v>26.66</v>
+      </c>
+      <c r="KC84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -74232,8 +74484,11 @@
       <c r="KA85" s="1" t="n">
         <v>105.8</v>
       </c>
-      <c r="KB85" t="n">
+      <c r="KB85" s="1" t="n">
         <v>127.7</v>
+      </c>
+      <c r="KC85" t="n">
+        <v>99.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -75100,8 +75355,11 @@
       <c r="KA86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KB86" t="n">
+      <c r="KB86" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KC86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -75968,8 +76226,11 @@
       <c r="KA87" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KB87" t="n">
+      <c r="KB87" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KC87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -76836,8 +77097,11 @@
       <c r="KA88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KB88" t="n">
+      <c r="KB88" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KC88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -77704,8 +77968,11 @@
       <c r="KA89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KB89" t="n">
+      <c r="KB89" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KC89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -78572,8 +78839,11 @@
       <c r="KA90" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="KB90" t="n">
+      <c r="KB90" s="1" t="n">
         <v>162</v>
+      </c>
+      <c r="KC90" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -79440,7 +79710,10 @@
       <c r="KA91" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="KB91" t="n">
+      <c r="KB91" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="KC91" t="n">
         <v>209</v>
       </c>
     </row>
@@ -80308,8 +80581,11 @@
       <c r="KA92" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="KB92" t="n">
+      <c r="KB92" s="1" t="n">
         <v>257</v>
+      </c>
+      <c r="KC92" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -81176,8 +81452,11 @@
       <c r="KA93" s="1" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c r="KB93" t="n">
+      <c r="KB93" s="1" t="n">
         <v>65.2</v>
+      </c>
+      <c r="KC93" t="n">
+        <v>71.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -82044,8 +82323,11 @@
       <c r="KA94" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="KB94" t="n">
+      <c r="KB94" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="KC94" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -82912,8 +83194,11 @@
       <c r="KA95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KB95" t="n">
+      <c r="KB95" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KC95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -83780,8 +84065,11 @@
       <c r="KA96" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KB96" t="n">
+      <c r="KB96" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KC96" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -84648,8 +84936,11 @@
       <c r="KA97" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KB97" t="n">
+      <c r="KB97" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KC97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -85516,8 +85807,11 @@
       <c r="KA98" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KB98" t="n">
+      <c r="KB98" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KC98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -86384,8 +86678,11 @@
       <c r="KA99" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="KB99" t="n">
+      <c r="KB99" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="KC99" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -87252,8 +87549,11 @@
       <c r="KA100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KB100" t="n">
+      <c r="KB100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KC100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -88120,8 +88420,11 @@
       <c r="KA101" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KB101" t="n">
+      <c r="KB101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KC101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -88988,8 +89291,11 @@
       <c r="KA102" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="KB102" t="n">
+      <c r="KB102" s="1" t="n">
         <v>61.5</v>
+      </c>
+      <c r="KC102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KC102"/>
+  <dimension ref="A1:KD102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JO99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JV100" activeCellId="0" sqref="JV100"/>
@@ -1323,8 +1323,11 @@
       <c r="KB1" s="1" t="n">
         <v>10868</v>
       </c>
-      <c r="KC1" t="n">
+      <c r="KC1" s="1" t="n">
         <v>10872</v>
+      </c>
+      <c r="KD1" t="n">
+        <v>10885</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2194,7 +2197,10 @@
       <c r="KB2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KC2" t="n">
+      <c r="KC2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KD2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3065,8 +3071,11 @@
       <c r="KB3" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KC3" t="n">
+      <c r="KC3" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3936,8 +3945,11 @@
       <c r="KB4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KC4" t="n">
+      <c r="KC4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4807,7 +4819,10 @@
       <c r="KB5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KC5" t="n">
+      <c r="KC5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5678,8 +5693,11 @@
       <c r="KB6" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="KC6" t="n">
+      <c r="KC6" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="KD6" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6549,8 +6567,11 @@
       <c r="KB7" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="KC7" t="n">
+      <c r="KC7" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="KD7" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7420,8 +7441,11 @@
       <c r="KB8" s="1" t="n">
         <v>-20</v>
       </c>
-      <c r="KC8" t="n">
+      <c r="KC8" s="1" t="n">
         <v>-28</v>
+      </c>
+      <c r="KD8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8291,8 +8315,11 @@
       <c r="KB9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KC9" t="n">
+      <c r="KC9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KD9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9162,8 +9189,11 @@
       <c r="KB10" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KC10" t="n">
+      <c r="KC10" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KD10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10033,8 +10063,11 @@
       <c r="KB11" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="KC11" t="n">
+      <c r="KC11" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="KD11" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10904,8 +10937,11 @@
       <c r="KB12" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="KC12" t="n">
+      <c r="KC12" s="1" t="n">
         <v>148</v>
+      </c>
+      <c r="KD12" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11775,8 +11811,11 @@
       <c r="KB13" s="1" t="n">
         <v>384</v>
       </c>
-      <c r="KC13" t="n">
+      <c r="KC13" s="1" t="n">
         <v>356</v>
+      </c>
+      <c r="KD13" t="n">
+        <v>371</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12646,8 +12685,11 @@
       <c r="KB14" s="1" t="n">
         <v>1.63</v>
       </c>
-      <c r="KC14" t="n">
+      <c r="KC14" s="1" t="n">
         <v>1.41</v>
+      </c>
+      <c r="KD14" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13517,8 +13559,11 @@
       <c r="KB15" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KC15" t="n">
+      <c r="KC15" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="KD15" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14388,8 +14433,11 @@
       <c r="KB16" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="KC16" t="n">
+      <c r="KC16" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="KD16" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15259,8 +15307,11 @@
       <c r="KB17" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KC17" t="n">
+      <c r="KC17" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KD17" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16130,8 +16181,11 @@
       <c r="KB18" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KC18" t="n">
+      <c r="KC18" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KD18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17001,8 +17055,11 @@
       <c r="KB19" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KC19" t="n">
+      <c r="KC19" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KD19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17872,8 +17929,11 @@
       <c r="KB20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KC20" t="n">
+      <c r="KC20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KD20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18743,8 +18803,11 @@
       <c r="KB21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KC21" t="n">
+      <c r="KC21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KD21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19614,8 +19677,11 @@
       <c r="KB22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KC22" t="n">
+      <c r="KC22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KD22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20485,8 +20551,11 @@
       <c r="KB23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KC23" t="n">
+      <c r="KC23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KD23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21356,8 +21425,11 @@
       <c r="KB24" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KC24" t="n">
+      <c r="KC24" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KD24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22227,8 +22299,11 @@
       <c r="KB25" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="KC25" t="n">
+      <c r="KC25" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KD25" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23098,8 +23173,11 @@
       <c r="KB26" s="1" t="n">
         <v>34.91</v>
       </c>
-      <c r="KC26" t="n">
+      <c r="KC26" s="1" t="n">
         <v>44.5</v>
+      </c>
+      <c r="KD26" t="n">
+        <v>30.92</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23969,8 +24047,11 @@
       <c r="KB27" s="1" t="n">
         <v>25.6</v>
       </c>
-      <c r="KC27" t="n">
+      <c r="KC27" s="1" t="n">
         <v>22.25</v>
+      </c>
+      <c r="KD27" t="n">
+        <v>14.84</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24840,8 +24921,11 @@
       <c r="KB28" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KC28" t="n">
+      <c r="KC28" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KD28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25711,8 +25795,11 @@
       <c r="KB29" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="KC29" t="n">
+      <c r="KC29" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="KD29" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26582,8 +26669,11 @@
       <c r="KB30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KC30" t="n">
+      <c r="KC30" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KD30" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27453,8 +27543,11 @@
       <c r="KB31" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="KC31" t="n">
+      <c r="KC31" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KD31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28324,8 +28417,11 @@
       <c r="KB32" s="1" t="n">
         <v>4.07</v>
       </c>
-      <c r="KC32" t="n">
+      <c r="KC32" s="1" t="n">
         <v>2.69</v>
+      </c>
+      <c r="KD32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29195,8 +29291,11 @@
       <c r="KB33" s="1" t="n">
         <v>5.55</v>
       </c>
-      <c r="KC33" t="n">
+      <c r="KC33" s="1" t="n">
         <v>5.38</v>
+      </c>
+      <c r="KD33" t="n">
+        <v>4.17</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30066,8 +30165,11 @@
       <c r="KB34" s="1" t="n">
         <v>24.6</v>
       </c>
-      <c r="KC34" t="n">
+      <c r="KC34" s="1" t="n">
         <v>34.9</v>
+      </c>
+      <c r="KD34" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -30937,8 +31039,11 @@
       <c r="KB35" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KC35" t="n">
+      <c r="KC35" s="1" t="n">
         <v>18.6</v>
+      </c>
+      <c r="KD35" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -31808,8 +31913,11 @@
       <c r="KB36" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="KC36" t="n">
+      <c r="KC36" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KD36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -32679,8 +32787,11 @@
       <c r="KB37" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="KC37" t="n">
+      <c r="KC37" s="1" t="n">
         <v>85.8</v>
+      </c>
+      <c r="KD37" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -33550,8 +33661,11 @@
       <c r="KB38" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="KC38" t="n">
+      <c r="KC38" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="KD38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -34421,8 +34535,11 @@
       <c r="KB39" s="1" t="n">
         <v>91.90000000000001</v>
       </c>
-      <c r="KC39" t="n">
+      <c r="KC39" s="1" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="KD39" t="n">
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35292,7 +35409,10 @@
       <c r="KB40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KC40" t="n">
+      <c r="KC40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -36163,8 +36283,11 @@
       <c r="KB41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KC41" t="n">
+      <c r="KC41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KD41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -37034,8 +37157,11 @@
       <c r="KB42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KC42" t="n">
+      <c r="KC42" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KD42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -37905,8 +38031,11 @@
       <c r="KB43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KC43" t="n">
+      <c r="KC43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KD43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -38776,8 +38905,11 @@
       <c r="KB44" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="KC44" t="n">
+      <c r="KC44" s="1" t="n">
         <v>135</v>
+      </c>
+      <c r="KD44" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -39647,8 +39779,11 @@
       <c r="KB45" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="KC45" t="n">
+      <c r="KC45" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="KD45" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -40518,8 +40653,11 @@
       <c r="KB46" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="KC46" t="n">
+      <c r="KC46" s="1" t="n">
         <v>252</v>
+      </c>
+      <c r="KD46" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -41389,8 +41527,11 @@
       <c r="KB47" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="KC47" t="n">
+      <c r="KC47" s="1" t="n">
         <v>70.8</v>
+      </c>
+      <c r="KD47" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -42260,8 +42401,11 @@
       <c r="KB48" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="KC48" t="n">
+      <c r="KC48" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="KD48" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -43131,8 +43275,11 @@
       <c r="KB49" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KC49" t="n">
+      <c r="KC49" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KD49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -44002,8 +44149,11 @@
       <c r="KB50" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KC50" t="n">
+      <c r="KC50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KD50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -44873,8 +45023,11 @@
       <c r="KB51" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KC51" t="n">
+      <c r="KC51" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KD51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -45744,8 +45897,11 @@
       <c r="KB52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KC52" t="n">
+      <c r="KC52" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KD52" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -46615,8 +46771,11 @@
       <c r="KB53" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="KC53" t="n">
+      <c r="KC53" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KD53" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -47486,8 +47645,11 @@
       <c r="KB54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KC54" t="n">
+      <c r="KC54" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KD54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -48357,8 +48519,11 @@
       <c r="KB55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KC55" t="n">
+      <c r="KC55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KD55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -49228,8 +49393,11 @@
       <c r="KB56" s="1" t="n">
         <v>45.5</v>
       </c>
-      <c r="KC56" t="n">
+      <c r="KC56" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="KD56" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -50099,8 +50267,11 @@
       <c r="KB57" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="KC57" t="n">
+      <c r="KC57" s="1" t="n">
         <v>230</v>
+      </c>
+      <c r="KD57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -50970,8 +51141,11 @@
       <c r="KB58" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="KC58" t="n">
+      <c r="KC58" s="1" t="n">
         <v>103</v>
+      </c>
+      <c r="KD58" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -51841,8 +52015,11 @@
       <c r="KB59" s="1" t="n">
         <v>394</v>
       </c>
-      <c r="KC59" t="n">
+      <c r="KC59" s="1" t="n">
         <v>333</v>
+      </c>
+      <c r="KD59" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -52712,8 +52889,11 @@
       <c r="KB60" s="1" t="n">
         <v>1.63</v>
       </c>
-      <c r="KC60" t="n">
+      <c r="KC60" s="1" t="n">
         <v>2.23</v>
+      </c>
+      <c r="KD60" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -53583,8 +53763,11 @@
       <c r="KB61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="KC61" t="n">
+      <c r="KC61" s="1" t="n">
         <v>124</v>
+      </c>
+      <c r="KD61" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -54454,8 +54637,11 @@
       <c r="KB62" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="KC62" t="n">
+      <c r="KC62" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="KD62" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -55325,8 +55511,11 @@
       <c r="KB63" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KC63" t="n">
+      <c r="KC63" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="KD63" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -56196,8 +56385,11 @@
       <c r="KB64" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KC64" t="n">
+      <c r="KC64" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KD64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -57067,8 +57259,11 @@
       <c r="KB65" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KC65" t="n">
+      <c r="KC65" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KD65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -57938,7 +58133,10 @@
       <c r="KB66" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KC66" t="n">
+      <c r="KC66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KD66" t="n">
         <v>12</v>
       </c>
     </row>
@@ -58809,8 +59007,11 @@
       <c r="KB67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KC67" t="n">
+      <c r="KC67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KD67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -59680,8 +59881,11 @@
       <c r="KB68" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KC68" t="n">
+      <c r="KC68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KD68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -60551,8 +60755,11 @@
       <c r="KB69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KC69" t="n">
+      <c r="KC69" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KD69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -61422,8 +61629,11 @@
       <c r="KB70" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KC70" t="n">
+      <c r="KC70" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="KD70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -62293,8 +62503,11 @@
       <c r="KB71" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KC71" t="n">
+      <c r="KC71" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KD71" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -63164,8 +63377,11 @@
       <c r="KB72" s="1" t="n">
         <v>30.31</v>
       </c>
-      <c r="KC72" t="n">
+      <c r="KC72" s="1" t="n">
         <v>27.75</v>
+      </c>
+      <c r="KD72" t="n">
+        <v>29.67</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -64035,8 +64251,11 @@
       <c r="KB73" s="1" t="n">
         <v>15.76</v>
       </c>
-      <c r="KC73" t="n">
+      <c r="KC73" s="1" t="n">
         <v>13.88</v>
+      </c>
+      <c r="KD73" t="n">
+        <v>20.94</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -64906,8 +65125,11 @@
       <c r="KB74" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KC74" t="n">
+      <c r="KC74" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KD74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -65777,7 +65999,10 @@
       <c r="KB75" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="KC75" t="n">
+      <c r="KC75" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KD75" t="n">
         <v>47</v>
       </c>
     </row>
@@ -66648,8 +66873,11 @@
       <c r="KB76" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KC76" t="n">
+      <c r="KC76" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KD76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -67519,8 +67747,11 @@
       <c r="KB77" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KC77" t="n">
+      <c r="KC77" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KD77" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -68390,8 +68621,11 @@
       <c r="KB78" s="1" t="n">
         <v>2.32</v>
       </c>
-      <c r="KC78" t="n">
+      <c r="KC78" s="1" t="n">
         <v>2.25</v>
+      </c>
+      <c r="KD78" t="n">
+        <v>2.29</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -69261,8 +69495,11 @@
       <c r="KB79" s="1" t="n">
         <v>4.46</v>
       </c>
-      <c r="KC79" t="n">
+      <c r="KC79" s="1" t="n">
         <v>4.5</v>
+      </c>
+      <c r="KD79" t="n">
+        <v>3.25</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -70132,8 +70369,11 @@
       <c r="KB80" s="1" t="n">
         <v>39.7</v>
       </c>
-      <c r="KC80" t="n">
+      <c r="KC80" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KD80" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -71003,8 +71243,11 @@
       <c r="KB81" s="1" t="n">
         <v>22.4</v>
       </c>
-      <c r="KC81" t="n">
+      <c r="KC81" s="1" t="n">
         <v>22.2</v>
+      </c>
+      <c r="KD81" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -71874,8 +72117,11 @@
       <c r="KB82" s="1" t="n">
         <v>187.2</v>
       </c>
-      <c r="KC82" t="n">
+      <c r="KC82" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="KD82" t="n">
+        <v>189.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -72745,8 +72991,11 @@
       <c r="KB83" s="1" t="n">
         <v>86.7</v>
       </c>
-      <c r="KC83" t="n">
+      <c r="KC83" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="KD83" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -73616,8 +73865,11 @@
       <c r="KB84" s="1" t="n">
         <v>26.66</v>
       </c>
-      <c r="KC84" t="n">
+      <c r="KC84" s="1" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KD84" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -74487,8 +74739,11 @@
       <c r="KB85" s="1" t="n">
         <v>127.7</v>
       </c>
-      <c r="KC85" t="n">
+      <c r="KC85" s="1" t="n">
         <v>99.8</v>
+      </c>
+      <c r="KD85" t="n">
+        <v>99.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -75358,8 +75613,11 @@
       <c r="KB86" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KC86" t="n">
+      <c r="KC86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KD86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -76229,7 +76487,10 @@
       <c r="KB87" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KC87" t="n">
+      <c r="KC87" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD87" t="n">
         <v>3</v>
       </c>
     </row>
@@ -77100,8 +77361,11 @@
       <c r="KB88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KC88" t="n">
+      <c r="KC88" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KD88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -77971,8 +78235,11 @@
       <c r="KB89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KC89" t="n">
+      <c r="KC89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KD89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -78842,8 +79109,11 @@
       <c r="KB90" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="KC90" t="n">
+      <c r="KC90" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="KD90" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -79713,8 +79983,11 @@
       <c r="KB91" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="KC91" t="n">
+      <c r="KC91" s="1" t="n">
         <v>209</v>
+      </c>
+      <c r="KD91" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -80584,8 +80857,11 @@
       <c r="KB92" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="KC92" t="n">
+      <c r="KC92" s="1" t="n">
         <v>237</v>
+      </c>
+      <c r="KD92" t="n">
+        <v>279</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -81455,8 +81731,11 @@
       <c r="KB93" s="1" t="n">
         <v>65.2</v>
       </c>
-      <c r="KC93" t="n">
+      <c r="KC93" s="1" t="n">
         <v>71.2</v>
+      </c>
+      <c r="KD93" t="n">
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -82326,7 +82605,10 @@
       <c r="KB94" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="KC94" t="n">
+      <c r="KC94" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KD94" t="n">
         <v>47</v>
       </c>
     </row>
@@ -83197,8 +83479,11 @@
       <c r="KB95" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KC95" t="n">
+      <c r="KC95" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KD95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -84068,8 +84353,11 @@
       <c r="KB96" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KC96" t="n">
+      <c r="KC96" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KD96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -84939,8 +85227,11 @@
       <c r="KB97" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KC97" t="n">
+      <c r="KC97" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KD97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -85810,8 +86101,11 @@
       <c r="KB98" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KC98" t="n">
+      <c r="KC98" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KD98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -86681,8 +86975,11 @@
       <c r="KB99" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="KC99" t="n">
+      <c r="KC99" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KD99" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -87552,7 +87849,10 @@
       <c r="KB100" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KC100" t="n">
+      <c r="KC100" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD100" t="n">
         <v>5</v>
       </c>
     </row>
@@ -88423,8 +88723,11 @@
       <c r="KB101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KC101" t="n">
+      <c r="KC101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KD101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -89294,8 +89597,11 @@
       <c r="KB102" s="1" t="n">
         <v>61.5</v>
       </c>
-      <c r="KC102" t="n">
+      <c r="KC102" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="KD102" t="n">
+        <v>66.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KD102"/>
+  <dimension ref="A1:KE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JO99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JV100" activeCellId="0" sqref="JV100"/>
@@ -1326,8 +1326,11 @@
       <c r="KC1" s="1" t="n">
         <v>10872</v>
       </c>
-      <c r="KD1" t="n">
+      <c r="KD1" s="1" t="n">
         <v>10885</v>
+      </c>
+      <c r="KE1" t="n">
+        <v>10891</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2200,7 +2203,10 @@
       <c r="KC2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KD2" t="n">
+      <c r="KD2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KE2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3074,8 +3080,11 @@
       <c r="KC3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KD3" t="n">
+      <c r="KD3" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3948,8 +3957,11 @@
       <c r="KC4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KD4" t="n">
+      <c r="KD4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4822,7 +4834,10 @@
       <c r="KC5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KD5" t="n">
+      <c r="KD5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5696,8 +5711,11 @@
       <c r="KC6" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KD6" t="n">
+      <c r="KD6" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="KE6" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6570,8 +6588,11 @@
       <c r="KC7" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="KD7" t="n">
+      <c r="KD7" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="KE7" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7444,8 +7465,11 @@
       <c r="KC8" s="1" t="n">
         <v>-28</v>
       </c>
-      <c r="KD8" t="n">
+      <c r="KD8" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KE8" t="n">
+        <v>-21</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8318,8 +8342,11 @@
       <c r="KC9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KD9" t="n">
+      <c r="KD9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KE9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9192,8 +9219,11 @@
       <c r="KC10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KD10" t="n">
+      <c r="KD10" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KE10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10066,8 +10096,11 @@
       <c r="KC11" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="KD11" t="n">
+      <c r="KD11" s="1" t="n">
         <v>212</v>
+      </c>
+      <c r="KE11" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10940,8 +10973,11 @@
       <c r="KC12" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="KD12" t="n">
+      <c r="KD12" s="1" t="n">
         <v>159</v>
+      </c>
+      <c r="KE12" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11814,8 +11850,11 @@
       <c r="KC13" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="KD13" t="n">
+      <c r="KD13" s="1" t="n">
         <v>371</v>
+      </c>
+      <c r="KE13" t="n">
+        <v>412</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12688,8 +12727,11 @@
       <c r="KC14" s="1" t="n">
         <v>1.41</v>
       </c>
-      <c r="KD14" t="n">
+      <c r="KD14" s="1" t="n">
         <v>1.33</v>
+      </c>
+      <c r="KE14" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13562,8 +13604,11 @@
       <c r="KC15" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="KD15" t="n">
+      <c r="KD15" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="KE15" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14436,8 +14481,11 @@
       <c r="KC16" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="KD16" t="n">
+      <c r="KD16" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="KE16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15310,8 +15358,11 @@
       <c r="KC17" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KD17" t="n">
+      <c r="KD17" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KE17" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16184,8 +16235,11 @@
       <c r="KC18" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KD18" t="n">
+      <c r="KD18" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KE18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17058,8 +17112,11 @@
       <c r="KC19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KD19" t="n">
+      <c r="KD19" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KE19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17932,8 +17989,11 @@
       <c r="KC20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KD20" t="n">
+      <c r="KD20" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KE20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18806,8 +18866,11 @@
       <c r="KC21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KD21" t="n">
+      <c r="KD21" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KE21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19680,8 +19743,11 @@
       <c r="KC22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KD22" t="n">
+      <c r="KD22" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KE22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20554,8 +20620,11 @@
       <c r="KC23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KD23" t="n">
+      <c r="KD23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KE23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21428,8 +21497,11 @@
       <c r="KC24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KD24" t="n">
+      <c r="KD24" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KE24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22302,8 +22374,11 @@
       <c r="KC25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KD25" t="n">
+      <c r="KD25" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KE25" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23176,8 +23251,11 @@
       <c r="KC26" s="1" t="n">
         <v>44.5</v>
       </c>
-      <c r="KD26" t="n">
+      <c r="KD26" s="1" t="n">
         <v>30.92</v>
+      </c>
+      <c r="KE26" t="n">
+        <v>51.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24050,8 +24128,11 @@
       <c r="KC27" s="1" t="n">
         <v>22.25</v>
       </c>
-      <c r="KD27" t="n">
+      <c r="KD27" s="1" t="n">
         <v>14.84</v>
+      </c>
+      <c r="KE27" t="n">
+        <v>22.89</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24924,8 +25005,11 @@
       <c r="KC28" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KD28" t="n">
+      <c r="KD28" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KE28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25798,8 +25882,11 @@
       <c r="KC29" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KD29" t="n">
+      <c r="KD29" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KE29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26672,8 +26759,11 @@
       <c r="KC30" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KD30" t="n">
+      <c r="KD30" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KE30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27546,8 +27636,11 @@
       <c r="KC31" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KD31" t="n">
+      <c r="KD31" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KE31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28420,8 +28513,11 @@
       <c r="KC32" s="1" t="n">
         <v>2.69</v>
       </c>
-      <c r="KD32" t="n">
+      <c r="KD32" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KE32" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29294,8 +29390,11 @@
       <c r="KC33" s="1" t="n">
         <v>5.38</v>
       </c>
-      <c r="KD33" t="n">
+      <c r="KD33" s="1" t="n">
         <v>4.17</v>
+      </c>
+      <c r="KE33" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30168,8 +30267,11 @@
       <c r="KC34" s="1" t="n">
         <v>34.9</v>
       </c>
-      <c r="KD34" t="n">
+      <c r="KD34" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KE34" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31042,8 +31144,11 @@
       <c r="KC35" s="1" t="n">
         <v>18.6</v>
       </c>
-      <c r="KD35" t="n">
+      <c r="KD35" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="KE35" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -31916,8 +32021,11 @@
       <c r="KC36" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="KD36" t="n">
+      <c r="KD36" s="1" t="n">
         <v>188.4</v>
+      </c>
+      <c r="KE36" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -32790,8 +32898,11 @@
       <c r="KC37" s="1" t="n">
         <v>85.8</v>
       </c>
-      <c r="KD37" t="n">
+      <c r="KD37" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="KE37" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -33664,8 +33775,11 @@
       <c r="KC38" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="KD38" t="n">
+      <c r="KD38" s="1" t="n">
         <v>25.16</v>
+      </c>
+      <c r="KE38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -34538,8 +34652,11 @@
       <c r="KC39" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="KD39" t="n">
+      <c r="KD39" s="1" t="n">
         <v>93.90000000000001</v>
+      </c>
+      <c r="KE39" t="n">
+        <v>94.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35412,7 +35529,10 @@
       <c r="KC40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KD40" t="n">
+      <c r="KD40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -36286,8 +36406,11 @@
       <c r="KC41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KD41" t="n">
+      <c r="KD41" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KE41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -37160,8 +37283,11 @@
       <c r="KC42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KD42" t="n">
+      <c r="KD42" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KE42" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -38034,8 +38160,11 @@
       <c r="KC43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KD43" t="n">
+      <c r="KD43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KE43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -38908,8 +39037,11 @@
       <c r="KC44" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="KD44" t="n">
+      <c r="KD44" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="KE44" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -39782,8 +39914,11 @@
       <c r="KC45" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="KD45" t="n">
+      <c r="KD45" s="1" t="n">
         <v>221</v>
+      </c>
+      <c r="KE45" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -40656,8 +40791,11 @@
       <c r="KC46" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="KD46" t="n">
+      <c r="KD46" s="1" t="n">
         <v>253</v>
+      </c>
+      <c r="KE46" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -41530,8 +41668,11 @@
       <c r="KC47" s="1" t="n">
         <v>70.8</v>
       </c>
-      <c r="KD47" t="n">
+      <c r="KD47" s="1" t="n">
         <v>68.2</v>
+      </c>
+      <c r="KE47" t="n">
+        <v>75.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -42404,8 +42545,11 @@
       <c r="KC48" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KD48" t="n">
+      <c r="KD48" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KE48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -43278,8 +43422,11 @@
       <c r="KC49" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KD49" t="n">
+      <c r="KD49" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KE49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -44152,8 +44299,11 @@
       <c r="KC50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KD50" t="n">
+      <c r="KD50" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KE50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -45026,8 +45176,11 @@
       <c r="KC51" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KD51" t="n">
+      <c r="KD51" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KE51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -45900,8 +46053,11 @@
       <c r="KC52" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KD52" t="n">
+      <c r="KD52" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KE52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -46774,8 +46930,11 @@
       <c r="KC53" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KD53" t="n">
+      <c r="KD53" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KE53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -47648,7 +47807,10 @@
       <c r="KC54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KD54" t="n">
+      <c r="KD54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -48522,8 +48684,11 @@
       <c r="KC55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KD55" t="n">
+      <c r="KD55" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KE55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -49396,8 +49561,11 @@
       <c r="KC56" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="KD56" t="n">
+      <c r="KD56" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="KE56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -50270,8 +50438,11 @@
       <c r="KC57" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="KD57" t="n">
+      <c r="KD57" s="1" t="n">
         <v>218</v>
+      </c>
+      <c r="KE57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -51144,8 +51315,11 @@
       <c r="KC58" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="KD58" t="n">
+      <c r="KD58" s="1" t="n">
         <v>138</v>
+      </c>
+      <c r="KE58" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -52018,8 +52192,11 @@
       <c r="KC59" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="KD59" t="n">
+      <c r="KD59" s="1" t="n">
         <v>356</v>
+      </c>
+      <c r="KE59" t="n">
+        <v>386</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -52892,8 +53069,11 @@
       <c r="KC60" s="1" t="n">
         <v>2.23</v>
       </c>
-      <c r="KD60" t="n">
+      <c r="KD60" s="1" t="n">
         <v>1.58</v>
+      </c>
+      <c r="KE60" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -53766,8 +53946,11 @@
       <c r="KC61" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="KD61" t="n">
+      <c r="KD61" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="KE61" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -54640,8 +54823,11 @@
       <c r="KC62" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KD62" t="n">
+      <c r="KD62" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="KE62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -55514,8 +55700,11 @@
       <c r="KC63" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KD63" t="n">
+      <c r="KD63" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KE63" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -56388,8 +56577,11 @@
       <c r="KC64" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KD64" t="n">
+      <c r="KD64" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KE64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -57262,8 +57454,11 @@
       <c r="KC65" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KD65" t="n">
+      <c r="KD65" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KE65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -58136,7 +58331,10 @@
       <c r="KC66" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KD66" t="n">
+      <c r="KD66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KE66" t="n">
         <v>12</v>
       </c>
     </row>
@@ -59010,7 +59208,10 @@
       <c r="KC67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KD67" t="n">
+      <c r="KD67" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE67" t="n">
         <v>8</v>
       </c>
     </row>
@@ -59884,8 +60085,11 @@
       <c r="KC68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KD68" t="n">
+      <c r="KD68" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KE68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -60758,8 +60962,11 @@
       <c r="KC69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KD69" t="n">
+      <c r="KD69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KE69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -61632,8 +61839,11 @@
       <c r="KC70" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KD70" t="n">
+      <c r="KD70" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KE70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -62506,8 +62716,11 @@
       <c r="KC71" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KD71" t="n">
+      <c r="KD71" s="1" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="KE71" t="n">
+        <v>63.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -63380,8 +63593,11 @@
       <c r="KC72" s="1" t="n">
         <v>27.75</v>
       </c>
-      <c r="KD72" t="n">
+      <c r="KD72" s="1" t="n">
         <v>29.67</v>
+      </c>
+      <c r="KE72" t="n">
+        <v>32.17</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -64254,8 +64470,11 @@
       <c r="KC73" s="1" t="n">
         <v>13.88</v>
       </c>
-      <c r="KD73" t="n">
+      <c r="KD73" s="1" t="n">
         <v>20.94</v>
+      </c>
+      <c r="KE73" t="n">
+        <v>20.32</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -65128,8 +65347,11 @@
       <c r="KC74" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KD74" t="n">
+      <c r="KD74" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KE74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -66002,8 +66224,11 @@
       <c r="KC75" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KD75" t="n">
+      <c r="KD75" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KE75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -66876,8 +67101,11 @@
       <c r="KC76" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KD76" t="n">
+      <c r="KD76" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KE76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -67750,8 +67978,11 @@
       <c r="KC77" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KD77" t="n">
+      <c r="KD77" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KE77" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -68624,8 +68855,11 @@
       <c r="KC78" s="1" t="n">
         <v>2.25</v>
       </c>
-      <c r="KD78" t="n">
+      <c r="KD78" s="1" t="n">
         <v>2.29</v>
+      </c>
+      <c r="KE78" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -69498,8 +69732,11 @@
       <c r="KC79" s="1" t="n">
         <v>4.5</v>
       </c>
-      <c r="KD79" t="n">
+      <c r="KD79" s="1" t="n">
         <v>3.25</v>
+      </c>
+      <c r="KE79" t="n">
+        <v>3.83</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -70372,8 +70609,11 @@
       <c r="KC80" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KD80" t="n">
+      <c r="KD80" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KE80" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -71246,8 +71486,11 @@
       <c r="KC81" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="KD81" t="n">
+      <c r="KD81" s="1" t="n">
         <v>30.8</v>
+      </c>
+      <c r="KE81" t="n">
+        <v>26.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -72120,8 +72363,11 @@
       <c r="KC82" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="KD82" t="n">
+      <c r="KD82" s="1" t="n">
         <v>189.5</v>
+      </c>
+      <c r="KE82" t="n">
+        <v>187.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -72994,8 +73240,11 @@
       <c r="KC83" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="KD83" t="n">
+      <c r="KD83" s="1" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KE83" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -73868,8 +74117,11 @@
       <c r="KC84" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="KD84" t="n">
+      <c r="KD84" s="1" t="n">
         <v>24.66</v>
+      </c>
+      <c r="KE84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -74742,8 +74994,11 @@
       <c r="KC85" s="1" t="n">
         <v>99.8</v>
       </c>
-      <c r="KD85" t="n">
+      <c r="KD85" s="1" t="n">
         <v>99.5</v>
+      </c>
+      <c r="KE85" t="n">
+        <v>120.9</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -75616,8 +75871,11 @@
       <c r="KC86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KD86" t="n">
+      <c r="KD86" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KE86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -76490,8 +76748,11 @@
       <c r="KC87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KD87" t="n">
+      <c r="KD87" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KE87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -77364,7 +77625,10 @@
       <c r="KC88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KD88" t="n">
+      <c r="KD88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE88" t="n">
         <v>2</v>
       </c>
     </row>
@@ -78238,8 +78502,11 @@
       <c r="KC89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KD89" t="n">
+      <c r="KD89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KE89" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -79112,8 +79379,11 @@
       <c r="KC90" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="KD90" t="n">
+      <c r="KD90" s="1" t="n">
         <v>115</v>
+      </c>
+      <c r="KE90" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -79986,8 +80256,11 @@
       <c r="KC91" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="KD91" t="n">
+      <c r="KD91" s="1" t="n">
         <v>230</v>
+      </c>
+      <c r="KE91" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -80860,8 +81133,11 @@
       <c r="KC92" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="KD92" t="n">
+      <c r="KD92" s="1" t="n">
         <v>279</v>
+      </c>
+      <c r="KE92" t="n">
+        <v>291</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -81734,8 +82010,11 @@
       <c r="KC93" s="1" t="n">
         <v>71.2</v>
       </c>
-      <c r="KD93" t="n">
+      <c r="KD93" s="1" t="n">
         <v>78.40000000000001</v>
+      </c>
+      <c r="KE93" t="n">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -82608,8 +82887,11 @@
       <c r="KC94" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KD94" t="n">
+      <c r="KD94" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KE94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -83482,8 +83764,11 @@
       <c r="KC95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KD95" t="n">
+      <c r="KD95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KE95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -84356,8 +84641,11 @@
       <c r="KC96" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KD96" t="n">
+      <c r="KD96" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KE96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -85230,8 +85518,11 @@
       <c r="KC97" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KD97" t="n">
+      <c r="KD97" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KE97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -86104,8 +86395,11 @@
       <c r="KC98" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KD98" t="n">
+      <c r="KD98" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KE98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -86978,8 +87272,11 @@
       <c r="KC99" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KD99" t="n">
+      <c r="KD99" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KE99" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -87852,8 +88149,11 @@
       <c r="KC100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KD100" t="n">
+      <c r="KD100" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KE100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -88726,7 +89026,10 @@
       <c r="KC101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KD101" t="n">
+      <c r="KD101" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE101" t="n">
         <v>8</v>
       </c>
     </row>
@@ -89600,7 +89903,10 @@
       <c r="KC102" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="KD102" t="n">
+      <c r="KD102" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="KE102" t="n">
         <v>66.7</v>
       </c>
     </row>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KF102"/>
+  <dimension ref="A1:KG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JO99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JV100" activeCellId="0" sqref="JV100"/>
@@ -1332,8 +1332,11 @@
       <c r="KE1" s="1" t="n">
         <v>10891</v>
       </c>
-      <c r="KF1" t="n">
+      <c r="KF1" s="1" t="n">
         <v>10898</v>
+      </c>
+      <c r="KG1" t="n">
+        <v>10910</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2212,7 +2215,10 @@
       <c r="KE2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KF2" t="n">
+      <c r="KF2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KG2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3092,8 +3098,11 @@
       <c r="KE3" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KF3" t="n">
+      <c r="KF3" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3972,8 +3981,11 @@
       <c r="KE4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KF4" t="n">
+      <c r="KF4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4852,7 +4864,10 @@
       <c r="KE5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KF5" t="n">
+      <c r="KF5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5732,8 +5747,11 @@
       <c r="KE6" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KF6" t="n">
+      <c r="KF6" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KG6" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6612,8 +6630,11 @@
       <c r="KE7" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="KF7" t="n">
+      <c r="KF7" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="KG7" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7492,8 +7513,11 @@
       <c r="KE8" s="1" t="n">
         <v>-21</v>
       </c>
-      <c r="KF8" t="n">
+      <c r="KF8" s="1" t="n">
         <v>-26</v>
+      </c>
+      <c r="KG8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8372,8 +8396,11 @@
       <c r="KE9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KF9" t="n">
+      <c r="KF9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KG9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9252,8 +9279,11 @@
       <c r="KE10" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KF10" t="n">
+      <c r="KF10" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KG10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10132,8 +10162,11 @@
       <c r="KE11" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="KF11" t="n">
+      <c r="KF11" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="KG11" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11012,8 +11045,11 @@
       <c r="KE12" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="KF12" t="n">
+      <c r="KF12" s="1" t="n">
         <v>173</v>
+      </c>
+      <c r="KG12" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11892,8 +11928,11 @@
       <c r="KE13" s="1" t="n">
         <v>412</v>
       </c>
-      <c r="KF13" t="n">
+      <c r="KF13" s="1" t="n">
         <v>390</v>
+      </c>
+      <c r="KG13" t="n">
+        <v>395</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12772,8 +12811,11 @@
       <c r="KE14" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="KF14" t="n">
+      <c r="KF14" s="1" t="n">
         <v>1.25</v>
+      </c>
+      <c r="KG14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13652,8 +13694,11 @@
       <c r="KE15" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="KF15" t="n">
+      <c r="KF15" s="1" t="n">
         <v>101</v>
+      </c>
+      <c r="KG15" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14532,8 +14577,11 @@
       <c r="KE16" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="KF16" t="n">
+      <c r="KF16" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KG16" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15412,8 +15460,11 @@
       <c r="KE17" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KF17" t="n">
+      <c r="KF17" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KG17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16292,8 +16343,11 @@
       <c r="KE18" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KF18" t="n">
+      <c r="KF18" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KG18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17172,8 +17226,11 @@
       <c r="KE19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KF19" t="n">
+      <c r="KF19" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KG19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18052,8 +18109,11 @@
       <c r="KE20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KF20" t="n">
+      <c r="KF20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KG20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18932,7 +18992,10 @@
       <c r="KE21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KF21" t="n">
+      <c r="KF21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -19812,8 +19875,11 @@
       <c r="KE22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KF22" t="n">
+      <c r="KF22" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KG22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20692,8 +20758,11 @@
       <c r="KE23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KF23" t="n">
+      <c r="KF23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KG23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21572,8 +21641,11 @@
       <c r="KE24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KF24" t="n">
+      <c r="KF24" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KG24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22452,8 +22524,11 @@
       <c r="KE25" s="1" t="n">
         <v>44.4</v>
       </c>
-      <c r="KF25" t="n">
+      <c r="KF25" s="1" t="n">
         <v>72.7</v>
+      </c>
+      <c r="KG25" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23332,8 +23407,11 @@
       <c r="KE26" s="1" t="n">
         <v>51.5</v>
       </c>
-      <c r="KF26" t="n">
+      <c r="KF26" s="1" t="n">
         <v>48.75</v>
+      </c>
+      <c r="KG26" t="n">
+        <v>43.89</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24212,8 +24290,11 @@
       <c r="KE27" s="1" t="n">
         <v>22.89</v>
       </c>
-      <c r="KF27" t="n">
+      <c r="KF27" s="1" t="n">
         <v>35.45</v>
+      </c>
+      <c r="KG27" t="n">
+        <v>16.46</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25092,8 +25173,11 @@
       <c r="KE28" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KF28" t="n">
+      <c r="KF28" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KG28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25972,8 +26056,11 @@
       <c r="KE29" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KF29" t="n">
+      <c r="KF29" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="KG29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26852,8 +26939,11 @@
       <c r="KE30" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KF30" t="n">
+      <c r="KF30" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KG30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27732,8 +27822,11 @@
       <c r="KE31" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KF31" t="n">
+      <c r="KF31" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KG31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28612,8 +28705,11 @@
       <c r="KE32" s="1" t="n">
         <v>2.89</v>
       </c>
-      <c r="KF32" t="n">
+      <c r="KF32" s="1" t="n">
         <v>4.36</v>
+      </c>
+      <c r="KG32" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29492,8 +29588,11 @@
       <c r="KE33" s="1" t="n">
         <v>6.5</v>
       </c>
-      <c r="KF33" t="n">
+      <c r="KF33" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KG33" t="n">
+        <v>5.56</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30372,8 +30471,11 @@
       <c r="KE34" s="1" t="n">
         <v>32.7</v>
       </c>
-      <c r="KF34" t="n">
+      <c r="KF34" s="1" t="n">
         <v>20.8</v>
+      </c>
+      <c r="KG34" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31252,8 +31354,11 @@
       <c r="KE35" s="1" t="n">
         <v>15.4</v>
       </c>
-      <c r="KF35" t="n">
+      <c r="KF35" s="1" t="n">
         <v>16.7</v>
+      </c>
+      <c r="KG35" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32132,8 +32237,11 @@
       <c r="KE36" s="1" t="n">
         <v>188.8</v>
       </c>
-      <c r="KF36" t="n">
+      <c r="KF36" s="1" t="n">
         <v>187.5</v>
+      </c>
+      <c r="KG36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33012,8 +33120,11 @@
       <c r="KE37" s="1" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="KF37" t="n">
+      <c r="KF37" s="1" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="KG37" t="n">
+        <v>84.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -33892,8 +34003,11 @@
       <c r="KE38" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="KF38" t="n">
+      <c r="KF38" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KG38" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -34772,8 +34886,11 @@
       <c r="KE39" s="1" t="n">
         <v>94.7</v>
       </c>
-      <c r="KF39" t="n">
+      <c r="KF39" s="1" t="n">
         <v>89.40000000000001</v>
+      </c>
+      <c r="KG39" t="n">
+        <v>98.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35652,8 +35769,11 @@
       <c r="KE40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KF40" t="n">
+      <c r="KF40" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KG40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -36532,8 +36652,11 @@
       <c r="KE41" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KF41" t="n">
+      <c r="KF41" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KG41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -37412,7 +37535,10 @@
       <c r="KE42" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KF42" t="n">
+      <c r="KF42" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG42" t="n">
         <v>8</v>
       </c>
     </row>
@@ -38292,8 +38418,11 @@
       <c r="KE43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KF43" t="n">
+      <c r="KF43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KG43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -39172,8 +39301,11 @@
       <c r="KE44" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="KF44" t="n">
+      <c r="KF44" s="1" t="n">
         <v>131</v>
+      </c>
+      <c r="KG44" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40052,8 +40184,11 @@
       <c r="KE45" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="KF45" t="n">
+      <c r="KF45" s="1" t="n">
         <v>254</v>
+      </c>
+      <c r="KG45" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -40932,8 +41067,11 @@
       <c r="KE46" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="KF46" t="n">
+      <c r="KF46" s="1" t="n">
         <v>296</v>
+      </c>
+      <c r="KG46" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -41812,8 +41950,11 @@
       <c r="KE47" s="1" t="n">
         <v>75.7</v>
       </c>
-      <c r="KF47" t="n">
+      <c r="KF47" s="1" t="n">
         <v>75.90000000000001</v>
+      </c>
+      <c r="KG47" t="n">
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -42692,8 +42833,11 @@
       <c r="KE48" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KF48" t="n">
+      <c r="KF48" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="KG48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -43572,8 +43716,11 @@
       <c r="KE49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KF49" t="n">
+      <c r="KF49" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KG49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -44452,8 +44599,11 @@
       <c r="KE50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KF50" t="n">
+      <c r="KF50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KG50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -45332,8 +45482,11 @@
       <c r="KE51" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KF51" t="n">
+      <c r="KF51" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KG51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46212,8 +46365,11 @@
       <c r="KE52" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KF52" t="n">
+      <c r="KF52" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KG52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -47092,8 +47248,11 @@
       <c r="KE53" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KF53" t="n">
+      <c r="KF53" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KG53" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -47972,8 +48131,11 @@
       <c r="KE54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KF54" t="n">
+      <c r="KF54" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KG54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -48852,7 +49014,10 @@
       <c r="KE55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KF55" t="n">
+      <c r="KF55" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG55" t="n">
         <v>6</v>
       </c>
     </row>
@@ -49732,8 +49897,11 @@
       <c r="KE56" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="KF56" t="n">
+      <c r="KF56" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="KG56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -50612,8 +50780,11 @@
       <c r="KE57" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="KF57" t="n">
+      <c r="KF57" s="1" t="n">
         <v>223</v>
+      </c>
+      <c r="KG57" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -51492,8 +51663,11 @@
       <c r="KE58" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="KF58" t="n">
+      <c r="KF58" s="1" t="n">
         <v>155</v>
+      </c>
+      <c r="KG58" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -52372,8 +52546,11 @@
       <c r="KE59" s="1" t="n">
         <v>386</v>
       </c>
-      <c r="KF59" t="n">
+      <c r="KF59" s="1" t="n">
         <v>378</v>
+      </c>
+      <c r="KG59" t="n">
+        <v>318</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -53252,8 +53429,11 @@
       <c r="KE60" s="1" t="n">
         <v>1.27</v>
       </c>
-      <c r="KF60" t="n">
+      <c r="KF60" s="1" t="n">
         <v>1.44</v>
+      </c>
+      <c r="KG60" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -54132,8 +54312,11 @@
       <c r="KE61" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="KF61" t="n">
+      <c r="KF61" s="1" t="n">
         <v>101</v>
+      </c>
+      <c r="KG61" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -55012,8 +55195,11 @@
       <c r="KE62" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KF62" t="n">
+      <c r="KF62" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="KG62" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -55892,8 +56078,11 @@
       <c r="KE63" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KF63" t="n">
+      <c r="KF63" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="KG63" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -56772,8 +56961,11 @@
       <c r="KE64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KF64" t="n">
+      <c r="KF64" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KG64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -57652,8 +57844,11 @@
       <c r="KE65" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KF65" t="n">
+      <c r="KF65" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KG65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -58532,8 +58727,11 @@
       <c r="KE66" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KF66" t="n">
+      <c r="KF66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KG66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -59412,8 +59610,11 @@
       <c r="KE67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KF67" t="n">
+      <c r="KF67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KG67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -60292,8 +60493,11 @@
       <c r="KE68" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KF68" t="n">
+      <c r="KF68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KG68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -61172,8 +61376,11 @@
       <c r="KE69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KF69" t="n">
+      <c r="KF69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KG69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -62052,8 +62259,11 @@
       <c r="KE70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KF70" t="n">
+      <c r="KF70" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KG70" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -62932,8 +63142,11 @@
       <c r="KE71" s="1" t="n">
         <v>63.2</v>
       </c>
-      <c r="KF71" t="n">
+      <c r="KF71" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KG71" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -63812,8 +64025,11 @@
       <c r="KE72" s="1" t="n">
         <v>32.17</v>
       </c>
-      <c r="KF72" t="n">
+      <c r="KF72" s="1" t="n">
         <v>34.36</v>
+      </c>
+      <c r="KG72" t="n">
+        <v>35.33</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -64692,8 +64908,11 @@
       <c r="KE73" s="1" t="n">
         <v>20.32</v>
       </c>
-      <c r="KF73" t="n">
+      <c r="KF73" s="1" t="n">
         <v>17.18</v>
+      </c>
+      <c r="KG73" t="n">
+        <v>19.88</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -65572,8 +65791,11 @@
       <c r="KE74" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KF74" t="n">
+      <c r="KF74" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KG74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -66452,8 +66674,11 @@
       <c r="KE75" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KF75" t="n">
+      <c r="KF75" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KG75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -67332,8 +67557,11 @@
       <c r="KE76" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KF76" t="n">
+      <c r="KF76" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KG76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -68212,8 +68440,11 @@
       <c r="KE77" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KF77" t="n">
+      <c r="KF77" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KG77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -69092,8 +69323,11 @@
       <c r="KE78" s="1" t="n">
         <v>2.42</v>
       </c>
-      <c r="KF78" t="n">
+      <c r="KF78" s="1" t="n">
         <v>2.36</v>
+      </c>
+      <c r="KG78" t="n">
+        <v>2.81</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -69972,8 +70206,11 @@
       <c r="KE79" s="1" t="n">
         <v>3.83</v>
       </c>
-      <c r="KF79" t="n">
+      <c r="KF79" s="1" t="n">
         <v>4.73</v>
+      </c>
+      <c r="KG79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -70852,8 +71089,11 @@
       <c r="KE80" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KF80" t="n">
+      <c r="KF80" s="1" t="n">
         <v>38.5</v>
+      </c>
+      <c r="KG80" t="n">
+        <v>35.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -71732,8 +71972,11 @@
       <c r="KE81" s="1" t="n">
         <v>26.1</v>
       </c>
-      <c r="KF81" t="n">
+      <c r="KF81" s="1" t="n">
         <v>21.2</v>
+      </c>
+      <c r="KG81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -72612,8 +72855,11 @@
       <c r="KE82" s="1" t="n">
         <v>187.1</v>
       </c>
-      <c r="KF82" t="n">
+      <c r="KF82" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="KG82" t="n">
+        <v>189.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -73492,8 +73738,11 @@
       <c r="KE83" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="KF83" t="n">
+      <c r="KF83" s="1" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="KG83" t="n">
+        <v>84.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -74372,8 +74621,11 @@
       <c r="KE84" s="1" t="n">
         <v>26.24</v>
       </c>
-      <c r="KF84" t="n">
+      <c r="KF84" s="1" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KG84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -75252,8 +75504,11 @@
       <c r="KE85" s="1" t="n">
         <v>120.9</v>
       </c>
-      <c r="KF85" t="n">
+      <c r="KF85" s="1" t="n">
         <v>98.09999999999999</v>
+      </c>
+      <c r="KG85" t="n">
+        <v>92.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -76132,8 +76387,11 @@
       <c r="KE86" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KF86" t="n">
+      <c r="KF86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KG86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -77012,8 +77270,11 @@
       <c r="KE87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KF87" t="n">
+      <c r="KF87" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KG87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -77892,7 +78153,10 @@
       <c r="KE88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KF88" t="n">
+      <c r="KF88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KG88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -78772,8 +79036,11 @@
       <c r="KE89" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KF89" t="n">
+      <c r="KF89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KG89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -79652,8 +79919,11 @@
       <c r="KE90" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="KF90" t="n">
+      <c r="KF90" s="1" t="n">
         <v>153</v>
+      </c>
+      <c r="KG90" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -80532,8 +80802,11 @@
       <c r="KE91" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="KF91" t="n">
+      <c r="KF91" s="1" t="n">
         <v>233</v>
+      </c>
+      <c r="KG91" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -81412,8 +81685,11 @@
       <c r="KE92" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="KF92" t="n">
+      <c r="KF92" s="1" t="n">
         <v>289</v>
+      </c>
+      <c r="KG92" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -82292,8 +82568,11 @@
       <c r="KE93" s="1" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="KF93" t="n">
+      <c r="KF93" s="1" t="n">
         <v>76.5</v>
+      </c>
+      <c r="KG93" t="n">
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -83172,8 +83451,11 @@
       <c r="KE94" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KF94" t="n">
+      <c r="KF94" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KG94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -84052,8 +84334,11 @@
       <c r="KE95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KF95" t="n">
+      <c r="KF95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KG95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -84932,8 +85217,11 @@
       <c r="KE96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KF96" t="n">
+      <c r="KF96" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KG96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -85812,8 +86100,11 @@
       <c r="KE97" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KF97" t="n">
+      <c r="KF97" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KG97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -86692,8 +86983,11 @@
       <c r="KE98" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KF98" t="n">
+      <c r="KF98" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KG98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -87572,8 +87866,11 @@
       <c r="KE99" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KF99" t="n">
+      <c r="KF99" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KG99" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -88452,8 +88749,11 @@
       <c r="KE100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KF100" t="n">
+      <c r="KF100" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KG100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -89332,8 +89632,11 @@
       <c r="KE101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KF101" t="n">
+      <c r="KF101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KG101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -90212,8 +90515,11 @@
       <c r="KE102" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="KF102" t="n">
+      <c r="KF102" s="1" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="KG102" t="n">
+        <v>88.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KH102"/>
+  <dimension ref="A1:KI102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JO99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JV100" activeCellId="0" sqref="JV100"/>
@@ -1338,8 +1338,11 @@
       <c r="KG1" s="1" t="n">
         <v>10910</v>
       </c>
-      <c r="KH1" t="n">
+      <c r="KH1" s="1" t="n">
         <v>10917</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>10927</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2224,7 +2227,10 @@
       <c r="KG2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KH2" t="n">
+      <c r="KH2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KI2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3110,8 +3116,11 @@
       <c r="KG3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KH3" t="n">
+      <c r="KH3" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3996,8 +4005,11 @@
       <c r="KG4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KH4" t="n">
+      <c r="KH4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4882,7 +4894,10 @@
       <c r="KG5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KH5" t="n">
+      <c r="KH5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,8 +5783,11 @@
       <c r="KG6" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="KH6" t="n">
+      <c r="KH6" s="1" t="n">
         <v>122</v>
+      </c>
+      <c r="KI6" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6654,8 +6672,11 @@
       <c r="KG7" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="KH7" t="n">
+      <c r="KH7" s="1" t="n">
         <v>93</v>
+      </c>
+      <c r="KI7" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7540,8 +7561,11 @@
       <c r="KG8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KH8" t="n">
+      <c r="KH8" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="KI8" t="n">
+        <v>-19</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8426,8 +8450,11 @@
       <c r="KG9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KH9" t="n">
+      <c r="KH9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KI9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9312,8 +9339,11 @@
       <c r="KG10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KH10" t="n">
+      <c r="KH10" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KI10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10198,8 +10228,11 @@
       <c r="KG11" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="KH11" t="n">
+      <c r="KH11" s="1" t="n">
         <v>250</v>
+      </c>
+      <c r="KI11" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11084,8 +11117,11 @@
       <c r="KG12" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="KH12" t="n">
+      <c r="KH12" s="1" t="n">
         <v>144</v>
+      </c>
+      <c r="KI12" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11970,8 +12006,11 @@
       <c r="KG13" s="1" t="n">
         <v>395</v>
       </c>
-      <c r="KH13" t="n">
+      <c r="KH13" s="1" t="n">
         <v>394</v>
+      </c>
+      <c r="KI13" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12856,8 +12895,11 @@
       <c r="KG14" s="1" t="n">
         <v>1.37</v>
       </c>
-      <c r="KH14" t="n">
+      <c r="KH14" s="1" t="n">
         <v>1.74</v>
+      </c>
+      <c r="KI14" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13742,8 +13784,11 @@
       <c r="KG15" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="KH15" t="n">
+      <c r="KH15" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="KI15" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14628,8 +14673,11 @@
       <c r="KG16" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="KH16" t="n">
+      <c r="KH16" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="KI16" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15514,8 +15562,11 @@
       <c r="KG17" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KH17" t="n">
+      <c r="KH17" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KI17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16400,8 +16451,11 @@
       <c r="KG18" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KH18" t="n">
+      <c r="KH18" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KI18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17286,8 +17340,11 @@
       <c r="KG19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KH19" t="n">
+      <c r="KH19" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KI19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18172,8 +18229,11 @@
       <c r="KG20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KH20" t="n">
+      <c r="KH20" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KI20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19058,8 +19118,11 @@
       <c r="KG21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KH21" t="n">
+      <c r="KH21" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KI21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19944,7 +20007,10 @@
       <c r="KG22" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KH22" t="n">
+      <c r="KH22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI22" t="n">
         <v>5</v>
       </c>
     </row>
@@ -20830,8 +20896,11 @@
       <c r="KG23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KH23" t="n">
+      <c r="KH23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KI23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21716,8 +21785,11 @@
       <c r="KG24" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KH24" t="n">
+      <c r="KH24" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="KI24" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22602,8 +22674,11 @@
       <c r="KG25" s="1" t="n">
         <v>37.5</v>
       </c>
-      <c r="KH25" t="n">
+      <c r="KH25" s="1" t="n">
         <v>70.40000000000001</v>
+      </c>
+      <c r="KI25" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23488,8 +23563,11 @@
       <c r="KG26" s="1" t="n">
         <v>43.89</v>
       </c>
-      <c r="KH26" t="n">
+      <c r="KH26" s="1" t="n">
         <v>20.74</v>
+      </c>
+      <c r="KI26" t="n">
+        <v>47.38</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24374,8 +24452,11 @@
       <c r="KG27" s="1" t="n">
         <v>16.46</v>
       </c>
-      <c r="KH27" t="n">
+      <c r="KH27" s="1" t="n">
         <v>14.59</v>
+      </c>
+      <c r="KI27" t="n">
+        <v>27.07</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25260,8 +25341,11 @@
       <c r="KG28" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KH28" t="n">
+      <c r="KH28" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KI28" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26146,8 +26230,11 @@
       <c r="KG29" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KH29" t="n">
+      <c r="KH29" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KI29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27032,8 +27119,11 @@
       <c r="KG30" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KH30" t="n">
+      <c r="KH30" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KI30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27918,8 +28008,11 @@
       <c r="KG31" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KH31" t="n">
+      <c r="KH31" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KI31" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28804,8 +28897,11 @@
       <c r="KG32" s="1" t="n">
         <v>2.08</v>
       </c>
-      <c r="KH32" t="n">
+      <c r="KH32" s="1" t="n">
         <v>2.11</v>
+      </c>
+      <c r="KI32" t="n">
+        <v>3.14</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29690,8 +29786,11 @@
       <c r="KG33" s="1" t="n">
         <v>5.56</v>
       </c>
-      <c r="KH33" t="n">
+      <c r="KH33" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KI33" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30576,8 +30675,11 @@
       <c r="KG34" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KH34" t="n">
+      <c r="KH34" s="1" t="n">
         <v>42.1</v>
+      </c>
+      <c r="KI34" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31462,8 +31564,11 @@
       <c r="KG35" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KH35" t="n">
+      <c r="KH35" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="KI35" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32348,8 +32453,11 @@
       <c r="KG36" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="KH36" t="n">
+      <c r="KH36" s="1" t="n">
         <v>187.4</v>
+      </c>
+      <c r="KI36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33234,8 +33342,11 @@
       <c r="KG37" s="1" t="n">
         <v>84.8</v>
       </c>
-      <c r="KH37" t="n">
+      <c r="KH37" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="KI37" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -34120,8 +34231,11 @@
       <c r="KG38" s="1" t="n">
         <v>25.49</v>
       </c>
-      <c r="KH38" t="n">
+      <c r="KH38" s="1" t="n">
         <v>25.16</v>
+      </c>
+      <c r="KI38" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -35006,8 +35120,11 @@
       <c r="KG39" s="1" t="n">
         <v>98.2</v>
       </c>
-      <c r="KH39" t="n">
+      <c r="KH39" s="1" t="n">
         <v>92.5</v>
+      </c>
+      <c r="KI39" t="n">
+        <v>93.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35892,7 +36009,10 @@
       <c r="KG40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KH40" t="n">
+      <c r="KH40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KI40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -36778,8 +36898,11 @@
       <c r="KG41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KH41" t="n">
+      <c r="KH41" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KI41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -37664,8 +37787,11 @@
       <c r="KG42" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KH42" t="n">
+      <c r="KH42" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KI42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -38550,7 +38676,10 @@
       <c r="KG43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KH43" t="n">
+      <c r="KH43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KI43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39436,8 +39565,11 @@
       <c r="KG44" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="KH44" t="n">
+      <c r="KH44" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="KI44" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40322,8 +40454,11 @@
       <c r="KG45" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="KH45" t="n">
+      <c r="KH45" s="1" t="n">
         <v>258</v>
+      </c>
+      <c r="KI45" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -41208,8 +41343,11 @@
       <c r="KG46" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="KH46" t="n">
+      <c r="KH46" s="1" t="n">
         <v>305</v>
+      </c>
+      <c r="KI46" t="n">
+        <v>276</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -42094,8 +42232,11 @@
       <c r="KG47" s="1" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="KH47" t="n">
+      <c r="KH47" s="1" t="n">
         <v>77.40000000000001</v>
+      </c>
+      <c r="KI47" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -42980,8 +43121,11 @@
       <c r="KG48" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KH48" t="n">
+      <c r="KH48" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KI48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -43866,8 +44010,11 @@
       <c r="KG49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KH49" t="n">
+      <c r="KH49" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KI49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -44752,7 +44899,10 @@
       <c r="KG50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KH50" t="n">
+      <c r="KH50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KI50" t="n">
         <v>11</v>
       </c>
     </row>
@@ -45638,8 +45788,11 @@
       <c r="KG51" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KH51" t="n">
+      <c r="KH51" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KI51" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46524,8 +46677,11 @@
       <c r="KG52" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KH52" t="n">
+      <c r="KH52" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KI52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -47410,8 +47566,11 @@
       <c r="KG53" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KH53" t="n">
+      <c r="KH53" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KI53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -48296,8 +48455,11 @@
       <c r="KG54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KH54" t="n">
+      <c r="KH54" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KI54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -49182,8 +49344,11 @@
       <c r="KG55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KH55" t="n">
+      <c r="KH55" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KI55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -50068,8 +50233,11 @@
       <c r="KG56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="KH56" t="n">
+      <c r="KH56" s="1" t="n">
         <v>68.40000000000001</v>
+      </c>
+      <c r="KI56" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -50954,8 +51122,11 @@
       <c r="KG57" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="KH57" t="n">
+      <c r="KH57" s="1" t="n">
         <v>193</v>
+      </c>
+      <c r="KI57" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -51840,8 +52011,11 @@
       <c r="KG58" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="KH58" t="n">
+      <c r="KH58" s="1" t="n">
         <v>170</v>
+      </c>
+      <c r="KI58" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -52726,8 +52900,11 @@
       <c r="KG59" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="KH59" t="n">
+      <c r="KH59" s="1" t="n">
         <v>363</v>
+      </c>
+      <c r="KI59" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -53612,8 +53789,11 @@
       <c r="KG60" s="1" t="n">
         <v>1.45</v>
       </c>
-      <c r="KH60" t="n">
+      <c r="KH60" s="1" t="n">
         <v>1.14</v>
+      </c>
+      <c r="KI60" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -54498,8 +54678,11 @@
       <c r="KG61" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="KH61" t="n">
+      <c r="KH61" s="1" t="n">
         <v>98</v>
+      </c>
+      <c r="KI61" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -55384,8 +55567,11 @@
       <c r="KG62" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="KH62" t="n">
+      <c r="KH62" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KI62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -56270,8 +56456,11 @@
       <c r="KG63" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="KH63" t="n">
+      <c r="KH63" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KI63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -57156,8 +57345,11 @@
       <c r="KG64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KH64" t="n">
+      <c r="KH64" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KI64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -58042,8 +58234,11 @@
       <c r="KG65" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KH65" t="n">
+      <c r="KH65" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KI65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -58928,8 +59123,11 @@
       <c r="KG66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KH66" t="n">
+      <c r="KH66" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KI66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -59814,8 +60012,11 @@
       <c r="KG67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KH67" t="n">
+      <c r="KH67" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KI67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -60700,8 +60901,11 @@
       <c r="KG68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KH68" t="n">
+      <c r="KH68" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KI68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -61586,8 +61790,11 @@
       <c r="KG69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KH69" t="n">
+      <c r="KH69" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KI69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -62472,7 +62679,10 @@
       <c r="KG70" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KH70" t="n">
+      <c r="KH70" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="KI70" t="n">
         <v>23</v>
       </c>
     </row>
@@ -63358,8 +63568,11 @@
       <c r="KG71" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="KH71" t="n">
+      <c r="KH71" s="1" t="n">
         <v>60.9</v>
+      </c>
+      <c r="KI71" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -64244,8 +64457,11 @@
       <c r="KG72" s="1" t="n">
         <v>35.33</v>
       </c>
-      <c r="KH72" t="n">
+      <c r="KH72" s="1" t="n">
         <v>25.93</v>
+      </c>
+      <c r="KI72" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -65130,8 +65346,11 @@
       <c r="KG73" s="1" t="n">
         <v>19.88</v>
       </c>
-      <c r="KH73" t="n">
+      <c r="KH73" s="1" t="n">
         <v>15.78</v>
+      </c>
+      <c r="KI73" t="n">
+        <v>17.39</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -66016,8 +66235,11 @@
       <c r="KG74" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KH74" t="n">
+      <c r="KH74" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="KI74" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -66902,8 +67124,11 @@
       <c r="KG75" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KH75" t="n">
+      <c r="KH75" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KI75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -67788,8 +68013,11 @@
       <c r="KG76" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KH76" t="n">
+      <c r="KH76" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KI76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -68674,8 +68902,11 @@
       <c r="KG77" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KH77" t="n">
+      <c r="KH77" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KI77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -69560,8 +69791,11 @@
       <c r="KG78" s="1" t="n">
         <v>2.81</v>
       </c>
-      <c r="KH78" t="n">
+      <c r="KH78" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KI78" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -70446,8 +70680,11 @@
       <c r="KG79" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KH79" t="n">
+      <c r="KH79" s="1" t="n">
         <v>3.29</v>
+      </c>
+      <c r="KI79" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -71332,8 +71569,11 @@
       <c r="KG80" s="1" t="n">
         <v>35.6</v>
       </c>
-      <c r="KH80" t="n">
+      <c r="KH80" s="1" t="n">
         <v>39.1</v>
+      </c>
+      <c r="KI80" t="n">
+        <v>33.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -72218,8 +72458,11 @@
       <c r="KG81" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KH81" t="n">
+      <c r="KH81" s="1" t="n">
         <v>30.4</v>
+      </c>
+      <c r="KI81" t="n">
+        <v>17.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -73104,8 +73347,11 @@
       <c r="KG82" s="1" t="n">
         <v>189.4</v>
       </c>
-      <c r="KH82" t="n">
+      <c r="KH82" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="KI82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -73990,8 +74236,11 @@
       <c r="KG83" s="1" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="KH83" t="n">
+      <c r="KH83" s="1" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="KI83" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -74876,8 +75125,11 @@
       <c r="KG84" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="KH84" t="n">
+      <c r="KH84" s="1" t="n">
         <v>24.33</v>
+      </c>
+      <c r="KI84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -75762,8 +76014,11 @@
       <c r="KG85" s="1" t="n">
         <v>92.2</v>
       </c>
-      <c r="KH85" t="n">
+      <c r="KH85" s="1" t="n">
         <v>75.2</v>
+      </c>
+      <c r="KI85" t="n">
+        <v>92.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -76648,8 +76903,11 @@
       <c r="KG86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KH86" t="n">
+      <c r="KH86" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KI86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -77534,7 +77792,10 @@
       <c r="KG87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KH87" t="n">
+      <c r="KH87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -78420,8 +78681,11 @@
       <c r="KG88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KH88" t="n">
+      <c r="KH88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KI88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -79306,8 +79570,11 @@
       <c r="KG89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KH89" t="n">
+      <c r="KH89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KI89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -80192,8 +80459,11 @@
       <c r="KG90" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="KH90" t="n">
+      <c r="KH90" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="KI90" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -81078,8 +81348,11 @@
       <c r="KG91" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="KH91" t="n">
+      <c r="KH91" s="1" t="n">
         <v>247</v>
+      </c>
+      <c r="KI91" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -81964,8 +82237,11 @@
       <c r="KG92" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="KH92" t="n">
+      <c r="KH92" s="1" t="n">
         <v>281</v>
+      </c>
+      <c r="KI92" t="n">
+        <v>303</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -82850,8 +83126,11 @@
       <c r="KG93" s="1" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="KH93" t="n">
+      <c r="KH93" s="1" t="n">
         <v>77.40000000000001</v>
+      </c>
+      <c r="KI93" t="n">
+        <v>75.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -83736,8 +84015,11 @@
       <c r="KG94" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KH94" t="n">
+      <c r="KH94" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KI94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -84622,8 +84904,11 @@
       <c r="KG95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KH95" t="n">
+      <c r="KH95" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KI95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -85508,8 +85793,11 @@
       <c r="KG96" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KH96" t="n">
+      <c r="KH96" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KI96" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -86394,8 +86682,11 @@
       <c r="KG97" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KH97" t="n">
+      <c r="KH97" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="KI97" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -87280,8 +87571,11 @@
       <c r="KG98" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KH98" t="n">
+      <c r="KH98" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KI98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -88166,8 +88460,11 @@
       <c r="KG99" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KH99" t="n">
+      <c r="KH99" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="KI99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -89052,8 +89349,11 @@
       <c r="KG100" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KH100" t="n">
+      <c r="KH100" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KI100" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -89938,8 +90238,11 @@
       <c r="KG101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KH101" t="n">
+      <c r="KH101" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KI101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -90824,8 +91127,11 @@
       <c r="KG102" s="1" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="KH102" t="n">
+      <c r="KH102" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KI102" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KI102"/>
+  <dimension ref="A1:KJ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JO99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JV100" activeCellId="0" sqref="JV100"/>
@@ -1341,8 +1341,11 @@
       <c r="KH1" s="1" t="n">
         <v>10917</v>
       </c>
-      <c r="KI1" t="n">
+      <c r="KI1" s="1" t="n">
         <v>10927</v>
+      </c>
+      <c r="KJ1" t="n">
+        <v>10936</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2230,7 +2233,10 @@
       <c r="KH2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KI2" t="n">
+      <c r="KI2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KJ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3119,8 +3125,11 @@
       <c r="KH3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KI3" t="n">
+      <c r="KI3" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4008,7 +4017,10 @@
       <c r="KH4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KI4" t="n">
+      <c r="KI4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4897,8 +4909,11 @@
       <c r="KH5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KI5" t="n">
+      <c r="KI5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KJ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5786,8 +5801,11 @@
       <c r="KH6" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="KI6" t="n">
+      <c r="KI6" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KJ6" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6675,8 +6693,11 @@
       <c r="KH7" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="KI7" t="n">
+      <c r="KI7" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="KJ7" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7564,8 +7585,11 @@
       <c r="KH8" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="KI8" t="n">
+      <c r="KI8" s="1" t="n">
         <v>-19</v>
+      </c>
+      <c r="KJ8" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8453,8 +8477,11 @@
       <c r="KH9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KI9" t="n">
+      <c r="KI9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KJ9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9342,8 +9369,11 @@
       <c r="KH10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KI10" t="n">
+      <c r="KI10" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KJ10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10231,8 +10261,11 @@
       <c r="KH11" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="KI11" t="n">
+      <c r="KI11" s="1" t="n">
         <v>225</v>
+      </c>
+      <c r="KJ11" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11120,7 +11153,10 @@
       <c r="KH12" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="KI12" t="n">
+      <c r="KI12" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="KJ12" t="n">
         <v>154</v>
       </c>
     </row>
@@ -12009,8 +12045,11 @@
       <c r="KH13" s="1" t="n">
         <v>394</v>
       </c>
-      <c r="KI13" t="n">
+      <c r="KI13" s="1" t="n">
         <v>379</v>
+      </c>
+      <c r="KJ13" t="n">
+        <v>397</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12898,8 +12937,11 @@
       <c r="KH14" s="1" t="n">
         <v>1.74</v>
       </c>
-      <c r="KI14" t="n">
+      <c r="KI14" s="1" t="n">
         <v>1.46</v>
+      </c>
+      <c r="KJ14" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13787,8 +13829,11 @@
       <c r="KH15" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="KI15" t="n">
+      <c r="KI15" s="1" t="n">
         <v>103</v>
+      </c>
+      <c r="KJ15" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14676,8 +14721,11 @@
       <c r="KH16" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="KI16" t="n">
+      <c r="KI16" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="KJ16" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15565,8 +15613,11 @@
       <c r="KH17" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KI17" t="n">
+      <c r="KI17" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KJ17" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16454,8 +16505,11 @@
       <c r="KH18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KI18" t="n">
+      <c r="KI18" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KJ18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17343,7 +17397,10 @@
       <c r="KH19" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KI19" t="n">
+      <c r="KI19" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ19" t="n">
         <v>14</v>
       </c>
     </row>
@@ -18232,8 +18289,11 @@
       <c r="KH20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KI20" t="n">
+      <c r="KI20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KJ20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19121,8 +19181,11 @@
       <c r="KH21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KI21" t="n">
+      <c r="KI21" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KJ21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20010,8 +20073,11 @@
       <c r="KH22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KI22" t="n">
+      <c r="KI22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KJ22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20899,8 +20965,11 @@
       <c r="KH23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KI23" t="n">
+      <c r="KI23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KJ23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21788,8 +21857,11 @@
       <c r="KH24" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="KI24" t="n">
+      <c r="KI24" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KJ24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22677,8 +22749,11 @@
       <c r="KH25" s="1" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="KI25" t="n">
+      <c r="KI25" s="1" t="n">
         <v>57.1</v>
+      </c>
+      <c r="KJ25" t="n">
+        <v>60.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23566,8 +23641,11 @@
       <c r="KH26" s="1" t="n">
         <v>20.74</v>
       </c>
-      <c r="KI26" t="n">
+      <c r="KI26" s="1" t="n">
         <v>47.38</v>
+      </c>
+      <c r="KJ26" t="n">
+        <v>28.36</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24455,8 +24533,11 @@
       <c r="KH27" s="1" t="n">
         <v>14.59</v>
       </c>
-      <c r="KI27" t="n">
+      <c r="KI27" s="1" t="n">
         <v>27.07</v>
+      </c>
+      <c r="KJ27" t="n">
+        <v>17.26</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25344,8 +25425,11 @@
       <c r="KH28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KI28" t="n">
+      <c r="KI28" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KJ28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26233,8 +26317,11 @@
       <c r="KH29" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="KI29" t="n">
+      <c r="KI29" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="KJ29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27122,8 +27209,11 @@
       <c r="KH30" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="KI30" t="n">
+      <c r="KI30" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KJ30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -28011,8 +28101,11 @@
       <c r="KH31" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KI31" t="n">
+      <c r="KI31" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KJ31" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28900,8 +28993,11 @@
       <c r="KH32" s="1" t="n">
         <v>2.11</v>
       </c>
-      <c r="KI32" t="n">
+      <c r="KI32" s="1" t="n">
         <v>3.14</v>
+      </c>
+      <c r="KJ32" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29789,8 +29885,11 @@
       <c r="KH33" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KI33" t="n">
+      <c r="KI33" s="1" t="n">
         <v>5.5</v>
+      </c>
+      <c r="KJ33" t="n">
+        <v>4.14</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30678,8 +30777,11 @@
       <c r="KH34" s="1" t="n">
         <v>42.1</v>
       </c>
-      <c r="KI34" t="n">
+      <c r="KI34" s="1" t="n">
         <v>29.5</v>
+      </c>
+      <c r="KJ34" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31567,8 +31669,11 @@
       <c r="KH35" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="KI35" t="n">
+      <c r="KI35" s="1" t="n">
         <v>18.2</v>
+      </c>
+      <c r="KJ35" t="n">
+        <v>24.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32456,8 +32561,11 @@
       <c r="KH36" s="1" t="n">
         <v>187.4</v>
       </c>
-      <c r="KI36" t="n">
+      <c r="KI36" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KJ36" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33345,8 +33453,11 @@
       <c r="KH37" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="KI37" t="n">
+      <c r="KI37" s="1" t="n">
         <v>85.7</v>
+      </c>
+      <c r="KJ37" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -34234,8 +34345,11 @@
       <c r="KH38" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="KI38" t="n">
+      <c r="KI38" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KJ38" t="n">
+        <v>25.74</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -35123,8 +35237,11 @@
       <c r="KH39" s="1" t="n">
         <v>92.5</v>
       </c>
-      <c r="KI39" t="n">
+      <c r="KI39" s="1" t="n">
         <v>93.7</v>
+      </c>
+      <c r="KJ39" t="n">
+        <v>107.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -36012,8 +36129,11 @@
       <c r="KH40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KI40" t="n">
+      <c r="KI40" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KJ40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -36901,7 +37021,10 @@
       <c r="KH41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KI41" t="n">
+      <c r="KI41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KJ41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37790,7 +37913,10 @@
       <c r="KH42" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KI42" t="n">
+      <c r="KI42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38679,8 +38805,11 @@
       <c r="KH43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KI43" t="n">
+      <c r="KI43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KJ43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -39568,8 +39697,11 @@
       <c r="KH44" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="KI44" t="n">
+      <c r="KI44" s="1" t="n">
         <v>131</v>
+      </c>
+      <c r="KJ44" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40457,8 +40589,11 @@
       <c r="KH45" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="KI45" t="n">
+      <c r="KI45" s="1" t="n">
         <v>234</v>
+      </c>
+      <c r="KJ45" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -41346,8 +41481,11 @@
       <c r="KH46" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="KI46" t="n">
+      <c r="KI46" s="1" t="n">
         <v>276</v>
+      </c>
+      <c r="KJ46" t="n">
+        <v>308</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -42235,8 +42373,11 @@
       <c r="KH47" s="1" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="KI47" t="n">
+      <c r="KI47" s="1" t="n">
         <v>72.8</v>
+      </c>
+      <c r="KJ47" t="n">
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -43124,8 +43265,11 @@
       <c r="KH48" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="KI48" t="n">
+      <c r="KI48" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="KJ48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -44013,8 +44157,11 @@
       <c r="KH49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KI49" t="n">
+      <c r="KI49" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KJ49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -44902,8 +45049,11 @@
       <c r="KH50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KI50" t="n">
+      <c r="KI50" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KJ50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -45791,8 +45941,11 @@
       <c r="KH51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KI51" t="n">
+      <c r="KI51" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KJ51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46680,8 +46833,11 @@
       <c r="KH52" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="KI52" t="n">
+      <c r="KI52" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KJ52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -47569,8 +47725,11 @@
       <c r="KH53" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KI53" t="n">
+      <c r="KI53" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KJ53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -48458,8 +48617,11 @@
       <c r="KH54" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KI54" t="n">
+      <c r="KI54" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KJ54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -49347,8 +49509,11 @@
       <c r="KH55" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KI55" t="n">
+      <c r="KI55" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KJ55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -50236,8 +50401,11 @@
       <c r="KH56" s="1" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="KI56" t="n">
+      <c r="KI56" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="KJ56" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -51125,8 +51293,11 @@
       <c r="KH57" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="KI57" t="n">
+      <c r="KI57" s="1" t="n">
         <v>229</v>
+      </c>
+      <c r="KJ57" t="n">
+        <v>203</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -52014,8 +52185,11 @@
       <c r="KH58" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="KI58" t="n">
+      <c r="KI58" s="1" t="n">
         <v>171</v>
+      </c>
+      <c r="KJ58" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -52903,8 +53077,11 @@
       <c r="KH59" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="KI59" t="n">
+      <c r="KI59" s="1" t="n">
         <v>400</v>
+      </c>
+      <c r="KJ59" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -53792,8 +53969,11 @@
       <c r="KH60" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="KI60" t="n">
+      <c r="KI60" s="1" t="n">
         <v>1.34</v>
+      </c>
+      <c r="KJ60" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -54681,8 +54861,11 @@
       <c r="KH61" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="KI61" t="n">
+      <c r="KI61" s="1" t="n">
         <v>104</v>
+      </c>
+      <c r="KJ61" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -55570,8 +55753,11 @@
       <c r="KH62" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KI62" t="n">
+      <c r="KI62" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="KJ62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -56459,8 +56645,11 @@
       <c r="KH63" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KI63" t="n">
+      <c r="KI63" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KJ63" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -57348,7 +57537,10 @@
       <c r="KH64" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KI64" t="n">
+      <c r="KI64" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ64" t="n">
         <v>14</v>
       </c>
     </row>
@@ -58237,8 +58429,11 @@
       <c r="KH65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KI65" t="n">
+      <c r="KI65" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KJ65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -59126,8 +59321,11 @@
       <c r="KH66" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KI66" t="n">
+      <c r="KI66" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KJ66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -60015,8 +60213,11 @@
       <c r="KH67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KI67" t="n">
+      <c r="KI67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KJ67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -60904,7 +61105,10 @@
       <c r="KH68" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KI68" t="n">
+      <c r="KI68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KJ68" t="n">
         <v>9</v>
       </c>
     </row>
@@ -61793,8 +61997,11 @@
       <c r="KH69" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KI69" t="n">
+      <c r="KI69" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KJ69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -62682,8 +62889,11 @@
       <c r="KH70" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="KI70" t="n">
+      <c r="KI70" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="KJ70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -63571,8 +63781,11 @@
       <c r="KH71" s="1" t="n">
         <v>60.9</v>
       </c>
-      <c r="KI71" t="n">
+      <c r="KI71" s="1" t="n">
         <v>43.5</v>
+      </c>
+      <c r="KJ71" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -64460,8 +64673,11 @@
       <c r="KH72" s="1" t="n">
         <v>25.93</v>
       </c>
-      <c r="KI72" t="n">
+      <c r="KI72" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KJ72" t="n">
+        <v>44.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -65349,8 +65565,11 @@
       <c r="KH73" s="1" t="n">
         <v>15.78</v>
       </c>
-      <c r="KI73" t="n">
+      <c r="KI73" s="1" t="n">
         <v>17.39</v>
+      </c>
+      <c r="KJ73" t="n">
+        <v>20.94</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -66238,8 +66457,11 @@
       <c r="KH74" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="KI74" t="n">
+      <c r="KI74" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KJ74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -67127,7 +67349,10 @@
       <c r="KH75" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KI75" t="n">
+      <c r="KI75" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="KJ75" t="n">
         <v>56</v>
       </c>
     </row>
@@ -68016,8 +68241,11 @@
       <c r="KH76" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KI76" t="n">
+      <c r="KI76" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KJ76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -68905,8 +69133,11 @@
       <c r="KH77" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KI77" t="n">
+      <c r="KI77" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="KJ77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -69794,8 +70025,11 @@
       <c r="KH78" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KI78" t="n">
+      <c r="KI78" s="1" t="n">
         <v>2.43</v>
+      </c>
+      <c r="KJ78" t="n">
+        <v>2.82</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -70683,8 +70917,11 @@
       <c r="KH79" s="1" t="n">
         <v>3.29</v>
       </c>
-      <c r="KI79" t="n">
+      <c r="KI79" s="1" t="n">
         <v>5.6</v>
+      </c>
+      <c r="KJ79" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -71572,8 +71809,11 @@
       <c r="KH80" s="1" t="n">
         <v>39.1</v>
       </c>
-      <c r="KI80" t="n">
+      <c r="KI80" s="1" t="n">
         <v>33.9</v>
+      </c>
+      <c r="KJ80" t="n">
+        <v>35.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -72461,8 +72701,11 @@
       <c r="KH81" s="1" t="n">
         <v>30.4</v>
       </c>
-      <c r="KI81" t="n">
+      <c r="KI81" s="1" t="n">
         <v>17.9</v>
+      </c>
+      <c r="KJ81" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -73350,8 +73593,11 @@
       <c r="KH82" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="KI82" t="n">
+      <c r="KI82" s="1" t="n">
         <v>187.3</v>
+      </c>
+      <c r="KJ82" t="n">
+        <v>186.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -74239,7 +74485,10 @@
       <c r="KH83" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KI83" t="n">
+      <c r="KI83" s="1" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="KJ83" t="n">
         <v>85.90000000000001</v>
       </c>
     </row>
@@ -75128,8 +75377,11 @@
       <c r="KH84" s="1" t="n">
         <v>24.33</v>
       </c>
-      <c r="KI84" t="n">
+      <c r="KI84" s="1" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KJ84" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -76017,8 +76269,11 @@
       <c r="KH85" s="1" t="n">
         <v>75.2</v>
       </c>
-      <c r="KI85" t="n">
+      <c r="KI85" s="1" t="n">
         <v>92.3</v>
+      </c>
+      <c r="KJ85" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -76906,8 +77161,11 @@
       <c r="KH86" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KI86" t="n">
+      <c r="KI86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KJ86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -77795,8 +78053,11 @@
       <c r="KH87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KI87" t="n">
+      <c r="KI87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KJ87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -78684,8 +78945,11 @@
       <c r="KH88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KI88" t="n">
+      <c r="KI88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KJ88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -79573,8 +79837,11 @@
       <c r="KH89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KI89" t="n">
+      <c r="KI89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KJ89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -80462,8 +80729,11 @@
       <c r="KH90" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="KI90" t="n">
+      <c r="KI90" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="KJ90" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -81351,8 +81621,11 @@
       <c r="KH91" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="KI91" t="n">
+      <c r="KI91" s="1" t="n">
         <v>259</v>
+      </c>
+      <c r="KJ91" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -82240,8 +82513,11 @@
       <c r="KH92" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="KI92" t="n">
+      <c r="KI92" s="1" t="n">
         <v>303</v>
+      </c>
+      <c r="KJ92" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -83129,8 +83405,11 @@
       <c r="KH93" s="1" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="KI93" t="n">
+      <c r="KI93" s="1" t="n">
         <v>75.8</v>
+      </c>
+      <c r="KJ93" t="n">
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -84018,7 +84297,10 @@
       <c r="KH94" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KI94" t="n">
+      <c r="KI94" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="KJ94" t="n">
         <v>56</v>
       </c>
     </row>
@@ -84907,8 +85189,11 @@
       <c r="KH95" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KI95" t="n">
+      <c r="KI95" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KJ95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -85796,8 +86081,11 @@
       <c r="KH96" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KI96" t="n">
+      <c r="KI96" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KJ96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -86685,8 +86973,11 @@
       <c r="KH97" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="KI97" t="n">
+      <c r="KI97" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KJ97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -87574,8 +87865,11 @@
       <c r="KH98" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KI98" t="n">
+      <c r="KI98" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KJ98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -88463,8 +88757,11 @@
       <c r="KH99" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KI99" t="n">
+      <c r="KI99" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KJ99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -89352,8 +89649,11 @@
       <c r="KH100" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KI100" t="n">
+      <c r="KI100" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KJ100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -90241,8 +90541,11 @@
       <c r="KH101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KI101" t="n">
+      <c r="KI101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KJ101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -91130,8 +91433,11 @@
       <c r="KH102" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KI102" t="n">
+      <c r="KI102" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="KJ102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KJ102"/>
+  <dimension ref="A1:KK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JO99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JV100" activeCellId="0" sqref="JV100"/>
@@ -1344,8 +1344,11 @@
       <c r="KI1" s="1" t="n">
         <v>10927</v>
       </c>
-      <c r="KJ1" t="n">
+      <c r="KJ1" s="1" t="n">
         <v>10936</v>
+      </c>
+      <c r="KK1" t="n">
+        <v>10945</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2236,7 +2239,10 @@
       <c r="KI2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KJ2" t="n">
+      <c r="KJ2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KK2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3128,8 +3134,11 @@
       <c r="KI3" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KJ3" t="n">
+      <c r="KJ3" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4020,7 +4029,10 @@
       <c r="KI4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KJ4" t="n">
+      <c r="KJ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4912,7 +4924,10 @@
       <c r="KI5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KJ5" t="n">
+      <c r="KJ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5804,8 +5819,11 @@
       <c r="KI6" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KJ6" t="n">
+      <c r="KJ6" s="1" t="n">
         <v>93</v>
+      </c>
+      <c r="KK6" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6696,8 +6714,11 @@
       <c r="KI7" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="KJ7" t="n">
+      <c r="KJ7" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KK7" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7588,8 +7609,11 @@
       <c r="KI8" s="1" t="n">
         <v>-19</v>
       </c>
-      <c r="KJ8" t="n">
+      <c r="KJ8" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KK8" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8480,7 +8504,10 @@
       <c r="KI9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KJ9" t="n">
+      <c r="KJ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9372,8 +9399,11 @@
       <c r="KI10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KJ10" t="n">
+      <c r="KJ10" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KK10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10264,8 +10294,11 @@
       <c r="KI11" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="KJ11" t="n">
+      <c r="KJ11" s="1" t="n">
         <v>243</v>
+      </c>
+      <c r="KK11" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11156,8 +11189,11 @@
       <c r="KI12" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="KJ12" t="n">
+      <c r="KJ12" s="1" t="n">
         <v>154</v>
+      </c>
+      <c r="KK12" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12048,8 +12084,11 @@
       <c r="KI13" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="KJ13" t="n">
+      <c r="KJ13" s="1" t="n">
         <v>397</v>
+      </c>
+      <c r="KK13" t="n">
+        <v>429</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12940,8 +12979,11 @@
       <c r="KI14" s="1" t="n">
         <v>1.46</v>
       </c>
-      <c r="KJ14" t="n">
+      <c r="KJ14" s="1" t="n">
         <v>1.58</v>
+      </c>
+      <c r="KK14" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13832,8 +13874,11 @@
       <c r="KI15" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="KJ15" t="n">
+      <c r="KJ15" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="KK15" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14724,8 +14769,11 @@
       <c r="KI16" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="KJ16" t="n">
+      <c r="KJ16" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="KK16" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15616,8 +15664,11 @@
       <c r="KI17" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="KJ17" t="n">
+      <c r="KJ17" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KK17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16508,8 +16559,11 @@
       <c r="KI18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KJ18" t="n">
+      <c r="KJ18" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="KK18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17400,8 +17454,11 @@
       <c r="KI19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KJ19" t="n">
+      <c r="KJ19" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KK19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18292,8 +18349,11 @@
       <c r="KI20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KJ20" t="n">
+      <c r="KJ20" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KK20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19184,8 +19244,11 @@
       <c r="KI21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KJ21" t="n">
+      <c r="KJ21" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KK21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20076,8 +20139,11 @@
       <c r="KI22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KJ22" t="n">
+      <c r="KJ22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KK22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20968,8 +21034,11 @@
       <c r="KI23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KJ23" t="n">
+      <c r="KJ23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KK23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21860,8 +21929,11 @@
       <c r="KI24" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KJ24" t="n">
+      <c r="KJ24" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="KK24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22752,8 +22824,11 @@
       <c r="KI25" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="KJ25" t="n">
+      <c r="KJ25" s="1" t="n">
         <v>60.9</v>
+      </c>
+      <c r="KK25" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23644,8 +23719,11 @@
       <c r="KI26" s="1" t="n">
         <v>47.38</v>
       </c>
-      <c r="KJ26" t="n">
+      <c r="KJ26" s="1" t="n">
         <v>28.36</v>
+      </c>
+      <c r="KK26" t="n">
+        <v>35.75</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24536,8 +24614,11 @@
       <c r="KI27" s="1" t="n">
         <v>27.07</v>
       </c>
-      <c r="KJ27" t="n">
+      <c r="KJ27" s="1" t="n">
         <v>17.26</v>
+      </c>
+      <c r="KK27" t="n">
+        <v>15.32</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25428,8 +25509,11 @@
       <c r="KI28" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KJ28" t="n">
+      <c r="KJ28" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KK28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26320,8 +26404,11 @@
       <c r="KI29" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="KJ29" t="n">
+      <c r="KJ29" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KK29" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27212,8 +27299,11 @@
       <c r="KI30" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KJ30" t="n">
+      <c r="KJ30" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KK30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -28104,8 +28194,11 @@
       <c r="KI31" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KJ31" t="n">
+      <c r="KJ31" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KK31" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28996,8 +29089,11 @@
       <c r="KI32" s="1" t="n">
         <v>3.14</v>
       </c>
-      <c r="KJ32" t="n">
+      <c r="KJ32" s="1" t="n">
         <v>2.52</v>
+      </c>
+      <c r="KK32" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29888,8 +29984,11 @@
       <c r="KI33" s="1" t="n">
         <v>5.5</v>
       </c>
-      <c r="KJ33" t="n">
+      <c r="KJ33" s="1" t="n">
         <v>4.14</v>
+      </c>
+      <c r="KK33" t="n">
+        <v>4.92</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30780,8 +30879,11 @@
       <c r="KI34" s="1" t="n">
         <v>29.5</v>
       </c>
-      <c r="KJ34" t="n">
+      <c r="KJ34" s="1" t="n">
         <v>36.2</v>
+      </c>
+      <c r="KK34" t="n">
+        <v>42.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31672,8 +31774,11 @@
       <c r="KI35" s="1" t="n">
         <v>18.2</v>
       </c>
-      <c r="KJ35" t="n">
+      <c r="KJ35" s="1" t="n">
         <v>24.1</v>
+      </c>
+      <c r="KK35" t="n">
+        <v>20.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32564,7 +32669,10 @@
       <c r="KI36" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="KJ36" t="n">
+      <c r="KJ36" s="1" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="KK36" t="n">
         <v>188.1</v>
       </c>
     </row>
@@ -33456,7 +33564,10 @@
       <c r="KI37" s="1" t="n">
         <v>85.7</v>
       </c>
-      <c r="KJ37" t="n">
+      <c r="KJ37" s="1" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="KK37" t="n">
         <v>86.09999999999999</v>
       </c>
     </row>
@@ -34348,8 +34459,11 @@
       <c r="KI38" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KJ38" t="n">
+      <c r="KJ38" s="1" t="n">
         <v>25.74</v>
+      </c>
+      <c r="KK38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -35240,8 +35354,11 @@
       <c r="KI39" s="1" t="n">
         <v>93.7</v>
       </c>
-      <c r="KJ39" t="n">
+      <c r="KJ39" s="1" t="n">
         <v>107.2</v>
+      </c>
+      <c r="KK39" t="n">
+        <v>108.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -36132,7 +36249,10 @@
       <c r="KI40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KJ40" t="n">
+      <c r="KJ40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -37024,8 +37144,11 @@
       <c r="KI41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KJ41" t="n">
+      <c r="KJ41" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KK41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -37916,8 +38039,11 @@
       <c r="KI42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KJ42" t="n">
+      <c r="KJ42" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KK42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -38808,7 +38934,10 @@
       <c r="KI43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KJ43" t="n">
+      <c r="KJ43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -39700,8 +39829,11 @@
       <c r="KI44" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="KJ44" t="n">
+      <c r="KJ44" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="KK44" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40592,8 +40724,11 @@
       <c r="KI45" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="KJ45" t="n">
+      <c r="KJ45" s="1" t="n">
         <v>280</v>
+      </c>
+      <c r="KK45" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -41484,8 +41619,11 @@
       <c r="KI46" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="KJ46" t="n">
+      <c r="KJ46" s="1" t="n">
         <v>308</v>
+      </c>
+      <c r="KK46" t="n">
+        <v>311</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -42376,8 +42514,11 @@
       <c r="KI47" s="1" t="n">
         <v>72.8</v>
       </c>
-      <c r="KJ47" t="n">
+      <c r="KJ47" s="1" t="n">
         <v>77.59999999999999</v>
+      </c>
+      <c r="KK47" t="n">
+        <v>72.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -43268,8 +43409,11 @@
       <c r="KI48" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="KJ48" t="n">
+      <c r="KJ48" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KK48" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -44160,8 +44304,11 @@
       <c r="KI49" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KJ49" t="n">
+      <c r="KJ49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KK49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -45052,8 +45199,11 @@
       <c r="KI50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KJ50" t="n">
+      <c r="KJ50" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KK50" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -45944,8 +46094,11 @@
       <c r="KI51" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KJ51" t="n">
+      <c r="KJ51" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KK51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46836,8 +46989,11 @@
       <c r="KI52" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KJ52" t="n">
+      <c r="KJ52" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KK52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -47728,8 +47884,11 @@
       <c r="KI53" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KJ53" t="n">
+      <c r="KJ53" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KK53" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -48620,8 +48779,11 @@
       <c r="KI54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KJ54" t="n">
+      <c r="KJ54" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KK54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -49512,8 +49674,11 @@
       <c r="KI55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KJ55" t="n">
+      <c r="KJ55" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KK55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -50404,8 +50569,11 @@
       <c r="KI56" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="KJ56" t="n">
+      <c r="KJ56" s="1" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="KK56" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -51296,8 +51464,11 @@
       <c r="KI57" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="KJ57" t="n">
+      <c r="KJ57" s="1" t="n">
         <v>203</v>
+      </c>
+      <c r="KK57" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -52188,8 +52359,11 @@
       <c r="KI58" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="KJ58" t="n">
+      <c r="KJ58" s="1" t="n">
         <v>153</v>
+      </c>
+      <c r="KK58" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -53080,8 +53254,11 @@
       <c r="KI59" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="KJ59" t="n">
+      <c r="KJ59" s="1" t="n">
         <v>356</v>
+      </c>
+      <c r="KK59" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -53972,8 +54149,11 @@
       <c r="KI60" s="1" t="n">
         <v>1.34</v>
       </c>
-      <c r="KJ60" t="n">
+      <c r="KJ60" s="1" t="n">
         <v>1.33</v>
+      </c>
+      <c r="KK60" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -54864,8 +55044,11 @@
       <c r="KI61" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="KJ61" t="n">
+      <c r="KJ61" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="KK61" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -55756,8 +55939,11 @@
       <c r="KI62" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="KJ62" t="n">
+      <c r="KJ62" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="KK62" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -56648,8 +56834,11 @@
       <c r="KI63" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KJ63" t="n">
+      <c r="KJ63" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KK63" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -57540,8 +57729,11 @@
       <c r="KI64" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KJ64" t="n">
+      <c r="KJ64" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KK64" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -58432,8 +58624,11 @@
       <c r="KI65" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KJ65" t="n">
+      <c r="KJ65" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="KK65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -59324,7 +59519,10 @@
       <c r="KI66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KJ66" t="n">
+      <c r="KJ66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KK66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -60216,7 +60414,10 @@
       <c r="KI67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KJ67" t="n">
+      <c r="KJ67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -61108,8 +61309,11 @@
       <c r="KI68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KJ68" t="n">
+      <c r="KJ68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KK68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -62000,7 +62204,10 @@
       <c r="KI69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KJ69" t="n">
+      <c r="KJ69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -62892,8 +63099,11 @@
       <c r="KI70" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="KJ70" t="n">
+      <c r="KJ70" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KK70" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -63784,8 +63994,11 @@
       <c r="KI71" s="1" t="n">
         <v>43.5</v>
       </c>
-      <c r="KJ71" t="n">
+      <c r="KJ71" s="1" t="n">
         <v>47.1</v>
+      </c>
+      <c r="KK71" t="n">
+        <v>53.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -64676,8 +64889,11 @@
       <c r="KI72" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KJ72" t="n">
+      <c r="KJ72" s="1" t="n">
         <v>44.5</v>
+      </c>
+      <c r="KK72" t="n">
+        <v>43.88</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -65568,8 +65784,11 @@
       <c r="KI73" s="1" t="n">
         <v>17.39</v>
       </c>
-      <c r="KJ73" t="n">
+      <c r="KJ73" s="1" t="n">
         <v>20.94</v>
+      </c>
+      <c r="KK73" t="n">
+        <v>23.4</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -66460,8 +66679,11 @@
       <c r="KI74" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KJ74" t="n">
+      <c r="KJ74" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="KK74" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -67352,8 +67574,11 @@
       <c r="KI75" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KJ75" t="n">
+      <c r="KJ75" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="KK75" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -68244,8 +68469,11 @@
       <c r="KI76" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KJ76" t="n">
+      <c r="KJ76" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KK76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -69136,8 +69364,11 @@
       <c r="KI77" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KJ77" t="n">
+      <c r="KJ77" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KK77" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -70028,8 +70259,11 @@
       <c r="KI78" s="1" t="n">
         <v>2.43</v>
       </c>
-      <c r="KJ78" t="n">
+      <c r="KJ78" s="1" t="n">
         <v>2.82</v>
+      </c>
+      <c r="KK78" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -70920,8 +71154,11 @@
       <c r="KI79" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="KJ79" t="n">
+      <c r="KJ79" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KK79" t="n">
+        <v>5.12</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -71812,8 +72049,11 @@
       <c r="KI80" s="1" t="n">
         <v>33.9</v>
       </c>
-      <c r="KJ80" t="n">
+      <c r="KJ80" s="1" t="n">
         <v>35.4</v>
+      </c>
+      <c r="KK80" t="n">
+        <v>36.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -72704,8 +72944,11 @@
       <c r="KI81" s="1" t="n">
         <v>17.9</v>
       </c>
-      <c r="KJ81" t="n">
+      <c r="KJ81" s="1" t="n">
         <v>16.7</v>
+      </c>
+      <c r="KK81" t="n">
+        <v>19.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -73596,8 +73839,11 @@
       <c r="KI82" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="KJ82" t="n">
+      <c r="KJ82" s="1" t="n">
         <v>186.4</v>
+      </c>
+      <c r="KK82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -74488,8 +74734,11 @@
       <c r="KI83" s="1" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="KJ83" t="n">
+      <c r="KJ83" s="1" t="n">
         <v>85.90000000000001</v>
+      </c>
+      <c r="KK83" t="n">
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -75380,8 +75629,11 @@
       <c r="KI84" s="1" t="n">
         <v>26.24</v>
       </c>
-      <c r="KJ84" t="n">
+      <c r="KJ84" s="1" t="n">
         <v>27.8</v>
+      </c>
+      <c r="KK84" t="n">
+        <v>27.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -76272,8 +76524,11 @@
       <c r="KI85" s="1" t="n">
         <v>92.3</v>
       </c>
-      <c r="KJ85" t="n">
+      <c r="KJ85" s="1" t="n">
         <v>123</v>
+      </c>
+      <c r="KK85" t="n">
+        <v>139.9</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -77164,8 +77419,11 @@
       <c r="KI86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KJ86" t="n">
+      <c r="KJ86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KK86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -78056,8 +78314,11 @@
       <c r="KI87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KJ87" t="n">
+      <c r="KJ87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KK87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -78948,8 +79209,11 @@
       <c r="KI88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KJ88" t="n">
+      <c r="KJ88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KK88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -79840,7 +80104,10 @@
       <c r="KI89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KJ89" t="n">
+      <c r="KJ89" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KK89" t="n">
         <v>8</v>
       </c>
     </row>
@@ -80732,8 +80999,11 @@
       <c r="KI90" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="KJ90" t="n">
+      <c r="KJ90" s="1" t="n">
         <v>118</v>
+      </c>
+      <c r="KK90" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -81624,8 +81894,11 @@
       <c r="KI91" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="KJ91" t="n">
+      <c r="KJ91" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="KK91" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -82516,8 +82789,11 @@
       <c r="KI92" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="KJ92" t="n">
+      <c r="KJ92" s="1" t="n">
         <v>256</v>
+      </c>
+      <c r="KK92" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -83408,8 +83684,11 @@
       <c r="KI93" s="1" t="n">
         <v>75.8</v>
       </c>
-      <c r="KJ93" t="n">
+      <c r="KJ93" s="1" t="n">
         <v>71.90000000000001</v>
+      </c>
+      <c r="KK93" t="n">
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -84300,8 +84579,11 @@
       <c r="KI94" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KJ94" t="n">
+      <c r="KJ94" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="KK94" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -85192,8 +85474,11 @@
       <c r="KI95" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KJ95" t="n">
+      <c r="KJ95" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KK95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -86084,8 +86369,11 @@
       <c r="KI96" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KJ96" t="n">
+      <c r="KJ96" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KK96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -86976,8 +87264,11 @@
       <c r="KI97" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KJ97" t="n">
+      <c r="KJ97" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="KK97" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -87868,8 +88159,11 @@
       <c r="KI98" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KJ98" t="n">
+      <c r="KJ98" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KK98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -88760,8 +89054,11 @@
       <c r="KI99" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KJ99" t="n">
+      <c r="KJ99" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KK99" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -89652,8 +89949,11 @@
       <c r="KI100" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KJ100" t="n">
+      <c r="KJ100" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KK100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -90544,7 +90844,10 @@
       <c r="KI101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KJ101" t="n">
+      <c r="KJ101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -91436,7 +91739,10 @@
       <c r="KI102" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="KJ102" t="n">
+      <c r="KJ102" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="KK102" t="n">
         <v>75</v>
       </c>
     </row>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KK102"/>
+  <dimension ref="A1:KL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JO99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JV100" activeCellId="0" sqref="JV100"/>
@@ -1347,8 +1347,11 @@
       <c r="KJ1" s="1" t="n">
         <v>10936</v>
       </c>
-      <c r="KK1" t="n">
+      <c r="KK1" s="1" t="n">
         <v>10945</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>10949</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2242,7 +2245,10 @@
       <c r="KJ2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KK2" t="n">
+      <c r="KK2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KL2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3137,8 +3143,11 @@
       <c r="KJ3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KK3" t="n">
+      <c r="KK3" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4032,8 +4041,11 @@
       <c r="KJ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KK4" t="n">
+      <c r="KK4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4927,7 +4939,10 @@
       <c r="KJ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KK5" t="n">
+      <c r="KK5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5822,8 +5837,11 @@
       <c r="KJ6" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="KK6" t="n">
+      <c r="KK6" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="KL6" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6717,8 +6735,11 @@
       <c r="KJ7" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="KK7" t="n">
+      <c r="KK7" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KL7" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7612,8 +7633,11 @@
       <c r="KJ8" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KK8" t="n">
+      <c r="KK8" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KL8" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8507,8 +8531,11 @@
       <c r="KJ9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KK9" t="n">
+      <c r="KK9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KL9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9402,8 +9429,11 @@
       <c r="KJ10" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KK10" t="n">
+      <c r="KK10" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KL10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10297,8 +10327,11 @@
       <c r="KJ11" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="KK11" t="n">
+      <c r="KK11" s="1" t="n">
         <v>268</v>
+      </c>
+      <c r="KL11" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11192,8 +11225,11 @@
       <c r="KJ12" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="KK12" t="n">
+      <c r="KK12" s="1" t="n">
         <v>161</v>
+      </c>
+      <c r="KL12" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12087,8 +12123,11 @@
       <c r="KJ13" s="1" t="n">
         <v>397</v>
       </c>
-      <c r="KK13" t="n">
+      <c r="KK13" s="1" t="n">
         <v>429</v>
+      </c>
+      <c r="KL13" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12982,8 +13021,11 @@
       <c r="KJ14" s="1" t="n">
         <v>1.58</v>
       </c>
-      <c r="KK14" t="n">
+      <c r="KK14" s="1" t="n">
         <v>1.66</v>
+      </c>
+      <c r="KL14" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13877,8 +13919,11 @@
       <c r="KJ15" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="KK15" t="n">
+      <c r="KK15" s="1" t="n">
         <v>151</v>
+      </c>
+      <c r="KL15" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14772,8 +14817,11 @@
       <c r="KJ16" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="KK16" t="n">
+      <c r="KK16" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="KL16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15667,8 +15715,11 @@
       <c r="KJ17" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KK17" t="n">
+      <c r="KK17" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KL17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16562,8 +16613,11 @@
       <c r="KJ18" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="KK18" t="n">
+      <c r="KK18" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KL18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17457,8 +17511,11 @@
       <c r="KJ19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KK19" t="n">
+      <c r="KK19" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KL19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18352,8 +18409,11 @@
       <c r="KJ20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KK20" t="n">
+      <c r="KK20" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KL20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19247,8 +19307,11 @@
       <c r="KJ21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KK21" t="n">
+      <c r="KK21" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KL21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20142,8 +20205,11 @@
       <c r="KJ22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KK22" t="n">
+      <c r="KK22" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KL22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21037,8 +21103,11 @@
       <c r="KJ23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KK23" t="n">
+      <c r="KK23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KL23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21932,8 +22001,11 @@
       <c r="KJ24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="KK24" t="n">
+      <c r="KK24" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="KL24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22827,8 +22899,11 @@
       <c r="KJ25" s="1" t="n">
         <v>60.9</v>
       </c>
-      <c r="KK25" t="n">
+      <c r="KK25" s="1" t="n">
         <v>42.9</v>
+      </c>
+      <c r="KL25" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23722,8 +23797,11 @@
       <c r="KJ26" s="1" t="n">
         <v>28.36</v>
       </c>
-      <c r="KK26" t="n">
+      <c r="KK26" s="1" t="n">
         <v>35.75</v>
+      </c>
+      <c r="KL26" t="n">
+        <v>40.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24617,8 +24695,11 @@
       <c r="KJ27" s="1" t="n">
         <v>17.26</v>
       </c>
-      <c r="KK27" t="n">
+      <c r="KK27" s="1" t="n">
         <v>15.32</v>
+      </c>
+      <c r="KL27" t="n">
+        <v>24.2</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25512,8 +25593,11 @@
       <c r="KJ28" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KK28" t="n">
+      <c r="KK28" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KL28" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26407,8 +26491,11 @@
       <c r="KJ29" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KK29" t="n">
+      <c r="KK29" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KL29" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27302,8 +27389,11 @@
       <c r="KJ30" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KK30" t="n">
+      <c r="KK30" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="KL30" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -28197,8 +28287,11 @@
       <c r="KJ31" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KK31" t="n">
+      <c r="KK31" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KL31" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -29092,8 +29185,11 @@
       <c r="KJ32" s="1" t="n">
         <v>2.52</v>
       </c>
-      <c r="KK32" t="n">
+      <c r="KK32" s="1" t="n">
         <v>2.11</v>
+      </c>
+      <c r="KL32" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29987,8 +30083,11 @@
       <c r="KJ33" s="1" t="n">
         <v>4.14</v>
       </c>
-      <c r="KK33" t="n">
+      <c r="KK33" s="1" t="n">
         <v>4.92</v>
+      </c>
+      <c r="KL33" t="n">
+        <v>4.22</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30882,8 +30981,11 @@
       <c r="KJ34" s="1" t="n">
         <v>36.2</v>
       </c>
-      <c r="KK34" t="n">
+      <c r="KK34" s="1" t="n">
         <v>42.4</v>
+      </c>
+      <c r="KL34" t="n">
+        <v>34.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31777,8 +31879,11 @@
       <c r="KJ35" s="1" t="n">
         <v>24.1</v>
       </c>
-      <c r="KK35" t="n">
+      <c r="KK35" s="1" t="n">
         <v>20.3</v>
+      </c>
+      <c r="KL35" t="n">
+        <v>23.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32672,8 +32777,11 @@
       <c r="KJ36" s="1" t="n">
         <v>188.1</v>
       </c>
-      <c r="KK36" t="n">
+      <c r="KK36" s="1" t="n">
         <v>188.1</v>
+      </c>
+      <c r="KL36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33567,8 +33675,11 @@
       <c r="KJ37" s="1" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="KK37" t="n">
+      <c r="KK37" s="1" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="KL37" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -34462,8 +34573,11 @@
       <c r="KJ38" s="1" t="n">
         <v>25.74</v>
       </c>
-      <c r="KK38" t="n">
+      <c r="KK38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KL38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -35357,8 +35471,11 @@
       <c r="KJ39" s="1" t="n">
         <v>107.2</v>
       </c>
-      <c r="KK39" t="n">
+      <c r="KK39" s="1" t="n">
         <v>108.2</v>
+      </c>
+      <c r="KL39" t="n">
+        <v>99.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -36252,8 +36369,11 @@
       <c r="KJ40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KK40" t="n">
+      <c r="KK40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KL40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -37147,7 +37267,10 @@
       <c r="KJ41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KK41" t="n">
+      <c r="KK41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KL41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -38042,7 +38165,10 @@
       <c r="KJ42" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KK42" t="n">
+      <c r="KK42" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KL42" t="n">
         <v>8</v>
       </c>
     </row>
@@ -38937,8 +39063,11 @@
       <c r="KJ43" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KK43" t="n">
+      <c r="KK43" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KL43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -39832,8 +39961,11 @@
       <c r="KJ44" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="KK44" t="n">
+      <c r="KK44" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="KL44" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40727,8 +40859,11 @@
       <c r="KJ45" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="KK45" t="n">
+      <c r="KK45" s="1" t="n">
         <v>296</v>
+      </c>
+      <c r="KL45" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -41622,8 +41757,11 @@
       <c r="KJ46" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="KK46" t="n">
+      <c r="KK46" s="1" t="n">
         <v>311</v>
+      </c>
+      <c r="KL46" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -42517,8 +42655,11 @@
       <c r="KJ47" s="1" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="KK47" t="n">
+      <c r="KK47" s="1" t="n">
         <v>72.5</v>
+      </c>
+      <c r="KL47" t="n">
+        <v>75.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -43412,8 +43553,11 @@
       <c r="KJ48" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KK48" t="n">
+      <c r="KK48" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KL48" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -44307,7 +44451,10 @@
       <c r="KJ49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KK49" t="n">
+      <c r="KK49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KL49" t="n">
         <v>12</v>
       </c>
     </row>
@@ -45202,8 +45349,11 @@
       <c r="KJ50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KK50" t="n">
+      <c r="KK50" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KL50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -46097,8 +46247,11 @@
       <c r="KJ51" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KK51" t="n">
+      <c r="KK51" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KL51" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46992,8 +47145,11 @@
       <c r="KJ52" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KK52" t="n">
+      <c r="KK52" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="KL52" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -47887,8 +48043,11 @@
       <c r="KJ53" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KK53" t="n">
+      <c r="KK53" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KL53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -48782,8 +48941,11 @@
       <c r="KJ54" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KK54" t="n">
+      <c r="KK54" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KL54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -49677,8 +49839,11 @@
       <c r="KJ55" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KK55" t="n">
+      <c r="KK55" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KL55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -50572,8 +50737,11 @@
       <c r="KJ56" s="1" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="KK56" t="n">
+      <c r="KK56" s="1" t="n">
         <v>58.3</v>
+      </c>
+      <c r="KL56" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -51467,8 +51635,11 @@
       <c r="KJ57" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="KK57" t="n">
+      <c r="KK57" s="1" t="n">
         <v>223</v>
+      </c>
+      <c r="KL57" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -52362,8 +52533,11 @@
       <c r="KJ58" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="KK58" t="n">
+      <c r="KK58" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="KL58" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -53257,8 +53431,11 @@
       <c r="KJ59" s="1" t="n">
         <v>356</v>
       </c>
-      <c r="KK59" t="n">
+      <c r="KK59" s="1" t="n">
         <v>351</v>
+      </c>
+      <c r="KL59" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -54152,8 +54329,11 @@
       <c r="KJ60" s="1" t="n">
         <v>1.33</v>
       </c>
-      <c r="KK60" t="n">
+      <c r="KK60" s="1" t="n">
         <v>1.74</v>
+      </c>
+      <c r="KL60" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -55047,8 +55227,11 @@
       <c r="KJ61" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="KK61" t="n">
+      <c r="KK61" s="1" t="n">
         <v>119</v>
+      </c>
+      <c r="KL61" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -55942,8 +56125,11 @@
       <c r="KJ62" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KK62" t="n">
+      <c r="KK62" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KL62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -56837,8 +57023,11 @@
       <c r="KJ63" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KK63" t="n">
+      <c r="KK63" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KL63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -57732,8 +57921,11 @@
       <c r="KJ64" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KK64" t="n">
+      <c r="KK64" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KL64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -58627,8 +58819,11 @@
       <c r="KJ65" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="KK65" t="n">
+      <c r="KK65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KL65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -59522,8 +59717,11 @@
       <c r="KJ66" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KK66" t="n">
+      <c r="KK66" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KL66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -60417,8 +60615,11 @@
       <c r="KJ67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KK67" t="n">
+      <c r="KK67" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KL67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -61312,8 +61513,11 @@
       <c r="KJ68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KK68" t="n">
+      <c r="KK68" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KL68" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -62207,8 +62411,11 @@
       <c r="KJ69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KK69" t="n">
+      <c r="KK69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KL69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -63102,8 +63309,11 @@
       <c r="KJ70" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KK70" t="n">
+      <c r="KK70" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KL70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -63997,8 +64207,11 @@
       <c r="KJ71" s="1" t="n">
         <v>47.1</v>
       </c>
-      <c r="KK71" t="n">
+      <c r="KK71" s="1" t="n">
         <v>53.3</v>
+      </c>
+      <c r="KL71" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -64892,8 +65105,11 @@
       <c r="KJ72" s="1" t="n">
         <v>44.5</v>
       </c>
-      <c r="KK72" t="n">
+      <c r="KK72" s="1" t="n">
         <v>43.88</v>
+      </c>
+      <c r="KL72" t="n">
+        <v>37.78</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -65787,8 +66003,11 @@
       <c r="KJ73" s="1" t="n">
         <v>20.94</v>
       </c>
-      <c r="KK73" t="n">
+      <c r="KK73" s="1" t="n">
         <v>23.4</v>
+      </c>
+      <c r="KL73" t="n">
+        <v>12.59</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -66682,8 +66901,11 @@
       <c r="KJ74" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="KK74" t="n">
+      <c r="KK74" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KL74" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -67577,8 +67799,11 @@
       <c r="KJ75" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KK75" t="n">
+      <c r="KK75" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="KL75" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -68472,8 +68697,11 @@
       <c r="KJ76" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KK76" t="n">
+      <c r="KK76" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KL76" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -69367,8 +69595,11 @@
       <c r="KJ77" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KK77" t="n">
+      <c r="KK77" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KL77" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -70262,8 +70493,11 @@
       <c r="KJ78" s="1" t="n">
         <v>2.82</v>
       </c>
-      <c r="KK78" t="n">
+      <c r="KK78" s="1" t="n">
         <v>2.73</v>
+      </c>
+      <c r="KL78" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -71157,8 +71391,11 @@
       <c r="KJ79" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KK79" t="n">
+      <c r="KK79" s="1" t="n">
         <v>5.12</v>
+      </c>
+      <c r="KL79" t="n">
+        <v>6.78</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -72052,8 +72289,11 @@
       <c r="KJ80" s="1" t="n">
         <v>35.4</v>
       </c>
-      <c r="KK80" t="n">
+      <c r="KK80" s="1" t="n">
         <v>36.6</v>
+      </c>
+      <c r="KL80" t="n">
+        <v>37.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -72947,8 +73187,11 @@
       <c r="KJ81" s="1" t="n">
         <v>16.7</v>
       </c>
-      <c r="KK81" t="n">
+      <c r="KK81" s="1" t="n">
         <v>19.5</v>
+      </c>
+      <c r="KL81" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -73842,8 +74085,11 @@
       <c r="KJ82" s="1" t="n">
         <v>186.4</v>
       </c>
-      <c r="KK82" t="n">
+      <c r="KK82" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KL82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -74737,8 +74983,11 @@
       <c r="KJ83" s="1" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="KK83" t="n">
+      <c r="KK83" s="1" t="n">
         <v>88.40000000000001</v>
+      </c>
+      <c r="KL83" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -75632,8 +75881,11 @@
       <c r="KJ84" s="1" t="n">
         <v>27.8</v>
       </c>
-      <c r="KK84" t="n">
+      <c r="KK84" s="1" t="n">
         <v>27.16</v>
+      </c>
+      <c r="KL84" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -76527,8 +76779,11 @@
       <c r="KJ85" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="KK85" t="n">
+      <c r="KK85" s="1" t="n">
         <v>139.9</v>
+      </c>
+      <c r="KL85" t="n">
+        <v>123.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -77422,8 +77677,11 @@
       <c r="KJ86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KK86" t="n">
+      <c r="KK86" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KL86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -78317,8 +78575,11 @@
       <c r="KJ87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KK87" t="n">
+      <c r="KK87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KL87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -79212,8 +79473,11 @@
       <c r="KJ88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KK88" t="n">
+      <c r="KK88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KL88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -80107,8 +80371,11 @@
       <c r="KJ89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KK89" t="n">
+      <c r="KK89" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KL89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -81002,8 +81269,11 @@
       <c r="KJ90" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="KK90" t="n">
+      <c r="KK90" s="1" t="n">
         <v>106</v>
+      </c>
+      <c r="KL90" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -81897,8 +82167,11 @@
       <c r="KJ91" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="KK91" t="n">
+      <c r="KK91" s="1" t="n">
         <v>234</v>
+      </c>
+      <c r="KL91" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -82792,8 +83065,11 @@
       <c r="KJ92" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="KK92" t="n">
+      <c r="KK92" s="1" t="n">
         <v>255</v>
+      </c>
+      <c r="KL92" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -83687,7 +83963,10 @@
       <c r="KJ93" s="1" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="KK93" t="n">
+      <c r="KK93" s="1" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="KL93" t="n">
         <v>72.59999999999999</v>
       </c>
     </row>
@@ -84582,8 +84861,11 @@
       <c r="KJ94" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KK94" t="n">
+      <c r="KK94" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="KL94" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -85477,8 +85759,11 @@
       <c r="KJ95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KK95" t="n">
+      <c r="KK95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KL95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -86372,8 +86657,11 @@
       <c r="KJ96" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KK96" t="n">
+      <c r="KK96" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KL96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -87267,8 +87555,11 @@
       <c r="KJ97" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="KK97" t="n">
+      <c r="KK97" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KL97" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -88162,8 +88453,11 @@
       <c r="KJ98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KK98" t="n">
+      <c r="KK98" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KL98" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -89057,8 +89351,11 @@
       <c r="KJ99" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KK99" t="n">
+      <c r="KK99" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KL99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -89952,7 +90249,10 @@
       <c r="KJ100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KK100" t="n">
+      <c r="KK100" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KL100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -90847,8 +91147,11 @@
       <c r="KJ101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KK101" t="n">
+      <c r="KK101" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KL101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -91742,8 +92045,11 @@
       <c r="KJ102" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="KK102" t="n">
+      <c r="KK102" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="KL102" t="n">
+        <v>44.4</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/St Kilda_stats.xlsx
+++ b/AFL_ML/Data/St Kilda_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KM102"/>
+  <dimension ref="A1:KN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JO99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JV100" activeCellId="0" sqref="JV100"/>
@@ -1353,8 +1353,11 @@
       <c r="KL1" s="1" t="n">
         <v>10949</v>
       </c>
-      <c r="KM1" t="n">
+      <c r="KM1" s="1" t="n">
         <v>10964</v>
+      </c>
+      <c r="KN1" t="n">
+        <v>10975</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2254,7 +2257,10 @@
       <c r="KL2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KM2" t="n">
+      <c r="KM2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KN2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3155,8 +3161,11 @@
       <c r="KL3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KM3" t="n">
+      <c r="KM3" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4056,8 +4065,11 @@
       <c r="KL4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KM4" t="n">
+      <c r="KM4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4957,8 +4969,11 @@
       <c r="KL5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KM5" t="n">
+      <c r="KM5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KN5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5858,8 +5873,11 @@
       <c r="KL6" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KM6" t="n">
+      <c r="KM6" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="KN6" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6759,8 +6777,11 @@
       <c r="KL7" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="KM7" t="n">
+      <c r="KM7" s="1" t="n">
         <v>101</v>
+      </c>
+      <c r="KN7" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7660,8 +7681,11 @@
       <c r="KL8" s="1" t="n">
         <v>-12</v>
       </c>
-      <c r="KM8" t="n">
+      <c r="KM8" s="1" t="n">
         <v>-24</v>
+      </c>
+      <c r="KN8" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8561,7 +8585,10 @@
       <c r="KL9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KM9" t="n">
+      <c r="KM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9462,8 +9489,11 @@
       <c r="KL10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KM10" t="n">
+      <c r="KM10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KN10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10363,8 +10393,11 @@
       <c r="KL11" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="KM11" t="n">
+      <c r="KM11" s="1" t="n">
         <v>212</v>
+      </c>
+      <c r="KN11" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11264,8 +11297,11 @@
       <c r="KL12" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="KM12" t="n">
+      <c r="KM12" s="1" t="n">
         <v>172</v>
+      </c>
+      <c r="KN12" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12165,8 +12201,11 @@
       <c r="KL13" s="1" t="n">
         <v>363</v>
       </c>
-      <c r="KM13" t="n">
+      <c r="KM13" s="1" t="n">
         <v>384</v>
+      </c>
+      <c r="KN13" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13066,8 +13105,11 @@
       <c r="KL14" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="KM14" t="n">
+      <c r="KM14" s="1" t="n">
         <v>1.23</v>
+      </c>
+      <c r="KN14" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13967,8 +14009,11 @@
       <c r="KL15" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="KM15" t="n">
+      <c r="KM15" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="KN15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14868,8 +14913,11 @@
       <c r="KL16" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="KM16" t="n">
+      <c r="KM16" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KN16" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15769,8 +15817,11 @@
       <c r="KL17" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KM17" t="n">
+      <c r="KM17" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KN17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16670,8 +16721,11 @@
       <c r="KL18" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KM18" t="n">
+      <c r="KM18" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KN18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17571,8 +17625,11 @@
       <c r="KL19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KM19" t="n">
+      <c r="KM19" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KN19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18472,8 +18529,11 @@
       <c r="KL20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KM20" t="n">
+      <c r="KM20" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KN20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19373,8 +19433,11 @@
       <c r="KL21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KM21" t="n">
+      <c r="KM21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KN21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20274,8 +20337,11 @@
       <c r="KL22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KM22" t="n">
+      <c r="KM22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KN22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21175,8 +21241,11 @@
       <c r="KL23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KM23" t="n">
+      <c r="KM23" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KN23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -22076,8 +22145,11 @@
       <c r="KL24" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KM24" t="n">
+      <c r="KM24" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KN24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22977,8 +23049,11 @@
       <c r="KL25" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KM25" t="n">
+      <c r="KM25" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KN25" t="n">
+        <v>39.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23878,8 +23953,11 @@
       <c r="KL26" s="1" t="n">
         <v>40.33</v>
       </c>
-      <c r="KM26" t="n">
+      <c r="KM26" s="1" t="n">
         <v>34.91</v>
+      </c>
+      <c r="KN26" t="n">
+        <v>38.22</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24779,8 +24857,11 @@
       <c r="KL27" s="1" t="n">
         <v>24.2</v>
       </c>
-      <c r="KM27" t="n">
+      <c r="KM27" s="1" t="n">
         <v>17.45</v>
+      </c>
+      <c r="KN27" t="n">
+        <v>14.96</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25680,8 +25761,11 @@
       <c r="KL28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="KM28" t="n">
+      <c r="KM28" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KN28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26581,8 +26665,11 @@
       <c r="KL29" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="KM29" t="n">
+      <c r="KM29" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KN29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27482,8 +27569,11 @@
       <c r="KL30" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KM30" t="n">
+      <c r="KM30" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KN30" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -28383,8 +28473,11 @@
       <c r="KL31" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="KM31" t="n">
+      <c r="KM31" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KN31" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -29284,8 +29377,11 @@
       <c r="KL32" s="1" t="n">
         <v>2.53</v>
       </c>
-      <c r="KM32" t="n">
+      <c r="KM32" s="1" t="n">
         <v>2.5</v>
+      </c>
+      <c r="KN32" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -30185,8 +30281,11 @@
       <c r="KL33" s="1" t="n">
         <v>4.22</v>
       </c>
-      <c r="KM33" t="n">
+      <c r="KM33" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KN33" t="n">
+        <v>4.89</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -31086,8 +31185,11 @@
       <c r="KL34" s="1" t="n">
         <v>34.2</v>
       </c>
-      <c r="KM34" t="n">
+      <c r="KM34" s="1" t="n">
         <v>32.7</v>
+      </c>
+      <c r="KN34" t="n">
+        <v>47.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31987,8 +32089,11 @@
       <c r="KL35" s="1" t="n">
         <v>23.7</v>
       </c>
-      <c r="KM35" t="n">
+      <c r="KM35" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KN35" t="n">
+        <v>20.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32888,7 +32993,10 @@
       <c r="KL36" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="KM36" t="n">
+      <c r="KM36" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="KN36" t="n">
         <v>188.4</v>
       </c>
     </row>
@@ -33789,8 +33897,11 @@
       <c r="KL37" s="1" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="KM37" t="n">
+      <c r="KM37" s="1" t="n">
         <v>85.8</v>
+      </c>
+      <c r="KN37" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -34690,8 +34801,11 @@
       <c r="KL38" s="1" t="n">
         <v>25.66</v>
       </c>
-      <c r="KM38" t="n">
+      <c r="KM38" s="1" t="n">
         <v>25.41</v>
+      </c>
+      <c r="KN38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -35591,8 +35705,11 @@
       <c r="KL39" s="1" t="n">
         <v>99.8</v>
       </c>
-      <c r="KM39" t="n">
+      <c r="KM39" s="1" t="n">
         <v>103.9</v>
+      </c>
+      <c r="KN39" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -36492,8 +36609,11 @@
       <c r="KL40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KM40" t="n">
+      <c r="KM40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KN40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -37393,7 +37513,10 @@
       <c r="KL41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KM41" t="n">
+      <c r="KM41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KN41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -38294,8 +38417,11 @@
       <c r="KL42" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KM42" t="n">
+      <c r="KM42" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KN42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -39195,8 +39321,11 @@
       <c r="KL43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KM43" t="n">
+      <c r="KM43" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KN43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -40096,8 +40225,11 @@
       <c r="KL44" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="KM44" t="n">
+      <c r="KM44" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="KN44" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40997,8 +41129,11 @@
       <c r="KL45" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="KM45" t="n">
+      <c r="KM45" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="KN45" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -41898,8 +42033,11 @@
       <c r="KL46" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="KM46" t="n">
+      <c r="KM46" s="1" t="n">
         <v>273</v>
+      </c>
+      <c r="KN46" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -42799,8 +42937,11 @@
       <c r="KL47" s="1" t="n">
         <v>75.2</v>
       </c>
-      <c r="KM47" t="n">
+      <c r="KM47" s="1" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="KN47" t="n">
+        <v>69.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -43700,8 +43841,11 @@
       <c r="KL48" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="KM48" t="n">
+      <c r="KM48" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KN48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -44601,8 +44745,11 @@
       <c r="KL49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KM49" t="n">
+      <c r="KM49" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KN49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -45502,8 +45649,11 @@
       <c r="KL50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KM50" t="n">
+      <c r="KM50" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KN50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -46403,8 +46553,11 @@
       <c r="KL51" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="KM51" t="n">
+      <c r="KM51" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KN51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -47304,8 +47457,11 @@
       <c r="KL52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KM52" t="n">
+      <c r="KM52" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KN52" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -48205,8 +48361,11 @@
       <c r="KL53" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KM53" t="n">
+      <c r="KM53" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KN53" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -49106,8 +49265,11 @@
       <c r="KL54" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KM54" t="n">
+      <c r="KM54" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KN54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -50007,8 +50169,11 @@
       <c r="KL55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KM55" t="n">
+      <c r="KM55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KN55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -50908,8 +51073,11 @@
       <c r="KL56" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="KM56" t="n">
+      <c r="KM56" s="1" t="n">
         <v>54.5</v>
+      </c>
+      <c r="KN56" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -51809,8 +51977,11 @@
       <c r="KL57" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="KM57" t="n">
+      <c r="KM57" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="KN57" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -52710,8 +52881,11 @@
       <c r="KL58" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="KM58" t="n">
+      <c r="KM58" s="1" t="n">
         <v>159</v>
+      </c>
+      <c r="KN58" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -53611,8 +53785,11 @@
       <c r="KL59" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="KM59" t="n">
+      <c r="KM59" s="1" t="n">
         <v>376</v>
+      </c>
+      <c r="KN59" t="n">
+        <v>361</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -54512,8 +54689,11 @@
       <c r="KL60" s="1" t="n">
         <v>1.83</v>
       </c>
-      <c r="KM60" t="n">
+      <c r="KM60" s="1" t="n">
         <v>1.36</v>
+      </c>
+      <c r="KN60" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -55413,8 +55593,11 @@
       <c r="KL61" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="KM61" t="n">
+      <c r="KM61" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="KN61" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -56314,8 +56497,11 @@
       <c r="KL62" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KM62" t="n">
+      <c r="KM62" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="KN62" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -57215,8 +57401,11 @@
       <c r="KL63" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KM63" t="n">
+      <c r="KM63" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KN63" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -58116,8 +58305,11 @@
       <c r="KL64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KM64" t="n">
+      <c r="KM64" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KN64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -59017,8 +59209,11 @@
       <c r="KL65" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KM65" t="n">
+      <c r="KM65" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KN65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -59918,8 +60113,11 @@
       <c r="KL66" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KM66" t="n">
+      <c r="KM66" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KN66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -60819,8 +61017,11 @@
       <c r="KL67" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KM67" t="n">
+      <c r="KM67" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KN67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -61720,8 +61921,11 @@
       <c r="KL68" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KM68" t="n">
+      <c r="KM68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KN68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -62621,8 +62825,11 @@
       <c r="KL69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KM69" t="n">
+      <c r="KM69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KN69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -63522,7 +63729,10 @@
       <c r="KL70" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="KM70" t="n">
+      <c r="KM70" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="KN70" t="n">
         <v>26</v>
       </c>
     </row>
@@ -64423,8 +64633,11 @@
       <c r="KL71" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="KM71" t="n">
+      <c r="KM71" s="1" t="n">
         <v>57.7</v>
+      </c>
+      <c r="KN71" t="n">
+        <v>38.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -65324,8 +65537,11 @@
       <c r="KL72" s="1" t="n">
         <v>37.78</v>
       </c>
-      <c r="KM72" t="n">
+      <c r="KM72" s="1" t="n">
         <v>25.07</v>
+      </c>
+      <c r="KN72" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -66225,8 +66441,11 @@
       <c r="KL73" s="1" t="n">
         <v>12.59</v>
       </c>
-      <c r="KM73" t="n">
+      <c r="KM73" s="1" t="n">
         <v>14.46</v>
+      </c>
+      <c r="KN73" t="n">
+        <v>13.88</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -67126,7 +67345,10 @@
       <c r="KL74" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KM74" t="n">
+      <c r="KM74" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="KN74" t="n">
         <v>36</v>
       </c>
     </row>
@@ -68027,8 +68249,11 @@
       <c r="KL75" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KM75" t="n">
+      <c r="KM75" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KN75" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -68928,8 +69153,11 @@
       <c r="KL76" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="KM76" t="n">
+      <c r="KM76" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KN76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -69829,8 +70057,11 @@
       <c r="KL77" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="KM77" t="n">
+      <c r="KM77" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KN77" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -70730,8 +70961,11 @@
       <c r="KL78" s="1" t="n">
         <v>2.26</v>
       </c>
-      <c r="KM78" t="n">
+      <c r="KM78" s="1" t="n">
         <v>2.08</v>
+      </c>
+      <c r="KN78" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -71631,8 +71865,11 @@
       <c r="KL79" s="1" t="n">
         <v>6.78</v>
       </c>
-      <c r="KM79" t="n">
+      <c r="KM79" s="1" t="n">
         <v>3.6</v>
+      </c>
+      <c r="KN79" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -72532,8 +72769,11 @@
       <c r="KL80" s="1" t="n">
         <v>37.7</v>
       </c>
-      <c r="KM80" t="n">
+      <c r="KM80" s="1" t="n">
         <v>46.3</v>
+      </c>
+      <c r="KN80" t="n">
+        <v>36.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -73433,8 +73673,11 @@
       <c r="KL81" s="1" t="n">
         <v>14.8</v>
       </c>
-      <c r="KM81" t="n">
+      <c r="KM81" s="1" t="n">
         <v>27.8</v>
+      </c>
+      <c r="KN81" t="n">
+        <v>15.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -74334,8 +74577,11 @@
       <c r="KL82" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="KM82" t="n">
+      <c r="KM82" s="1" t="n">
         <v>189.6</v>
+      </c>
+      <c r="KN82" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -75235,8 +75481,11 @@
       <c r="KL83" s="1" t="n">
         <v>87.7</v>
       </c>
-      <c r="KM83" t="n">
+      <c r="KM83" s="1" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="KN83" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -76136,8 +76385,11 @@
       <c r="KL84" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="KM84" t="n">
+      <c r="KM84" s="1" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KN84" t="n">
+        <v>27.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -77037,8 +77289,11 @@
       <c r="KL85" s="1" t="n">
         <v>123.1</v>
       </c>
-      <c r="KM85" t="n">
+      <c r="KM85" s="1" t="n">
         <v>105</v>
+      </c>
+      <c r="KN85" t="n">
+        <v>133.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -77938,8 +78193,11 @@
       <c r="KL86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KM86" t="n">
+      <c r="KM86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KN86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -78839,8 +79097,11 @@
       <c r="KL87" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KM87" t="n">
+      <c r="KM87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KN87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -79740,8 +80001,11 @@
       <c r="KL88" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KM88" t="n">
+      <c r="KM88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KN88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -80641,8 +80905,11 @@
       <c r="KL89" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KM89" t="n">
+      <c r="KM89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KN89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -81542,8 +81809,11 @@
       <c r="KL90" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="KM90" t="n">
+      <c r="KM90" s="1" t="n">
         <v>148</v>
+      </c>
+      <c r="KN90" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -82443,8 +82713,11 @@
       <c r="KL91" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="KM91" t="n">
+      <c r="KM91" s="1" t="n">
         <v>222</v>
+      </c>
+      <c r="KN91" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -83344,8 +83617,11 @@
       <c r="KL92" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="KM92" t="n">
+      <c r="KM92" s="1" t="n">
         <v>271</v>
+      </c>
+      <c r="KN92" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -84245,8 +84521,11 @@
       <c r="KL93" s="1" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="KM93" t="n">
+      <c r="KM93" s="1" t="n">
         <v>72.09999999999999</v>
+      </c>
+      <c r="KN93" t="n">
+        <v>71.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -85146,8 +85425,11 @@
       <c r="KL94" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KM94" t="n">
+      <c r="KM94" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KN94" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -86047,8 +86329,11 @@
       <c r="KL95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KM95" t="n">
+      <c r="KM95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KN95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -86948,7 +87233,10 @@
       <c r="KL96" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KM96" t="n">
+      <c r="KM96" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KN96" t="n">
         <v>15</v>
       </c>
     </row>
@@ -87849,7 +88137,10 @@
       <c r="KL97" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KM97" t="n">
+      <c r="KM97" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="KN97" t="n">
         <v>36</v>
       </c>
     </row>
@@ -88750,8 +89041,11 @@
       <c r="KL98" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="KM98" t="n">
+      <c r="KM98" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KN98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -89651,8 +89945,11 @@
       <c r="KL99" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KM99" t="n">
+      <c r="KM99" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="KN99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -90552,8 +90849,11 @@
       <c r="KL100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KM100" t="n">
+      <c r="KM100" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KN100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -91453,8 +91753,11 @@
       <c r="KL101" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KM101" t="n">
+      <c r="KM101" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KN101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -92354,8 +92657,11 @@
       <c r="KL102" s="1" t="n">
         <v>44.4</v>
       </c>
-      <c r="KM102" t="n">
+      <c r="KM102" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="KN102" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
